--- a/Code/Results/Cases/Case_4_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9950383980727167</v>
+        <v>0.9950383980727205</v>
       </c>
       <c r="D2">
-        <v>1.012305907794192</v>
+        <v>1.012305907794195</v>
       </c>
       <c r="E2">
-        <v>1.003247842757656</v>
+        <v>1.00324784275766</v>
       </c>
       <c r="F2">
-        <v>1.010645230591641</v>
+        <v>1.010645230591644</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042399634929514</v>
+        <v>1.042399634929516</v>
       </c>
       <c r="J2">
-        <v>1.017368529354767</v>
+        <v>1.01736852935477</v>
       </c>
       <c r="K2">
-        <v>1.023596423149624</v>
+        <v>1.023596423149627</v>
       </c>
       <c r="L2">
-        <v>1.014662114662469</v>
+        <v>1.014662114662473</v>
       </c>
       <c r="M2">
-        <v>1.021958226136564</v>
+        <v>1.021958226136567</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -480,7 +480,7 @@
         <v>1.026319318875308</v>
       </c>
       <c r="K3">
-        <v>1.031356343641668</v>
+        <v>1.031356343641667</v>
       </c>
       <c r="L3">
         <v>1.024113695876148</v>
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012756691703699</v>
+        <v>1.0127566917037</v>
       </c>
       <c r="D4">
-        <v>1.026344411756343</v>
+        <v>1.026344411756344</v>
       </c>
       <c r="E4">
-        <v>1.020086061554702</v>
+        <v>1.020086061554703</v>
       </c>
       <c r="F4">
-        <v>1.026945636047804</v>
+        <v>1.026945636047806</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0497005793387</v>
+        <v>1.049700579338701</v>
       </c>
       <c r="J4">
-        <v>1.031839614831101</v>
+        <v>1.031839614831102</v>
       </c>
       <c r="K4">
-        <v>1.036134949382397</v>
+        <v>1.036134949382398</v>
       </c>
       <c r="L4">
-        <v>1.029947962128857</v>
+        <v>1.029947962128859</v>
       </c>
       <c r="M4">
-        <v>1.036729374449738</v>
+        <v>1.036729374449739</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,31 +535,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015530753221027</v>
+        <v>1.015530753221028</v>
       </c>
       <c r="D5">
-        <v>1.028540943795653</v>
+        <v>1.028540943795654</v>
       </c>
       <c r="E5">
-        <v>1.022725026807649</v>
+        <v>1.02272502680765</v>
       </c>
       <c r="F5">
-        <v>1.029502038736227</v>
+        <v>1.029502038736228</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050834031342147</v>
+        <v>1.050834031342148</v>
       </c>
       <c r="J5">
-        <v>1.03410061590475</v>
+        <v>1.034100615904751</v>
       </c>
       <c r="K5">
-        <v>1.038090408106512</v>
+        <v>1.038090408106513</v>
       </c>
       <c r="L5">
-        <v>1.032338780239039</v>
+        <v>1.03233878023904</v>
       </c>
       <c r="M5">
         <v>1.039040965000162</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015992573343685</v>
+        <v>1.015992573343682</v>
       </c>
       <c r="D6">
-        <v>1.028906568448075</v>
+        <v>1.028906568448072</v>
       </c>
       <c r="E6">
-        <v>1.023164427077501</v>
+        <v>1.023164427077498</v>
       </c>
       <c r="F6">
-        <v>1.029927737249726</v>
+        <v>1.029927737249724</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051022446902537</v>
+        <v>1.051022446902536</v>
       </c>
       <c r="J6">
-        <v>1.034476885081964</v>
+        <v>1.034476885081961</v>
       </c>
       <c r="K6">
-        <v>1.038415725456877</v>
+        <v>1.038415725456875</v>
       </c>
       <c r="L6">
-        <v>1.032736724937917</v>
+        <v>1.032736724937914</v>
       </c>
       <c r="M6">
-        <v>1.039425755947414</v>
+        <v>1.039425755947411</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01279402758507</v>
+        <v>1.012794027585072</v>
       </c>
       <c r="D7">
-        <v>1.026373977960229</v>
+        <v>1.026373977960231</v>
       </c>
       <c r="E7">
-        <v>1.020121574352351</v>
+        <v>1.020121574352353</v>
       </c>
       <c r="F7">
-        <v>1.026980034696473</v>
+        <v>1.026980034696475</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049715853179289</v>
+        <v>1.04971585317929</v>
       </c>
       <c r="J7">
-        <v>1.03187005471688</v>
+        <v>1.031870054716881</v>
       </c>
       <c r="K7">
-        <v>1.036161282775274</v>
+        <v>1.036161282775276</v>
       </c>
       <c r="L7">
-        <v>1.02998014489841</v>
+        <v>1.029980144898411</v>
       </c>
       <c r="M7">
-        <v>1.036760488450867</v>
+        <v>1.036760488450869</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,7 +649,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9988103332689924</v>
+        <v>0.9988103332689922</v>
       </c>
       <c r="D8">
         <v>1.015295438806517</v>
@@ -676,7 +676,7 @@
         <v>1.017918170742623</v>
       </c>
       <c r="M8">
-        <v>1.02510346093353</v>
+        <v>1.025103460933529</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9713669408451837</v>
+        <v>0.9713669408451853</v>
       </c>
       <c r="D9">
-        <v>0.9935417759280175</v>
+        <v>0.9935417759280192</v>
       </c>
       <c r="E9">
-        <v>0.9807990761110844</v>
+        <v>0.980799076111086</v>
       </c>
       <c r="F9">
-        <v>0.9889435222331291</v>
+        <v>0.9889435222331306</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032510824798679</v>
+        <v>1.03251082479868</v>
       </c>
       <c r="J9">
-        <v>0.9979729637209337</v>
+        <v>0.9979729637209354</v>
       </c>
       <c r="K9">
-        <v>1.0067405096151</v>
+        <v>1.006740509615101</v>
       </c>
       <c r="L9">
-        <v>0.9942115510966115</v>
+        <v>0.9942115510966131</v>
       </c>
       <c r="M9">
-        <v>1.002218566894224</v>
+        <v>1.002218566894226</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9505819154295435</v>
+        <v>0.9505819154295412</v>
       </c>
       <c r="D10">
-        <v>0.9770747776532962</v>
+        <v>0.9770747776532939</v>
       </c>
       <c r="E10">
-        <v>0.9611332447335481</v>
+        <v>0.9611332447335456</v>
       </c>
       <c r="F10">
-        <v>0.9699613501910225</v>
+        <v>0.9699613501910206</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023733791157979</v>
+        <v>1.023733791157978</v>
       </c>
       <c r="J10">
-        <v>0.9809033377603821</v>
+        <v>0.9809033377603799</v>
       </c>
       <c r="K10">
-        <v>0.9918706694089051</v>
+        <v>0.991870669408903</v>
       </c>
       <c r="L10">
-        <v>0.9762415940967676</v>
+        <v>0.9762415940967651</v>
       </c>
       <c r="M10">
-        <v>0.9848950018589856</v>
+        <v>0.9848950018589836</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9408056165094784</v>
+        <v>0.9408056165094799</v>
       </c>
       <c r="D11">
-        <v>0.9693366782551696</v>
+        <v>0.9693366782551711</v>
       </c>
       <c r="E11">
-        <v>0.9518986632625861</v>
+        <v>0.9518986632625873</v>
       </c>
       <c r="F11">
-        <v>0.9610576122498582</v>
+        <v>0.96105761224986</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019582587004624</v>
+        <v>1.019582587004625</v>
       </c>
       <c r="J11">
-        <v>0.9728665536640182</v>
+        <v>0.9728665536640196</v>
       </c>
       <c r="K11">
-        <v>0.9848609916926548</v>
+        <v>0.9848609916926564</v>
       </c>
       <c r="L11">
-        <v>0.967788521498351</v>
+        <v>0.9677885214983524</v>
       </c>
       <c r="M11">
-        <v>0.9767532889474533</v>
+        <v>0.9767532889474548</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9370364003626158</v>
+        <v>0.9370364003626156</v>
       </c>
       <c r="D12">
-        <v>0.9663549359654982</v>
+        <v>0.9663549359654979</v>
       </c>
       <c r="E12">
-        <v>0.9483409936334727</v>
+        <v>0.9483409936334724</v>
       </c>
       <c r="F12">
-        <v>0.9576291283128573</v>
+        <v>0.9576291283128572</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,13 +819,13 @@
         <v>1.017978886297645</v>
       </c>
       <c r="J12">
-        <v>0.969767067595382</v>
+        <v>0.9697670675953817</v>
       </c>
       <c r="K12">
-        <v>0.9821564125356649</v>
+        <v>0.9821564125356648</v>
       </c>
       <c r="L12">
-        <v>0.9645296542669451</v>
+        <v>0.9645296542669448</v>
       </c>
       <c r="M12">
         <v>0.9736157415951991</v>
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9378515547696915</v>
+        <v>0.9378515547696905</v>
       </c>
       <c r="D13">
-        <v>0.9669997012259642</v>
+        <v>0.9669997012259635</v>
       </c>
       <c r="E13">
-        <v>0.9491102693751955</v>
+        <v>0.9491102693751948</v>
       </c>
       <c r="F13">
-        <v>0.9583703878051492</v>
+        <v>0.9583703878051486</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.018325853353278</v>
       </c>
       <c r="J13">
-        <v>0.9704374187648807</v>
+        <v>0.9704374187648798</v>
       </c>
       <c r="K13">
-        <v>0.9827414067859007</v>
+        <v>0.9827414067858998</v>
       </c>
       <c r="L13">
-        <v>0.9652344232571597</v>
+        <v>0.965234423257159</v>
       </c>
       <c r="M13">
-        <v>0.9742942124996378</v>
+        <v>0.9742942124996371</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9404970083187142</v>
+        <v>0.9404970083187171</v>
       </c>
       <c r="D14">
-        <v>0.969092508151113</v>
+        <v>0.9690925081511151</v>
       </c>
       <c r="E14">
-        <v>0.95160731888802</v>
+        <v>0.9516073188880225</v>
       </c>
       <c r="F14">
-        <v>0.9607768106810738</v>
+        <v>0.9607768106810765</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019451345854653</v>
+        <v>1.019451345854654</v>
       </c>
       <c r="J14">
-        <v>0.9726127972437852</v>
+        <v>0.9726127972437879</v>
       </c>
       <c r="K14">
-        <v>0.9846395902989343</v>
+        <v>0.9846395902989367</v>
       </c>
       <c r="L14">
-        <v>0.9675216928382699</v>
+        <v>0.9675216928382726</v>
       </c>
       <c r="M14">
-        <v>0.976496366601603</v>
+        <v>0.9764963666016053</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9421079561013086</v>
+        <v>0.9421079561013056</v>
       </c>
       <c r="D15">
-        <v>0.9703671568142795</v>
+        <v>0.9703671568142771</v>
       </c>
       <c r="E15">
-        <v>0.9531282598118399</v>
+        <v>0.953128259811837</v>
       </c>
       <c r="F15">
-        <v>0.96224278498453</v>
+        <v>0.962242784984527</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02013630184998</v>
+        <v>1.020136301849978</v>
       </c>
       <c r="J15">
-        <v>0.9739373806355787</v>
+        <v>0.9739373806355758</v>
       </c>
       <c r="K15">
-        <v>0.9857952354432339</v>
+        <v>0.9857952354432313</v>
       </c>
       <c r="L15">
-        <v>0.9689145591693925</v>
+        <v>0.9689145591693897</v>
       </c>
       <c r="M15">
-        <v>0.9778375741605903</v>
+        <v>0.9778375741605873</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9512126957183064</v>
+        <v>0.9512126957183038</v>
       </c>
       <c r="D16">
-        <v>0.9775742412167719</v>
+        <v>0.9775742412167696</v>
       </c>
       <c r="E16">
-        <v>0.9617294142356235</v>
+        <v>0.9617294142356211</v>
       </c>
       <c r="F16">
-        <v>0.9705363803272371</v>
+        <v>0.9705363803272348</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024001183642082</v>
+        <v>1.024001183642081</v>
       </c>
       <c r="J16">
-        <v>0.98142173969279</v>
+        <v>0.9814217396927877</v>
       </c>
       <c r="K16">
-        <v>0.9923226505784754</v>
+        <v>0.9923226505784731</v>
       </c>
       <c r="L16">
-        <v>0.9767870047103527</v>
+        <v>0.9767870047103504</v>
       </c>
       <c r="M16">
-        <v>0.9854204858099672</v>
+        <v>0.9854204858099651</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9567027295108808</v>
+        <v>0.95670272951088</v>
       </c>
       <c r="D17">
-        <v>0.9819221998350093</v>
+        <v>0.9819221998350088</v>
       </c>
       <c r="E17">
-        <v>0.9669199366617481</v>
+        <v>0.9669199366617478</v>
       </c>
       <c r="F17">
-        <v>0.9755439617901176</v>
+        <v>0.9755439617901167</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.026325941281457</v>
       </c>
       <c r="J17">
-        <v>0.9859328190254258</v>
+        <v>0.985932819025425</v>
       </c>
       <c r="K17">
-        <v>0.9962548010157919</v>
+        <v>0.9962548010157913</v>
       </c>
       <c r="L17">
-        <v>0.9815339528199254</v>
+        <v>0.9815339528199249</v>
       </c>
       <c r="M17">
-        <v>0.9899948264409242</v>
+        <v>0.9899948264409233</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9598317665690574</v>
+        <v>0.9598317665690587</v>
       </c>
       <c r="D18">
-        <v>0.9844009316595594</v>
+        <v>0.9844009316595609</v>
       </c>
       <c r="E18">
-        <v>0.9698796426249058</v>
+        <v>0.9698796426249072</v>
       </c>
       <c r="F18">
-        <v>0.9784002350306894</v>
+        <v>0.9784002350306913</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.027648817007482</v>
       </c>
       <c r="J18">
-        <v>0.988503145264587</v>
+        <v>0.9885031452645885</v>
       </c>
       <c r="K18">
-        <v>0.9984944697477073</v>
+        <v>0.9984944697477085</v>
       </c>
       <c r="L18">
-        <v>0.9842393684486265</v>
+        <v>0.9842393684486279</v>
       </c>
       <c r="M18">
-        <v>0.9926025239985835</v>
+        <v>0.9926025239985851</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1070,10 +1070,10 @@
         <v>0.9608868267716629</v>
       </c>
       <c r="D19">
-        <v>0.9852368101853215</v>
+        <v>0.9852368101853214</v>
       </c>
       <c r="E19">
-        <v>0.9708778305599531</v>
+        <v>0.970877830559953</v>
       </c>
       <c r="F19">
         <v>0.9793636827184351</v>
@@ -1085,10 +1085,10 @@
         <v>1.028094504509103</v>
       </c>
       <c r="J19">
-        <v>0.9893696820692337</v>
+        <v>0.9893696820692339</v>
       </c>
       <c r="K19">
-        <v>0.9992493947185525</v>
+        <v>0.9992493947185523</v>
       </c>
       <c r="L19">
         <v>0.9851515655446978</v>
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9561214085759893</v>
+        <v>0.9561214085759885</v>
       </c>
       <c r="D20">
-        <v>0.9814617412273503</v>
+        <v>0.9814617412273496</v>
       </c>
       <c r="E20">
-        <v>0.9663701840637643</v>
+        <v>0.9663701840637633</v>
       </c>
       <c r="F20">
-        <v>0.9750134916748805</v>
+        <v>0.9750134916748797</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026080000145116</v>
+        <v>1.026080000145115</v>
       </c>
       <c r="J20">
-        <v>0.9854552335662097</v>
+        <v>0.9854552335662089</v>
       </c>
       <c r="K20">
-        <v>0.9958385888932159</v>
+        <v>0.9958385888932155</v>
       </c>
       <c r="L20">
-        <v>0.9810313232942537</v>
+        <v>0.9810313232942529</v>
       </c>
       <c r="M20">
-        <v>0.989510403842253</v>
+        <v>0.9895104038422523</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9397219941539611</v>
+        <v>0.9397219941539576</v>
       </c>
       <c r="D21">
-        <v>0.9684793473415901</v>
+        <v>0.968479347341587</v>
       </c>
       <c r="E21">
-        <v>0.9508757042276834</v>
+        <v>0.9508757042276798</v>
       </c>
       <c r="F21">
-        <v>0.9600716993723197</v>
+        <v>0.9600716993723166</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019121706574795</v>
+        <v>1.019121706574793</v>
       </c>
       <c r="J21">
-        <v>0.971975519595852</v>
+        <v>0.9719755195958488</v>
       </c>
       <c r="K21">
-        <v>0.9840835492442974</v>
+        <v>0.9840835492442946</v>
       </c>
       <c r="L21">
-        <v>0.9668516046212385</v>
+        <v>0.966851604621235</v>
       </c>
       <c r="M21">
-        <v>0.9758511774077884</v>
+        <v>0.9758511774077855</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,7 +1181,7 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9285980530615336</v>
+        <v>0.9285980530615335</v>
       </c>
       <c r="D22">
         <v>0.9596834054478471</v>
@@ -1190,7 +1190,7 @@
         <v>0.9403817823834207</v>
       </c>
       <c r="F22">
-        <v>0.9499624857410779</v>
+        <v>0.9499624857410781</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1202,13 +1202,13 @@
         <v>0.9628267233794049</v>
       </c>
       <c r="K22">
-        <v>0.9760982058664069</v>
+        <v>0.9760982058664071</v>
       </c>
       <c r="L22">
         <v>0.9572346235415403</v>
       </c>
       <c r="M22">
-        <v>0.9665949287834379</v>
+        <v>0.9665949287834383</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9345808970365098</v>
+        <v>0.9345808970365104</v>
       </c>
       <c r="D23">
-        <v>0.9644129939416913</v>
+        <v>0.9644129939416921</v>
       </c>
       <c r="E23">
-        <v>0.9460241216888355</v>
+        <v>0.9460241216888358</v>
       </c>
       <c r="F23">
-        <v>0.9553969109108355</v>
+        <v>0.9553969109108361</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.016933260110141</v>
       </c>
       <c r="J23">
-        <v>0.9677476462182278</v>
+        <v>0.9677476462182283</v>
       </c>
       <c r="K23">
-        <v>0.9803939578715987</v>
+        <v>0.9803939578715991</v>
       </c>
       <c r="L23">
-        <v>0.9624067227256944</v>
+        <v>0.9624067227256947</v>
       </c>
       <c r="M23">
-        <v>0.9715722314629804</v>
+        <v>0.9715722314629809</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9563843071717977</v>
+        <v>0.956384307171799</v>
       </c>
       <c r="D24">
-        <v>0.9816699787338707</v>
+        <v>0.9816699787338721</v>
       </c>
       <c r="E24">
-        <v>0.9666188018224638</v>
+        <v>0.9666188018224648</v>
       </c>
       <c r="F24">
-        <v>0.9752533864702381</v>
+        <v>0.9752533864702396</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026191232037306</v>
+        <v>1.026191232037307</v>
       </c>
       <c r="J24">
-        <v>0.9856712208520052</v>
+        <v>0.9856712208520064</v>
       </c>
       <c r="K24">
-        <v>0.9960268226688836</v>
+        <v>0.9960268226688851</v>
       </c>
       <c r="L24">
-        <v>0.9812586345503885</v>
+        <v>0.9812586345503896</v>
       </c>
       <c r="M24">
-        <v>0.989729479089647</v>
+        <v>0.9897294790896483</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,19 +1292,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9788484895256465</v>
+        <v>0.9788484895256467</v>
       </c>
       <c r="D25">
-        <v>0.9994720964167111</v>
+        <v>0.9994720964167113</v>
       </c>
       <c r="E25">
         <v>0.9878883061478569</v>
       </c>
       <c r="F25">
-        <v>0.9957930659140922</v>
+        <v>0.9957930659140926</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>1.035650349860833</v>
       </c>
       <c r="J25">
-        <v>1.004109272969532</v>
+        <v>1.004109272969533</v>
       </c>
       <c r="K25">
         <v>1.012078612939675</v>

--- a/Code/Results/Cases/Case_4_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9950383980727205</v>
+        <v>0.9950383980727167</v>
       </c>
       <c r="D2">
-        <v>1.012305907794195</v>
+        <v>1.012305907794192</v>
       </c>
       <c r="E2">
-        <v>1.00324784275766</v>
+        <v>1.003247842757656</v>
       </c>
       <c r="F2">
-        <v>1.010645230591644</v>
+        <v>1.010645230591641</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042399634929516</v>
+        <v>1.042399634929514</v>
       </c>
       <c r="J2">
-        <v>1.01736852935477</v>
+        <v>1.017368529354767</v>
       </c>
       <c r="K2">
-        <v>1.023596423149627</v>
+        <v>1.023596423149624</v>
       </c>
       <c r="L2">
-        <v>1.014662114662473</v>
+        <v>1.014662114662469</v>
       </c>
       <c r="M2">
-        <v>1.021958226136567</v>
+        <v>1.021958226136564</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -480,7 +480,7 @@
         <v>1.026319318875308</v>
       </c>
       <c r="K3">
-        <v>1.031356343641667</v>
+        <v>1.031356343641668</v>
       </c>
       <c r="L3">
         <v>1.024113695876148</v>
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0127566917037</v>
+        <v>1.012756691703699</v>
       </c>
       <c r="D4">
-        <v>1.026344411756344</v>
+        <v>1.026344411756343</v>
       </c>
       <c r="E4">
-        <v>1.020086061554703</v>
+        <v>1.020086061554702</v>
       </c>
       <c r="F4">
-        <v>1.026945636047806</v>
+        <v>1.026945636047804</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049700579338701</v>
+        <v>1.0497005793387</v>
       </c>
       <c r="J4">
-        <v>1.031839614831102</v>
+        <v>1.031839614831101</v>
       </c>
       <c r="K4">
-        <v>1.036134949382398</v>
+        <v>1.036134949382397</v>
       </c>
       <c r="L4">
-        <v>1.029947962128859</v>
+        <v>1.029947962128857</v>
       </c>
       <c r="M4">
-        <v>1.036729374449739</v>
+        <v>1.036729374449738</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,31 +535,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015530753221028</v>
+        <v>1.015530753221027</v>
       </c>
       <c r="D5">
-        <v>1.028540943795654</v>
+        <v>1.028540943795653</v>
       </c>
       <c r="E5">
-        <v>1.02272502680765</v>
+        <v>1.022725026807649</v>
       </c>
       <c r="F5">
-        <v>1.029502038736228</v>
+        <v>1.029502038736227</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050834031342148</v>
+        <v>1.050834031342147</v>
       </c>
       <c r="J5">
-        <v>1.034100615904751</v>
+        <v>1.03410061590475</v>
       </c>
       <c r="K5">
-        <v>1.038090408106513</v>
+        <v>1.038090408106512</v>
       </c>
       <c r="L5">
-        <v>1.03233878023904</v>
+        <v>1.032338780239039</v>
       </c>
       <c r="M5">
         <v>1.039040965000162</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015992573343682</v>
+        <v>1.015992573343685</v>
       </c>
       <c r="D6">
-        <v>1.028906568448072</v>
+        <v>1.028906568448075</v>
       </c>
       <c r="E6">
-        <v>1.023164427077498</v>
+        <v>1.023164427077501</v>
       </c>
       <c r="F6">
-        <v>1.029927737249724</v>
+        <v>1.029927737249726</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051022446902536</v>
+        <v>1.051022446902537</v>
       </c>
       <c r="J6">
-        <v>1.034476885081961</v>
+        <v>1.034476885081964</v>
       </c>
       <c r="K6">
-        <v>1.038415725456875</v>
+        <v>1.038415725456877</v>
       </c>
       <c r="L6">
-        <v>1.032736724937914</v>
+        <v>1.032736724937917</v>
       </c>
       <c r="M6">
-        <v>1.039425755947411</v>
+        <v>1.039425755947414</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012794027585072</v>
+        <v>1.01279402758507</v>
       </c>
       <c r="D7">
-        <v>1.026373977960231</v>
+        <v>1.026373977960229</v>
       </c>
       <c r="E7">
-        <v>1.020121574352353</v>
+        <v>1.020121574352351</v>
       </c>
       <c r="F7">
-        <v>1.026980034696475</v>
+        <v>1.026980034696473</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04971585317929</v>
+        <v>1.049715853179289</v>
       </c>
       <c r="J7">
-        <v>1.031870054716881</v>
+        <v>1.03187005471688</v>
       </c>
       <c r="K7">
-        <v>1.036161282775276</v>
+        <v>1.036161282775274</v>
       </c>
       <c r="L7">
-        <v>1.029980144898411</v>
+        <v>1.02998014489841</v>
       </c>
       <c r="M7">
-        <v>1.036760488450869</v>
+        <v>1.036760488450867</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,7 +649,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9988103332689922</v>
+        <v>0.9988103332689924</v>
       </c>
       <c r="D8">
         <v>1.015295438806517</v>
@@ -676,7 +676,7 @@
         <v>1.017918170742623</v>
       </c>
       <c r="M8">
-        <v>1.025103460933529</v>
+        <v>1.02510346093353</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9713669408451853</v>
+        <v>0.9713669408451837</v>
       </c>
       <c r="D9">
-        <v>0.9935417759280192</v>
+        <v>0.9935417759280175</v>
       </c>
       <c r="E9">
-        <v>0.980799076111086</v>
+        <v>0.9807990761110844</v>
       </c>
       <c r="F9">
-        <v>0.9889435222331306</v>
+        <v>0.9889435222331291</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03251082479868</v>
+        <v>1.032510824798679</v>
       </c>
       <c r="J9">
-        <v>0.9979729637209354</v>
+        <v>0.9979729637209337</v>
       </c>
       <c r="K9">
-        <v>1.006740509615101</v>
+        <v>1.0067405096151</v>
       </c>
       <c r="L9">
-        <v>0.9942115510966131</v>
+        <v>0.9942115510966115</v>
       </c>
       <c r="M9">
-        <v>1.002218566894226</v>
+        <v>1.002218566894224</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9505819154295412</v>
+        <v>0.9505819154295435</v>
       </c>
       <c r="D10">
-        <v>0.9770747776532939</v>
+        <v>0.9770747776532962</v>
       </c>
       <c r="E10">
-        <v>0.9611332447335456</v>
+        <v>0.9611332447335481</v>
       </c>
       <c r="F10">
-        <v>0.9699613501910206</v>
+        <v>0.9699613501910225</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023733791157978</v>
+        <v>1.023733791157979</v>
       </c>
       <c r="J10">
-        <v>0.9809033377603799</v>
+        <v>0.9809033377603821</v>
       </c>
       <c r="K10">
-        <v>0.991870669408903</v>
+        <v>0.9918706694089051</v>
       </c>
       <c r="L10">
-        <v>0.9762415940967651</v>
+        <v>0.9762415940967676</v>
       </c>
       <c r="M10">
-        <v>0.9848950018589836</v>
+        <v>0.9848950018589856</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9408056165094799</v>
+        <v>0.9408056165094784</v>
       </c>
       <c r="D11">
-        <v>0.9693366782551711</v>
+        <v>0.9693366782551696</v>
       </c>
       <c r="E11">
-        <v>0.9518986632625873</v>
+        <v>0.9518986632625861</v>
       </c>
       <c r="F11">
-        <v>0.96105761224986</v>
+        <v>0.9610576122498582</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019582587004625</v>
+        <v>1.019582587004624</v>
       </c>
       <c r="J11">
-        <v>0.9728665536640196</v>
+        <v>0.9728665536640182</v>
       </c>
       <c r="K11">
-        <v>0.9848609916926564</v>
+        <v>0.9848609916926548</v>
       </c>
       <c r="L11">
-        <v>0.9677885214983524</v>
+        <v>0.967788521498351</v>
       </c>
       <c r="M11">
-        <v>0.9767532889474548</v>
+        <v>0.9767532889474533</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9370364003626156</v>
+        <v>0.9370364003626158</v>
       </c>
       <c r="D12">
-        <v>0.9663549359654979</v>
+        <v>0.9663549359654982</v>
       </c>
       <c r="E12">
-        <v>0.9483409936334724</v>
+        <v>0.9483409936334727</v>
       </c>
       <c r="F12">
-        <v>0.9576291283128572</v>
+        <v>0.9576291283128573</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,13 +819,13 @@
         <v>1.017978886297645</v>
       </c>
       <c r="J12">
-        <v>0.9697670675953817</v>
+        <v>0.969767067595382</v>
       </c>
       <c r="K12">
-        <v>0.9821564125356648</v>
+        <v>0.9821564125356649</v>
       </c>
       <c r="L12">
-        <v>0.9645296542669448</v>
+        <v>0.9645296542669451</v>
       </c>
       <c r="M12">
         <v>0.9736157415951991</v>
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9378515547696905</v>
+        <v>0.9378515547696915</v>
       </c>
       <c r="D13">
-        <v>0.9669997012259635</v>
+        <v>0.9669997012259642</v>
       </c>
       <c r="E13">
-        <v>0.9491102693751948</v>
+        <v>0.9491102693751955</v>
       </c>
       <c r="F13">
-        <v>0.9583703878051486</v>
+        <v>0.9583703878051492</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.018325853353278</v>
       </c>
       <c r="J13">
-        <v>0.9704374187648798</v>
+        <v>0.9704374187648807</v>
       </c>
       <c r="K13">
-        <v>0.9827414067858998</v>
+        <v>0.9827414067859007</v>
       </c>
       <c r="L13">
-        <v>0.965234423257159</v>
+        <v>0.9652344232571597</v>
       </c>
       <c r="M13">
-        <v>0.9742942124996371</v>
+        <v>0.9742942124996378</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9404970083187171</v>
+        <v>0.9404970083187142</v>
       </c>
       <c r="D14">
-        <v>0.9690925081511151</v>
+        <v>0.969092508151113</v>
       </c>
       <c r="E14">
-        <v>0.9516073188880225</v>
+        <v>0.95160731888802</v>
       </c>
       <c r="F14">
-        <v>0.9607768106810765</v>
+        <v>0.9607768106810738</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019451345854654</v>
+        <v>1.019451345854653</v>
       </c>
       <c r="J14">
-        <v>0.9726127972437879</v>
+        <v>0.9726127972437852</v>
       </c>
       <c r="K14">
-        <v>0.9846395902989367</v>
+        <v>0.9846395902989343</v>
       </c>
       <c r="L14">
-        <v>0.9675216928382726</v>
+        <v>0.9675216928382699</v>
       </c>
       <c r="M14">
-        <v>0.9764963666016053</v>
+        <v>0.976496366601603</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9421079561013056</v>
+        <v>0.9421079561013086</v>
       </c>
       <c r="D15">
-        <v>0.9703671568142771</v>
+        <v>0.9703671568142795</v>
       </c>
       <c r="E15">
-        <v>0.953128259811837</v>
+        <v>0.9531282598118399</v>
       </c>
       <c r="F15">
-        <v>0.962242784984527</v>
+        <v>0.96224278498453</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020136301849978</v>
+        <v>1.02013630184998</v>
       </c>
       <c r="J15">
-        <v>0.9739373806355758</v>
+        <v>0.9739373806355787</v>
       </c>
       <c r="K15">
-        <v>0.9857952354432313</v>
+        <v>0.9857952354432339</v>
       </c>
       <c r="L15">
-        <v>0.9689145591693897</v>
+        <v>0.9689145591693925</v>
       </c>
       <c r="M15">
-        <v>0.9778375741605873</v>
+        <v>0.9778375741605903</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9512126957183038</v>
+        <v>0.9512126957183064</v>
       </c>
       <c r="D16">
-        <v>0.9775742412167696</v>
+        <v>0.9775742412167719</v>
       </c>
       <c r="E16">
-        <v>0.9617294142356211</v>
+        <v>0.9617294142356235</v>
       </c>
       <c r="F16">
-        <v>0.9705363803272348</v>
+        <v>0.9705363803272371</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024001183642081</v>
+        <v>1.024001183642082</v>
       </c>
       <c r="J16">
-        <v>0.9814217396927877</v>
+        <v>0.98142173969279</v>
       </c>
       <c r="K16">
-        <v>0.9923226505784731</v>
+        <v>0.9923226505784754</v>
       </c>
       <c r="L16">
-        <v>0.9767870047103504</v>
+        <v>0.9767870047103527</v>
       </c>
       <c r="M16">
-        <v>0.9854204858099651</v>
+        <v>0.9854204858099672</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.95670272951088</v>
+        <v>0.9567027295108808</v>
       </c>
       <c r="D17">
-        <v>0.9819221998350088</v>
+        <v>0.9819221998350093</v>
       </c>
       <c r="E17">
-        <v>0.9669199366617478</v>
+        <v>0.9669199366617481</v>
       </c>
       <c r="F17">
-        <v>0.9755439617901167</v>
+        <v>0.9755439617901176</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.026325941281457</v>
       </c>
       <c r="J17">
-        <v>0.985932819025425</v>
+        <v>0.9859328190254258</v>
       </c>
       <c r="K17">
-        <v>0.9962548010157913</v>
+        <v>0.9962548010157919</v>
       </c>
       <c r="L17">
-        <v>0.9815339528199249</v>
+        <v>0.9815339528199254</v>
       </c>
       <c r="M17">
-        <v>0.9899948264409233</v>
+        <v>0.9899948264409242</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9598317665690587</v>
+        <v>0.9598317665690574</v>
       </c>
       <c r="D18">
-        <v>0.9844009316595609</v>
+        <v>0.9844009316595594</v>
       </c>
       <c r="E18">
-        <v>0.9698796426249072</v>
+        <v>0.9698796426249058</v>
       </c>
       <c r="F18">
-        <v>0.9784002350306913</v>
+        <v>0.9784002350306894</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.027648817007482</v>
       </c>
       <c r="J18">
-        <v>0.9885031452645885</v>
+        <v>0.988503145264587</v>
       </c>
       <c r="K18">
-        <v>0.9984944697477085</v>
+        <v>0.9984944697477073</v>
       </c>
       <c r="L18">
-        <v>0.9842393684486279</v>
+        <v>0.9842393684486265</v>
       </c>
       <c r="M18">
-        <v>0.9926025239985851</v>
+        <v>0.9926025239985835</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1070,10 +1070,10 @@
         <v>0.9608868267716629</v>
       </c>
       <c r="D19">
-        <v>0.9852368101853214</v>
+        <v>0.9852368101853215</v>
       </c>
       <c r="E19">
-        <v>0.970877830559953</v>
+        <v>0.9708778305599531</v>
       </c>
       <c r="F19">
         <v>0.9793636827184351</v>
@@ -1085,10 +1085,10 @@
         <v>1.028094504509103</v>
       </c>
       <c r="J19">
-        <v>0.9893696820692339</v>
+        <v>0.9893696820692337</v>
       </c>
       <c r="K19">
-        <v>0.9992493947185523</v>
+        <v>0.9992493947185525</v>
       </c>
       <c r="L19">
         <v>0.9851515655446978</v>
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9561214085759885</v>
+        <v>0.9561214085759893</v>
       </c>
       <c r="D20">
-        <v>0.9814617412273496</v>
+        <v>0.9814617412273503</v>
       </c>
       <c r="E20">
-        <v>0.9663701840637633</v>
+        <v>0.9663701840637643</v>
       </c>
       <c r="F20">
-        <v>0.9750134916748797</v>
+        <v>0.9750134916748805</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026080000145115</v>
+        <v>1.026080000145116</v>
       </c>
       <c r="J20">
-        <v>0.9854552335662089</v>
+        <v>0.9854552335662097</v>
       </c>
       <c r="K20">
-        <v>0.9958385888932155</v>
+        <v>0.9958385888932159</v>
       </c>
       <c r="L20">
-        <v>0.9810313232942529</v>
+        <v>0.9810313232942537</v>
       </c>
       <c r="M20">
-        <v>0.9895104038422523</v>
+        <v>0.989510403842253</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9397219941539576</v>
+        <v>0.9397219941539611</v>
       </c>
       <c r="D21">
-        <v>0.968479347341587</v>
+        <v>0.9684793473415901</v>
       </c>
       <c r="E21">
-        <v>0.9508757042276798</v>
+        <v>0.9508757042276834</v>
       </c>
       <c r="F21">
-        <v>0.9600716993723166</v>
+        <v>0.9600716993723197</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019121706574793</v>
+        <v>1.019121706574795</v>
       </c>
       <c r="J21">
-        <v>0.9719755195958488</v>
+        <v>0.971975519595852</v>
       </c>
       <c r="K21">
-        <v>0.9840835492442946</v>
+        <v>0.9840835492442974</v>
       </c>
       <c r="L21">
-        <v>0.966851604621235</v>
+        <v>0.9668516046212385</v>
       </c>
       <c r="M21">
-        <v>0.9758511774077855</v>
+        <v>0.9758511774077884</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,7 +1181,7 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9285980530615335</v>
+        <v>0.9285980530615336</v>
       </c>
       <c r="D22">
         <v>0.9596834054478471</v>
@@ -1190,7 +1190,7 @@
         <v>0.9403817823834207</v>
       </c>
       <c r="F22">
-        <v>0.9499624857410781</v>
+        <v>0.9499624857410779</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1202,13 +1202,13 @@
         <v>0.9628267233794049</v>
       </c>
       <c r="K22">
-        <v>0.9760982058664071</v>
+        <v>0.9760982058664069</v>
       </c>
       <c r="L22">
         <v>0.9572346235415403</v>
       </c>
       <c r="M22">
-        <v>0.9665949287834383</v>
+        <v>0.9665949287834379</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9345808970365104</v>
+        <v>0.9345808970365098</v>
       </c>
       <c r="D23">
-        <v>0.9644129939416921</v>
+        <v>0.9644129939416913</v>
       </c>
       <c r="E23">
-        <v>0.9460241216888358</v>
+        <v>0.9460241216888355</v>
       </c>
       <c r="F23">
-        <v>0.9553969109108361</v>
+        <v>0.9553969109108355</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.016933260110141</v>
       </c>
       <c r="J23">
-        <v>0.9677476462182283</v>
+        <v>0.9677476462182278</v>
       </c>
       <c r="K23">
-        <v>0.9803939578715991</v>
+        <v>0.9803939578715987</v>
       </c>
       <c r="L23">
-        <v>0.9624067227256947</v>
+        <v>0.9624067227256944</v>
       </c>
       <c r="M23">
-        <v>0.9715722314629809</v>
+        <v>0.9715722314629804</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.956384307171799</v>
+        <v>0.9563843071717977</v>
       </c>
       <c r="D24">
-        <v>0.9816699787338721</v>
+        <v>0.9816699787338707</v>
       </c>
       <c r="E24">
-        <v>0.9666188018224648</v>
+        <v>0.9666188018224638</v>
       </c>
       <c r="F24">
-        <v>0.9752533864702396</v>
+        <v>0.9752533864702381</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026191232037307</v>
+        <v>1.026191232037306</v>
       </c>
       <c r="J24">
-        <v>0.9856712208520064</v>
+        <v>0.9856712208520052</v>
       </c>
       <c r="K24">
-        <v>0.9960268226688851</v>
+        <v>0.9960268226688836</v>
       </c>
       <c r="L24">
-        <v>0.9812586345503896</v>
+        <v>0.9812586345503885</v>
       </c>
       <c r="M24">
-        <v>0.9897294790896483</v>
+        <v>0.989729479089647</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,19 +1292,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9788484895256467</v>
+        <v>0.9788484895256465</v>
       </c>
       <c r="D25">
-        <v>0.9994720964167113</v>
+        <v>0.9994720964167111</v>
       </c>
       <c r="E25">
         <v>0.9878883061478569</v>
       </c>
       <c r="F25">
-        <v>0.9957930659140926</v>
+        <v>0.9957930659140922</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>1.035650349860833</v>
       </c>
       <c r="J25">
-        <v>1.004109272969533</v>
+        <v>1.004109272969532</v>
       </c>
       <c r="K25">
         <v>1.012078612939675</v>

--- a/Code/Results/Cases/Case_4_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9950383980727167</v>
+        <v>0.9980787368160214</v>
       </c>
       <c r="D2">
-        <v>1.012305907794192</v>
+        <v>1.014680740508641</v>
       </c>
       <c r="E2">
-        <v>1.003247842757656</v>
+        <v>1.006267302995289</v>
       </c>
       <c r="F2">
-        <v>1.010645230591641</v>
+        <v>1.013164619166355</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042399634929514</v>
+        <v>1.043797006337926</v>
       </c>
       <c r="J2">
-        <v>1.017368529354767</v>
+        <v>1.020317064783597</v>
       </c>
       <c r="K2">
-        <v>1.023596423149624</v>
+        <v>1.025939269002988</v>
       </c>
       <c r="L2">
-        <v>1.014662114662469</v>
+        <v>1.017640009439582</v>
       </c>
       <c r="M2">
-        <v>1.021958226136564</v>
+        <v>1.024443546692635</v>
+      </c>
+      <c r="N2">
+        <v>1.021766032047593</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005990643214555</v>
+        <v>1.008995638379811</v>
       </c>
       <c r="D3">
-        <v>1.020985110872502</v>
+        <v>1.02333442498922</v>
       </c>
       <c r="E3">
-        <v>1.013652572143873</v>
+        <v>1.016640985851267</v>
       </c>
       <c r="F3">
-        <v>1.020715380848749</v>
+        <v>1.023203279338093</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046924549858569</v>
+        <v>1.048308766486385</v>
       </c>
       <c r="J3">
-        <v>1.026319318875308</v>
+        <v>1.029244041408772</v>
       </c>
       <c r="K3">
-        <v>1.031356343641668</v>
+        <v>1.033677195456719</v>
       </c>
       <c r="L3">
-        <v>1.024113695876148</v>
+        <v>1.027065279334472</v>
       </c>
       <c r="M3">
-        <v>1.031089891856685</v>
+        <v>1.033547634378338</v>
+      </c>
+      <c r="N3">
+        <v>1.030705686003515</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012756691703699</v>
+        <v>1.015741867418328</v>
       </c>
       <c r="D4">
-        <v>1.026344411756343</v>
+        <v>1.028679500954661</v>
       </c>
       <c r="E4">
-        <v>1.020086061554702</v>
+        <v>1.023057129181547</v>
       </c>
       <c r="F4">
-        <v>1.026945636047804</v>
+        <v>1.02941579955685</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0497005793387</v>
+        <v>1.051077569619153</v>
       </c>
       <c r="J4">
-        <v>1.031839614831101</v>
+        <v>1.034751290012758</v>
       </c>
       <c r="K4">
-        <v>1.036134949382397</v>
+        <v>1.038443685969647</v>
       </c>
       <c r="L4">
-        <v>1.029947962128857</v>
+        <v>1.032885016864343</v>
       </c>
       <c r="M4">
-        <v>1.036729374449738</v>
+        <v>1.039171705620002</v>
+      </c>
+      <c r="N4">
+        <v>1.036220755532208</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015530753221027</v>
+        <v>1.018508229745476</v>
       </c>
       <c r="D5">
-        <v>1.028540943795653</v>
+        <v>1.030870528465779</v>
       </c>
       <c r="E5">
-        <v>1.022725026807649</v>
+        <v>1.02568937122844</v>
       </c>
       <c r="F5">
-        <v>1.029502038736227</v>
+        <v>1.031965295550311</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050834031342147</v>
+        <v>1.052208251441044</v>
       </c>
       <c r="J5">
-        <v>1.03410061590475</v>
+        <v>1.037007295479015</v>
       </c>
       <c r="K5">
-        <v>1.038090408106512</v>
+        <v>1.040394491378913</v>
       </c>
       <c r="L5">
-        <v>1.032338780239039</v>
+        <v>1.035270244822926</v>
       </c>
       <c r="M5">
-        <v>1.039040965000162</v>
+        <v>1.041477323119977</v>
+      </c>
+      <c r="N5">
+        <v>1.038479964784994</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015992573343685</v>
+        <v>1.018968791774657</v>
       </c>
       <c r="D6">
-        <v>1.028906568448075</v>
+        <v>1.031235254940579</v>
       </c>
       <c r="E6">
-        <v>1.023164427077501</v>
+        <v>1.026127673781576</v>
       </c>
       <c r="F6">
-        <v>1.029927737249726</v>
+        <v>1.03238986447618</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051022446902537</v>
+        <v>1.052396216558863</v>
       </c>
       <c r="J6">
-        <v>1.034476885081964</v>
+        <v>1.037382752647691</v>
       </c>
       <c r="K6">
-        <v>1.038415725456877</v>
+        <v>1.040719051514784</v>
       </c>
       <c r="L6">
-        <v>1.032736724937917</v>
+        <v>1.035667279235045</v>
       </c>
       <c r="M6">
-        <v>1.039425755947414</v>
+        <v>1.04186113887602</v>
+      </c>
+      <c r="N6">
+        <v>1.038855955145916</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01279402758507</v>
+        <v>1.015779098050366</v>
       </c>
       <c r="D7">
-        <v>1.026373977960229</v>
+        <v>1.028708991822586</v>
       </c>
       <c r="E7">
-        <v>1.020121574352351</v>
+        <v>1.023092550010366</v>
       </c>
       <c r="F7">
-        <v>1.026980034696473</v>
+        <v>1.029450103858368</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049715853179289</v>
+        <v>1.051092805439349</v>
       </c>
       <c r="J7">
-        <v>1.03187005471688</v>
+        <v>1.034781661312669</v>
       </c>
       <c r="K7">
-        <v>1.036161282775274</v>
+        <v>1.038469955534608</v>
       </c>
       <c r="L7">
-        <v>1.02998014489841</v>
+        <v>1.032917122997721</v>
       </c>
       <c r="M7">
-        <v>1.036760488450867</v>
+        <v>1.039202737911452</v>
+      </c>
+      <c r="N7">
+        <v>1.036251169962848</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9988103332689924</v>
+        <v>1.001838030796416</v>
       </c>
       <c r="D8">
-        <v>1.015295438806517</v>
+        <v>1.017661125646473</v>
       </c>
       <c r="E8">
-        <v>1.006829927145521</v>
+        <v>1.009838268455023</v>
       </c>
       <c r="F8">
-        <v>1.014111302880227</v>
+        <v>1.016619446700444</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043962095650329</v>
+        <v>1.045354728348396</v>
       </c>
       <c r="J8">
-        <v>1.020453101600706</v>
+        <v>1.023393049707887</v>
       </c>
       <c r="K8">
-        <v>1.026272134115412</v>
+        <v>1.02860706410104</v>
       </c>
       <c r="L8">
-        <v>1.017918170742623</v>
+        <v>1.020886603063406</v>
       </c>
       <c r="M8">
-        <v>1.02510346093353</v>
+        <v>1.027578906186909</v>
+      </c>
+      <c r="N8">
+        <v>1.024846385223296</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9713669408451837</v>
+        <v>0.9744988525291458</v>
       </c>
       <c r="D9">
-        <v>0.9935417759280175</v>
+        <v>0.9959832705270444</v>
       </c>
       <c r="E9">
-        <v>0.9807990761110844</v>
+        <v>0.9838994360088572</v>
       </c>
       <c r="F9">
-        <v>0.9889435222331291</v>
+        <v>0.9915438858910659</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032510824798679</v>
+        <v>1.033943295714826</v>
       </c>
       <c r="J9">
-        <v>0.9979729637209337</v>
+        <v>1.00098541419781</v>
       </c>
       <c r="K9">
-        <v>1.0067405096151</v>
+        <v>1.009141854272758</v>
       </c>
       <c r="L9">
-        <v>0.9942115510966115</v>
+        <v>0.9972592490776113</v>
       </c>
       <c r="M9">
-        <v>1.002218566894224</v>
+        <v>1.00477566389946</v>
+      </c>
+      <c r="N9">
+        <v>1.002406928300602</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9505819154295435</v>
+        <v>0.9538141429534884</v>
       </c>
       <c r="D10">
-        <v>0.9770747776532962</v>
+        <v>0.9795897596875087</v>
       </c>
       <c r="E10">
-        <v>0.9611332447335481</v>
+        <v>0.9643226986986597</v>
       </c>
       <c r="F10">
-        <v>0.9699613501910225</v>
+        <v>0.9726496920172439</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023733791157979</v>
+        <v>1.025205666056335</v>
       </c>
       <c r="J10">
-        <v>0.9809033377603821</v>
+        <v>0.9839881063738756</v>
       </c>
       <c r="K10">
-        <v>0.9918706694089051</v>
+        <v>0.9943375720527597</v>
       </c>
       <c r="L10">
-        <v>0.9762415940967676</v>
+        <v>0.9793674475225261</v>
       </c>
       <c r="M10">
-        <v>0.9848950018589856</v>
+        <v>0.9875309702732316</v>
+      </c>
+      <c r="N10">
+        <v>0.9853854823499397</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9408056165094784</v>
+        <v>0.9440926131045775</v>
       </c>
       <c r="D11">
-        <v>0.9693366782551696</v>
+        <v>0.9718918837460868</v>
       </c>
       <c r="E11">
-        <v>0.9518986632625861</v>
+        <v>0.9551368922848177</v>
       </c>
       <c r="F11">
-        <v>0.9610576122498582</v>
+        <v>0.9637937471739784</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019582587004624</v>
+        <v>1.021076222684457</v>
       </c>
       <c r="J11">
-        <v>0.9728665536640182</v>
+        <v>0.9759914724798493</v>
       </c>
       <c r="K11">
-        <v>0.9848609916926548</v>
+        <v>0.9873640854383341</v>
       </c>
       <c r="L11">
-        <v>0.967788521498351</v>
+        <v>0.9709575321225781</v>
       </c>
       <c r="M11">
-        <v>0.9767532889474533</v>
+        <v>0.9794323600099362</v>
+      </c>
+      <c r="N11">
+        <v>0.9773774923185574</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9370364003626158</v>
+        <v>0.9403459644043702</v>
       </c>
       <c r="D12">
-        <v>0.9663549359654982</v>
+        <v>0.9689267283221437</v>
       </c>
       <c r="E12">
-        <v>0.9483409936334727</v>
+        <v>0.9515993409104915</v>
       </c>
       <c r="F12">
-        <v>0.9576291283128573</v>
+        <v>0.9603849147872155</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017978886297645</v>
+        <v>1.019481525122717</v>
       </c>
       <c r="J12">
-        <v>0.969767067595382</v>
+        <v>0.9729086366151577</v>
       </c>
       <c r="K12">
-        <v>0.9821564125356649</v>
+        <v>0.9846744794221042</v>
       </c>
       <c r="L12">
-        <v>0.9645296542669451</v>
+        <v>0.9677165251125132</v>
       </c>
       <c r="M12">
-        <v>0.9736157415951991</v>
+        <v>0.9763125765871302</v>
+      </c>
+      <c r="N12">
+        <v>0.9742902784733315</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9378515547696915</v>
+        <v>0.941156166686992</v>
       </c>
       <c r="D13">
-        <v>0.9669997012259642</v>
+        <v>0.9695678532862043</v>
       </c>
       <c r="E13">
-        <v>0.9491102693751955</v>
+        <v>0.9523642010412398</v>
       </c>
       <c r="F13">
-        <v>0.9583703878051492</v>
+        <v>0.9611218639550759</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018325853353278</v>
+        <v>1.019826514933565</v>
       </c>
       <c r="J13">
-        <v>0.9704374187648807</v>
+        <v>0.9735753292696906</v>
       </c>
       <c r="K13">
-        <v>0.9827414067859007</v>
+        <v>0.9852561852997095</v>
       </c>
       <c r="L13">
-        <v>0.9652344232571597</v>
+        <v>0.9684173713931086</v>
       </c>
       <c r="M13">
-        <v>0.9742942124996378</v>
+        <v>0.9769871493227926</v>
+      </c>
+      <c r="N13">
+        <v>0.9749579179079046</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9404970083187142</v>
+        <v>0.9437858212102457</v>
       </c>
       <c r="D14">
-        <v>0.969092508151113</v>
+        <v>0.971649048364315</v>
       </c>
       <c r="E14">
-        <v>0.95160731888802</v>
+        <v>0.9548471666781068</v>
       </c>
       <c r="F14">
-        <v>0.9607768106810738</v>
+        <v>0.9635145280732388</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019451345854653</v>
+        <v>1.020945705414988</v>
       </c>
       <c r="J14">
-        <v>0.9726127972437852</v>
+        <v>0.9757390539821446</v>
       </c>
       <c r="K14">
-        <v>0.9846395902989343</v>
+        <v>0.9871438879271306</v>
       </c>
       <c r="L14">
-        <v>0.9675216928382699</v>
+        <v>0.9706921393550623</v>
       </c>
       <c r="M14">
-        <v>0.976496366601603</v>
+        <v>0.9791768673048381</v>
+      </c>
+      <c r="N14">
+        <v>0.977124715357633</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9421079561013086</v>
+        <v>0.9453873485045214</v>
       </c>
       <c r="D15">
-        <v>0.9703671568142795</v>
+        <v>0.9729167747850468</v>
       </c>
       <c r="E15">
-        <v>0.9531282598118399</v>
+        <v>0.9563597124374927</v>
       </c>
       <c r="F15">
-        <v>0.96224278498453</v>
+        <v>0.9649722930129322</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02013630184998</v>
+        <v>1.021626908333306</v>
       </c>
       <c r="J15">
-        <v>0.9739373806355787</v>
+        <v>0.9770567022553616</v>
       </c>
       <c r="K15">
-        <v>0.9857952354432339</v>
+        <v>0.9882932913436356</v>
       </c>
       <c r="L15">
-        <v>0.9689145591693925</v>
+        <v>0.9720775612814102</v>
       </c>
       <c r="M15">
-        <v>0.9778375741605903</v>
+        <v>0.980510659946517</v>
+      </c>
+      <c r="N15">
+        <v>0.9784442348425344</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9512126957183064</v>
+        <v>0.9544415671885103</v>
       </c>
       <c r="D16">
-        <v>0.9775742412167719</v>
+        <v>0.9800867602706069</v>
       </c>
       <c r="E16">
-        <v>0.9617294142356235</v>
+        <v>0.9649158820284531</v>
       </c>
       <c r="F16">
-        <v>0.9705363803272371</v>
+        <v>0.9732217885808889</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024001183642082</v>
+        <v>1.025471729806824</v>
       </c>
       <c r="J16">
-        <v>0.98142173969279</v>
+        <v>0.9845040612479913</v>
       </c>
       <c r="K16">
-        <v>0.9923226505784754</v>
+        <v>0.9947873432368199</v>
       </c>
       <c r="L16">
-        <v>0.9767870047103527</v>
+        <v>0.9799102232365465</v>
       </c>
       <c r="M16">
-        <v>0.9854204858099672</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9880538136476497</v>
+      </c>
+      <c r="N16">
+        <v>0.9859021699391578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9567027295108808</v>
+        <v>0.9599032538817761</v>
       </c>
       <c r="D17">
-        <v>0.9819221998350093</v>
+        <v>0.9844139253320097</v>
       </c>
       <c r="E17">
-        <v>0.9669199366617481</v>
+        <v>0.9700811951692911</v>
       </c>
       <c r="F17">
-        <v>0.9755439617901176</v>
+        <v>0.978204566538958</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026325941281457</v>
+        <v>1.027785289359977</v>
       </c>
       <c r="J17">
-        <v>0.9859328190254258</v>
+        <v>0.9889945398344899</v>
       </c>
       <c r="K17">
-        <v>0.9962548010157919</v>
+        <v>0.9987008675599656</v>
       </c>
       <c r="L17">
-        <v>0.9815339528199254</v>
+        <v>0.9846349654890363</v>
       </c>
       <c r="M17">
-        <v>0.9899948264409242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9926058544875808</v>
+      </c>
+      <c r="N17">
+        <v>0.9903990255203144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9598317665690574</v>
+        <v>0.963016806336937</v>
       </c>
       <c r="D18">
-        <v>0.9844009316595594</v>
+        <v>0.9868813073447337</v>
       </c>
       <c r="E18">
-        <v>0.9698796426249058</v>
+        <v>0.973027141628822</v>
       </c>
       <c r="F18">
-        <v>0.9784002350306894</v>
+        <v>0.9810472711182125</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027648817007482</v>
+        <v>1.029102068873628</v>
       </c>
       <c r="J18">
-        <v>0.988503145264587</v>
+        <v>0.9915536683463119</v>
       </c>
       <c r="K18">
-        <v>0.9984944697477073</v>
+        <v>1.000930395088313</v>
       </c>
       <c r="L18">
-        <v>0.9842393684486265</v>
+        <v>0.9873282916599257</v>
       </c>
       <c r="M18">
-        <v>0.9926025239985835</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9952013744238538</v>
+      </c>
+      <c r="N18">
+        <v>0.9929617882881594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9608868267716629</v>
+        <v>0.9640667519843032</v>
       </c>
       <c r="D19">
-        <v>0.9852368101853215</v>
+        <v>0.9877134385605595</v>
       </c>
       <c r="E19">
-        <v>0.9708778305599531</v>
+        <v>0.9740207866679893</v>
       </c>
       <c r="F19">
-        <v>0.9793636827184351</v>
+        <v>0.9820062338586372</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028094504509103</v>
+        <v>1.029545746333333</v>
       </c>
       <c r="J19">
-        <v>0.9893696820692337</v>
+        <v>0.9924165158084869</v>
       </c>
       <c r="K19">
-        <v>0.9992493947185525</v>
+        <v>1.001681976059748</v>
       </c>
       <c r="L19">
-        <v>0.9851515655446978</v>
+        <v>0.9882365023859683</v>
       </c>
       <c r="M19">
-        <v>0.9934818795693494</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9960767084118588</v>
+      </c>
+      <c r="N19">
+        <v>0.9938258610927004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9561214085759893</v>
+        <v>0.9593248625960885</v>
       </c>
       <c r="D20">
-        <v>0.9814617412273503</v>
+        <v>0.983955614815782</v>
       </c>
       <c r="E20">
-        <v>0.9663701840637643</v>
+        <v>0.9695340467518697</v>
       </c>
       <c r="F20">
-        <v>0.9750134916748805</v>
+        <v>0.9776766619704494</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026080000145116</v>
+        <v>1.02754050334037</v>
       </c>
       <c r="J20">
-        <v>0.9854552335662097</v>
+        <v>0.9885190775310654</v>
       </c>
       <c r="K20">
-        <v>0.9958385888932159</v>
+        <v>0.9982865768938495</v>
       </c>
       <c r="L20">
-        <v>0.9810313232942537</v>
+        <v>0.9841346266015071</v>
       </c>
       <c r="M20">
-        <v>0.989510403842253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9921237361830871</v>
+      </c>
+      <c r="N20">
+        <v>0.9899228880058824</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9397219941539611</v>
+        <v>0.943015392832776</v>
       </c>
       <c r="D21">
-        <v>0.9684793473415901</v>
+        <v>0.9710392576570956</v>
       </c>
       <c r="E21">
-        <v>0.9508757042276834</v>
+        <v>0.954119639411365</v>
       </c>
       <c r="F21">
-        <v>0.9600716993723197</v>
+        <v>0.9628134115090927</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019121706574795</v>
+        <v>1.020617894364647</v>
       </c>
       <c r="J21">
-        <v>0.971975519595852</v>
+        <v>0.9751051560194733</v>
       </c>
       <c r="K21">
-        <v>0.9840835492442974</v>
+        <v>0.9865908873941718</v>
       </c>
       <c r="L21">
-        <v>0.9668516046212385</v>
+        <v>0.9700256777145273</v>
       </c>
       <c r="M21">
-        <v>0.9758511774077884</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9785352877163871</v>
+      </c>
+      <c r="N21">
+        <v>0.9764899171871457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9285980530615336</v>
+        <v>0.9319613056911356</v>
       </c>
       <c r="D22">
-        <v>0.9596834054478471</v>
+        <v>0.9622946798744737</v>
       </c>
       <c r="E22">
-        <v>0.9403817823834207</v>
+        <v>0.9436880319191676</v>
       </c>
       <c r="F22">
-        <v>0.9499624857410779</v>
+        <v>0.952764936657677</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014382909490944</v>
+        <v>1.015907036903552</v>
       </c>
       <c r="J22">
-        <v>0.9628267233794049</v>
+        <v>0.9660081164897103</v>
       </c>
       <c r="K22">
-        <v>0.9760982058664069</v>
+        <v>0.9786520119351182</v>
       </c>
       <c r="L22">
-        <v>0.9572346235415403</v>
+        <v>0.9604641387211278</v>
       </c>
       <c r="M22">
-        <v>0.9665949287834379</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9693340279153461</v>
+      </c>
+      <c r="N22">
+        <v>0.967379958817805</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9345808970365098</v>
+        <v>0.9379056224356943</v>
       </c>
       <c r="D23">
-        <v>0.9644129939416913</v>
+        <v>0.9669959330592943</v>
       </c>
       <c r="E23">
-        <v>0.9460241216888355</v>
+        <v>0.9492959908254968</v>
       </c>
       <c r="F23">
-        <v>0.9553969109108355</v>
+        <v>0.9581658872229138</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016933260110141</v>
+        <v>1.018441957796345</v>
       </c>
       <c r="J23">
-        <v>0.9677476462182278</v>
+        <v>0.9709004323058273</v>
       </c>
       <c r="K23">
-        <v>0.9803939578715987</v>
+        <v>0.9829221013948417</v>
       </c>
       <c r="L23">
-        <v>0.9624067227256944</v>
+        <v>0.9656056150486337</v>
       </c>
       <c r="M23">
-        <v>0.9715722314629804</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9742810013244166</v>
+      </c>
+      <c r="N23">
+        <v>0.972279222283538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,72 +1323,78 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9563843071717977</v>
+        <v>0.9595864342022419</v>
       </c>
       <c r="D24">
-        <v>0.9816699787338707</v>
+        <v>0.9841628793129037</v>
       </c>
       <c r="E24">
-        <v>0.9666188018224638</v>
+        <v>0.9697814849073906</v>
       </c>
       <c r="F24">
-        <v>0.9752533864702381</v>
+        <v>0.9779153947593635</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026191232037306</v>
+        <v>1.027651211954536</v>
       </c>
       <c r="J24">
-        <v>0.9856712208520052</v>
+        <v>0.9887341029541482</v>
       </c>
       <c r="K24">
-        <v>0.9960268226688836</v>
+        <v>0.9984739402367617</v>
       </c>
       <c r="L24">
-        <v>0.9812586345503885</v>
+        <v>0.9843609001808264</v>
       </c>
       <c r="M24">
-        <v>0.989729479089647</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9923417676847356</v>
+      </c>
+      <c r="N24">
+        <v>0.9901382187897296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9788484895256465</v>
+        <v>0.9819490566466302</v>
       </c>
       <c r="D25">
-        <v>0.9994720964167111</v>
+        <v>1.001890709806474</v>
       </c>
       <c r="E25">
-        <v>0.9878883061478569</v>
+        <v>0.9909609160446237</v>
       </c>
       <c r="F25">
-        <v>0.9957930659140922</v>
+        <v>0.9983657969935388</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035650349860833</v>
+        <v>1.037070682492515</v>
       </c>
       <c r="J25">
-        <v>1.004109272969532</v>
+        <v>1.007099561093856</v>
       </c>
       <c r="K25">
-        <v>1.012078612939675</v>
+        <v>1.01445974567396</v>
       </c>
       <c r="L25">
-        <v>1.000677596108551</v>
+        <v>1.003701191763093</v>
       </c>
       <c r="M25">
-        <v>1.00845704206235</v>
+        <v>1.010989534941207</v>
+      </c>
+      <c r="N25">
+        <v>1.008529757986544</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9980787368160214</v>
+        <v>0.9919504438382696</v>
       </c>
       <c r="D2">
-        <v>1.014680740508641</v>
+        <v>1.010388632198335</v>
       </c>
       <c r="E2">
-        <v>1.006267302995289</v>
+        <v>1.000181406254101</v>
       </c>
       <c r="F2">
-        <v>1.013164619166355</v>
+        <v>0.9986754005102552</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043797006337926</v>
+        <v>1.037541702966511</v>
       </c>
       <c r="J2">
-        <v>1.020317064783597</v>
+        <v>1.014374610587649</v>
       </c>
       <c r="K2">
-        <v>1.025939269002988</v>
+        <v>1.021705109547083</v>
       </c>
       <c r="L2">
-        <v>1.017640009439582</v>
+        <v>1.011638214377783</v>
       </c>
       <c r="M2">
-        <v>1.024443546692635</v>
+        <v>1.010153220006028</v>
       </c>
       <c r="N2">
-        <v>1.021766032047593</v>
+        <v>1.015815138885077</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008995638379811</v>
+        <v>1.000177669510471</v>
       </c>
       <c r="D3">
-        <v>1.02333442498922</v>
+        <v>1.016696535365979</v>
       </c>
       <c r="E3">
-        <v>1.016640985851267</v>
+        <v>1.007872387788293</v>
       </c>
       <c r="F3">
-        <v>1.023203279338093</v>
+        <v>1.007097185432853</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048308766486385</v>
+        <v>1.04026507852101</v>
       </c>
       <c r="J3">
-        <v>1.029244041408772</v>
+        <v>1.020663492247416</v>
       </c>
       <c r="K3">
-        <v>1.033677195456719</v>
+        <v>1.027120146787421</v>
       </c>
       <c r="L3">
-        <v>1.027065279334472</v>
+        <v>1.018405521223454</v>
       </c>
       <c r="M3">
-        <v>1.033547634378338</v>
+        <v>1.017640054759464</v>
       </c>
       <c r="N3">
-        <v>1.030705686003515</v>
+        <v>1.022112951478147</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015741867418328</v>
+        <v>1.005321993092781</v>
       </c>
       <c r="D4">
-        <v>1.028679500954661</v>
+        <v>1.020643028086236</v>
       </c>
       <c r="E4">
-        <v>1.023057129181547</v>
+        <v>1.012687462804076</v>
       </c>
       <c r="F4">
-        <v>1.02941579955685</v>
+        <v>1.012368549725275</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051077569619153</v>
+        <v>1.041954519357384</v>
       </c>
       <c r="J4">
-        <v>1.034751290012758</v>
+        <v>1.024590534572469</v>
       </c>
       <c r="K4">
-        <v>1.038443685969647</v>
+        <v>1.030498533870436</v>
       </c>
       <c r="L4">
-        <v>1.032885016864343</v>
+        <v>1.0226351355099</v>
       </c>
       <c r="M4">
-        <v>1.039171705620002</v>
+        <v>1.022319954464957</v>
       </c>
       <c r="N4">
-        <v>1.036220755532208</v>
+        <v>1.026045570653739</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018508229745476</v>
+        <v>1.007444457928821</v>
       </c>
       <c r="D5">
-        <v>1.030870528465779</v>
+        <v>1.022271701761666</v>
       </c>
       <c r="E5">
-        <v>1.02568937122844</v>
+        <v>1.014675455651163</v>
       </c>
       <c r="F5">
-        <v>1.031965295550311</v>
+        <v>1.014544699337794</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052208251441044</v>
+        <v>1.042648261080144</v>
       </c>
       <c r="J5">
-        <v>1.037007295479015</v>
+        <v>1.026209433588809</v>
       </c>
       <c r="K5">
-        <v>1.040394491378913</v>
+        <v>1.031890504054062</v>
       </c>
       <c r="L5">
-        <v>1.035270244822926</v>
+        <v>1.024379687670094</v>
       </c>
       <c r="M5">
-        <v>1.041477323119977</v>
+        <v>1.024250415690256</v>
       </c>
       <c r="N5">
-        <v>1.038479964784994</v>
+        <v>1.027666768692373</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018968791774657</v>
+        <v>1.007798544967686</v>
       </c>
       <c r="D6">
-        <v>1.031235254940579</v>
+        <v>1.022543431191335</v>
       </c>
       <c r="E6">
-        <v>1.026127673781576</v>
+        <v>1.015007187341078</v>
       </c>
       <c r="F6">
-        <v>1.03238986447618</v>
+        <v>1.014907816590925</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052396216558863</v>
+        <v>1.042763800994668</v>
       </c>
       <c r="J6">
-        <v>1.037382752647691</v>
+        <v>1.026479431145526</v>
       </c>
       <c r="K6">
-        <v>1.040719051514784</v>
+        <v>1.03212260980021</v>
       </c>
       <c r="L6">
-        <v>1.035667279235045</v>
+        <v>1.024670695657707</v>
       </c>
       <c r="M6">
-        <v>1.04186113887602</v>
+        <v>1.024572447162512</v>
       </c>
       <c r="N6">
-        <v>1.038855955145916</v>
+        <v>1.027937149676589</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015779098050366</v>
+        <v>1.005350508187202</v>
       </c>
       <c r="D7">
-        <v>1.028708991822586</v>
+        <v>1.020664907674774</v>
       </c>
       <c r="E7">
-        <v>1.023092550010366</v>
+        <v>1.012714165955119</v>
       </c>
       <c r="F7">
-        <v>1.029450103858368</v>
+        <v>1.012397781067354</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051092805439349</v>
+        <v>1.041963852846187</v>
       </c>
       <c r="J7">
-        <v>1.034781661312669</v>
+        <v>1.024612289690726</v>
       </c>
       <c r="K7">
-        <v>1.038469955534608</v>
+        <v>1.030517242478532</v>
       </c>
       <c r="L7">
-        <v>1.032917122997721</v>
+        <v>1.022658575534468</v>
       </c>
       <c r="M7">
-        <v>1.039202737911452</v>
+        <v>1.022345891601445</v>
       </c>
       <c r="N7">
-        <v>1.036251169962848</v>
+        <v>1.026067356666759</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001838030796416</v>
+        <v>0.994769699514237</v>
       </c>
       <c r="D8">
-        <v>1.017661125646473</v>
+        <v>1.012549616717702</v>
       </c>
       <c r="E8">
-        <v>1.009838268455023</v>
+        <v>1.002815570554954</v>
       </c>
       <c r="F8">
-        <v>1.016619446700444</v>
+        <v>1.001560171807257</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045354728348396</v>
+        <v>1.038477730468277</v>
       </c>
       <c r="J8">
-        <v>1.023393049707887</v>
+        <v>1.016530717253717</v>
       </c>
       <c r="K8">
-        <v>1.02860706410104</v>
+        <v>1.023562236973373</v>
       </c>
       <c r="L8">
-        <v>1.020886603063406</v>
+        <v>1.01395753774459</v>
       </c>
       <c r="M8">
-        <v>1.027578906186909</v>
+        <v>1.012719050968128</v>
       </c>
       <c r="N8">
-        <v>1.024846385223296</v>
+        <v>1.017974307469921</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9744988525291458</v>
+        <v>0.9746148151039681</v>
       </c>
       <c r="D9">
-        <v>0.9959832705270444</v>
+        <v>0.9971169858701482</v>
       </c>
       <c r="E9">
-        <v>0.9838994360088572</v>
+        <v>0.9840142389354999</v>
       </c>
       <c r="F9">
-        <v>0.9915438858910659</v>
+        <v>0.9809615024595821</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033943295714826</v>
+        <v>1.031730717543517</v>
       </c>
       <c r="J9">
-        <v>1.00098541419781</v>
+        <v>1.001096974362339</v>
       </c>
       <c r="K9">
-        <v>1.009141854272758</v>
+        <v>1.010257011791398</v>
       </c>
       <c r="L9">
-        <v>0.9972592490776113</v>
+        <v>0.9973721102126719</v>
       </c>
       <c r="M9">
-        <v>1.00477566389946</v>
+        <v>0.9943712078411481</v>
       </c>
       <c r="N9">
-        <v>1.002406928300602</v>
+        <v>1.002518646893362</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9538141429534884</v>
+        <v>0.9599405080233399</v>
       </c>
       <c r="D10">
-        <v>0.9795897596875087</v>
+        <v>0.9859099981878613</v>
       </c>
       <c r="E10">
-        <v>0.9643226986986597</v>
+        <v>0.9703696670438249</v>
       </c>
       <c r="F10">
-        <v>0.9726496920172439</v>
+        <v>0.9659971873474079</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025205666056335</v>
+        <v>1.026751174127821</v>
       </c>
       <c r="J10">
-        <v>0.9839881063738756</v>
+        <v>0.9898388754702931</v>
       </c>
       <c r="K10">
-        <v>0.9943375720527597</v>
+        <v>1.000538398958042</v>
       </c>
       <c r="L10">
-        <v>0.9793674475225261</v>
+        <v>0.9852953394949099</v>
       </c>
       <c r="M10">
-        <v>0.9875309702732316</v>
+        <v>0.9810087662272187</v>
       </c>
       <c r="N10">
-        <v>0.9853854823499397</v>
+        <v>0.9912445602095667</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9440926131045775</v>
+        <v>0.9532320608213729</v>
       </c>
       <c r="D11">
-        <v>0.9718918837460868</v>
+        <v>0.9807966470702655</v>
       </c>
       <c r="E11">
-        <v>0.9551368922848177</v>
+        <v>0.9641444402522088</v>
       </c>
       <c r="F11">
-        <v>0.9637937471739784</v>
+        <v>0.9591645705302136</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021076222684457</v>
+        <v>1.024460246338369</v>
       </c>
       <c r="J11">
-        <v>0.9759914724798493</v>
+        <v>0.984688717390402</v>
       </c>
       <c r="K11">
-        <v>0.9873640854383341</v>
+        <v>0.9960900302648077</v>
       </c>
       <c r="L11">
-        <v>0.9709575321225781</v>
+        <v>0.9797757700885733</v>
       </c>
       <c r="M11">
-        <v>0.9794323600099362</v>
+        <v>0.9748999799383204</v>
       </c>
       <c r="N11">
-        <v>0.9773774923185574</v>
+        <v>0.9860870883144707</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9403459644043702</v>
+        <v>0.9506807794584323</v>
       </c>
       <c r="D12">
-        <v>0.9689267283221437</v>
+        <v>0.9788537991885656</v>
       </c>
       <c r="E12">
-        <v>0.9515993409104915</v>
+        <v>0.961779000178646</v>
       </c>
       <c r="F12">
-        <v>0.9603849147872155</v>
+        <v>0.9565673822963758</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019481525122717</v>
+        <v>1.023586953779583</v>
       </c>
       <c r="J12">
-        <v>0.9729086366151577</v>
+        <v>0.9827297061818341</v>
       </c>
       <c r="K12">
-        <v>0.9846744794221042</v>
+        <v>0.9943976587839891</v>
       </c>
       <c r="L12">
-        <v>0.9677165251125132</v>
+        <v>0.9776770102564553</v>
       </c>
       <c r="M12">
-        <v>0.9763125765871302</v>
+        <v>0.9725768285752571</v>
       </c>
       <c r="N12">
-        <v>0.9742902784733315</v>
+        <v>0.9841252950852851</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.941156166686992</v>
+        <v>0.951230840297055</v>
       </c>
       <c r="D13">
-        <v>0.9695678532862043</v>
+        <v>0.9792725939851982</v>
       </c>
       <c r="E13">
-        <v>0.9523642010412398</v>
+        <v>0.9622888966045027</v>
       </c>
       <c r="F13">
-        <v>0.9611218639550759</v>
+        <v>0.957127280483373</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019826514933565</v>
+        <v>1.023775326340093</v>
       </c>
       <c r="J13">
-        <v>0.9735753292696906</v>
+        <v>0.9831520860166467</v>
       </c>
       <c r="K13">
-        <v>0.9852561852997095</v>
+        <v>0.9947625614560273</v>
       </c>
       <c r="L13">
-        <v>0.9684173713931086</v>
+        <v>0.9781294864622685</v>
       </c>
       <c r="M13">
-        <v>0.9769871493227926</v>
+        <v>0.9730776993830984</v>
       </c>
       <c r="N13">
-        <v>0.9749579179079046</v>
+        <v>0.9845482747479108</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9437858212102457</v>
+        <v>0.953022423906416</v>
       </c>
       <c r="D14">
-        <v>0.971649048364315</v>
+        <v>0.9806369662650343</v>
       </c>
       <c r="E14">
-        <v>0.9548471666781068</v>
+        <v>0.9639500306890589</v>
       </c>
       <c r="F14">
-        <v>0.9635145280732388</v>
+        <v>0.9589511345160731</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020945705414988</v>
+        <v>1.024388528774855</v>
       </c>
       <c r="J14">
-        <v>0.9757390539821446</v>
+        <v>0.9845277531996197</v>
       </c>
       <c r="K14">
-        <v>0.9871438879271306</v>
+        <v>0.9959509806006458</v>
       </c>
       <c r="L14">
-        <v>0.9706921393550623</v>
+        <v>0.979603307756736</v>
       </c>
       <c r="M14">
-        <v>0.9791768673048381</v>
+        <v>0.9747090862830871</v>
       </c>
       <c r="N14">
-        <v>0.977124715357633</v>
+        <v>0.985925895536075</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9453873485045214</v>
+        <v>0.9541181940769906</v>
       </c>
       <c r="D15">
-        <v>0.9729167747850468</v>
+        <v>0.9814716914181493</v>
       </c>
       <c r="E15">
-        <v>0.9563597124374927</v>
+        <v>0.9649662927530281</v>
       </c>
       <c r="F15">
-        <v>0.9649722930129322</v>
+        <v>0.9600668162434801</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021626908333306</v>
+        <v>1.024763314273548</v>
       </c>
       <c r="J15">
-        <v>0.9770567022553616</v>
+        <v>0.9853690978575034</v>
       </c>
       <c r="K15">
-        <v>0.9882932913436356</v>
+        <v>0.9966777680824624</v>
       </c>
       <c r="L15">
-        <v>0.9720775612814102</v>
+        <v>0.9805047832572663</v>
       </c>
       <c r="M15">
-        <v>0.980510659946517</v>
+        <v>0.9757068891283603</v>
       </c>
       <c r="N15">
-        <v>0.9784442348425344</v>
+        <v>0.9867684349998763</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9544415671885103</v>
+        <v>0.9603777509799662</v>
       </c>
       <c r="D16">
-        <v>0.9800867602706069</v>
+        <v>0.9862435063161716</v>
       </c>
       <c r="E16">
-        <v>0.9649158820284531</v>
+        <v>0.9707756872961896</v>
       </c>
       <c r="F16">
-        <v>0.9732217885808889</v>
+        <v>0.9664427009452878</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025471729806824</v>
+        <v>1.026900205146104</v>
       </c>
       <c r="J16">
-        <v>0.9845040612479913</v>
+        <v>0.9901744938779609</v>
       </c>
       <c r="K16">
-        <v>0.9947873432368199</v>
+        <v>1.00082823850385</v>
       </c>
       <c r="L16">
-        <v>0.9799102232365465</v>
+        <v>0.9856551363606592</v>
       </c>
       <c r="M16">
-        <v>0.9880538136476497</v>
+        <v>0.9814069298668082</v>
       </c>
       <c r="N16">
-        <v>0.9859021699391578</v>
+        <v>0.9915806552338693</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9599032538817761</v>
+        <v>0.9642052450099091</v>
       </c>
       <c r="D17">
-        <v>0.9844139253320097</v>
+        <v>0.9891640895469581</v>
       </c>
       <c r="E17">
-        <v>0.9700811951692911</v>
+        <v>0.9743312867445567</v>
       </c>
       <c r="F17">
-        <v>0.978204566538958</v>
+        <v>0.9703435428727741</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027785289359977</v>
+        <v>1.028203166572166</v>
       </c>
       <c r="J17">
-        <v>0.9889945398344899</v>
+        <v>0.9931120262582817</v>
       </c>
       <c r="K17">
-        <v>0.9987008675599656</v>
+        <v>1.003364817051172</v>
       </c>
       <c r="L17">
-        <v>0.9846349654890363</v>
+        <v>0.9888048652223914</v>
       </c>
       <c r="M17">
-        <v>0.9926058544875808</v>
+        <v>0.9848923365508339</v>
       </c>
       <c r="N17">
-        <v>0.9903990255203144</v>
+        <v>0.99452235924711</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.963016806336937</v>
+        <v>0.9664040357232248</v>
       </c>
       <c r="D18">
-        <v>0.9868813073447337</v>
+        <v>0.9908427961142463</v>
       </c>
       <c r="E18">
-        <v>0.973027141628822</v>
+        <v>0.9763750320176177</v>
       </c>
       <c r="F18">
-        <v>0.9810472711182125</v>
+        <v>0.972585251428394</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029102068873628</v>
+        <v>1.028950318225644</v>
       </c>
       <c r="J18">
-        <v>0.9915536683463119</v>
+        <v>0.9947992249517712</v>
       </c>
       <c r="K18">
-        <v>1.000930395088313</v>
+        <v>1.004821489367195</v>
       </c>
       <c r="L18">
-        <v>0.9873282916599257</v>
+        <v>0.9906144168335794</v>
       </c>
       <c r="M18">
-        <v>0.9952013744238538</v>
+        <v>0.9868945953185038</v>
       </c>
       <c r="N18">
-        <v>0.9929617882881594</v>
+        <v>0.9962119539562686</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9640667519843032</v>
+        <v>0.9671482195469822</v>
       </c>
       <c r="D19">
-        <v>0.9877134385605595</v>
+        <v>0.9914111030583248</v>
       </c>
       <c r="E19">
-        <v>0.9740207866679893</v>
+        <v>0.9770669303852352</v>
       </c>
       <c r="F19">
-        <v>0.9820062338586372</v>
+        <v>0.9733440919814691</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029545746333333</v>
+        <v>1.029202957385996</v>
       </c>
       <c r="J19">
-        <v>0.9924165158084869</v>
+        <v>0.995370198907958</v>
       </c>
       <c r="K19">
-        <v>1.001681976059748</v>
+        <v>1.005314408048094</v>
       </c>
       <c r="L19">
-        <v>0.9882365023859683</v>
+        <v>0.9912268775984261</v>
       </c>
       <c r="M19">
-        <v>0.9960767084118588</v>
+        <v>0.9875722583037461</v>
       </c>
       <c r="N19">
-        <v>0.9938258610927004</v>
+        <v>0.9967837387609647</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C20">
-        <v>0.9593248625960885</v>
+        <v>0.963798120868944</v>
       </c>
       <c r="D20">
-        <v>0.983955614815782</v>
+        <v>0.9888533351745837</v>
       </c>
       <c r="E20">
-        <v>0.9695340467518697</v>
+        <v>0.9739529625886936</v>
       </c>
       <c r="F20">
-        <v>0.9776766619704494</v>
+        <v>0.9699285351844573</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02754050334037</v>
+        <v>1.028064713697188</v>
       </c>
       <c r="J20">
-        <v>0.9885190775310654</v>
+        <v>0.9927995994971087</v>
       </c>
       <c r="K20">
-        <v>0.9982865768938495</v>
+        <v>1.003095058494906</v>
       </c>
       <c r="L20">
-        <v>0.9841346266015071</v>
+        <v>0.9884698203804527</v>
       </c>
       <c r="M20">
-        <v>0.9921237361830871</v>
+        <v>0.9845216003787083</v>
       </c>
       <c r="N20">
-        <v>0.9899228880058824</v>
+        <v>0.9942094888041004</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.943015392832776</v>
+        <v>0.9524965439522414</v>
       </c>
       <c r="D21">
-        <v>0.9710392576570956</v>
+        <v>0.9802364326673416</v>
       </c>
       <c r="E21">
-        <v>0.954119639411365</v>
+        <v>0.9634623828923535</v>
       </c>
       <c r="F21">
-        <v>0.9628134115090927</v>
+        <v>0.958415745740259</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020617894364647</v>
+        <v>1.024208591186005</v>
       </c>
       <c r="J21">
-        <v>0.9751051560194733</v>
+        <v>0.9841239648901163</v>
       </c>
       <c r="K21">
-        <v>0.9865908873941718</v>
+        <v>0.9956021615117386</v>
       </c>
       <c r="L21">
-        <v>0.9700256777145273</v>
+        <v>0.9791706880051917</v>
       </c>
       <c r="M21">
-        <v>0.9785352877163871</v>
+        <v>0.9742302257993571</v>
       </c>
       <c r="N21">
-        <v>0.9764899171871457</v>
+        <v>0.9855215338008566</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9319613056911356</v>
+        <v>0.9450428489471859</v>
       </c>
       <c r="D22">
-        <v>0.9622946798744737</v>
+        <v>0.9745641235266196</v>
       </c>
       <c r="E22">
-        <v>0.9436880319191676</v>
+        <v>0.9565558163579387</v>
       </c>
       <c r="F22">
-        <v>0.952764936657677</v>
+        <v>0.9508305022903144</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015907036903552</v>
+        <v>1.021653536141044</v>
       </c>
       <c r="J22">
-        <v>0.9660081164897103</v>
+        <v>0.97840012841913</v>
       </c>
       <c r="K22">
-        <v>0.9786520119351182</v>
+        <v>0.9906568904595531</v>
       </c>
       <c r="L22">
-        <v>0.9604641387211278</v>
+        <v>0.9730399980047967</v>
       </c>
       <c r="M22">
-        <v>0.9693340279153461</v>
+        <v>0.9674432698268826</v>
       </c>
       <c r="N22">
-        <v>0.967379958817805</v>
+        <v>0.9797895688255487</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9379056224356943</v>
+        <v>0.949029540287805</v>
       </c>
       <c r="D23">
-        <v>0.9669959330592943</v>
+        <v>0.9775969006702787</v>
       </c>
       <c r="E23">
-        <v>0.9492959908254968</v>
+        <v>0.9602486512655788</v>
       </c>
       <c r="F23">
-        <v>0.9581658872229138</v>
+        <v>0.9548868095306827</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018441957796345</v>
+        <v>1.023021188588296</v>
       </c>
       <c r="J23">
-        <v>0.9709004323058273</v>
+        <v>0.9814617158439235</v>
       </c>
       <c r="K23">
-        <v>0.9829221013948417</v>
+        <v>0.9933021762950311</v>
       </c>
       <c r="L23">
-        <v>0.9656056150486337</v>
+        <v>0.9763187828697286</v>
       </c>
       <c r="M23">
-        <v>0.9742810013244166</v>
+        <v>0.9710732719359026</v>
       </c>
       <c r="N23">
-        <v>0.972279222283538</v>
+        <v>0.9828555040556542</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9595864342022419</v>
+        <v>0.9639821864959326</v>
       </c>
       <c r="D24">
-        <v>0.9841628793129037</v>
+        <v>0.9889938280798585</v>
       </c>
       <c r="E24">
-        <v>0.9697814849073906</v>
+        <v>0.9741240038382961</v>
       </c>
       <c r="F24">
-        <v>0.9779153947593635</v>
+        <v>0.9701161626295615</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027651211954536</v>
+        <v>1.028127314128189</v>
       </c>
       <c r="J24">
-        <v>0.9887341029541482</v>
+        <v>0.992940852369691</v>
       </c>
       <c r="K24">
-        <v>0.9984739402367617</v>
+        <v>1.003217021160705</v>
       </c>
       <c r="L24">
-        <v>0.9843609001808264</v>
+        <v>0.9886212977498661</v>
       </c>
       <c r="M24">
-        <v>0.9923417676847356</v>
+        <v>0.9846892146194164</v>
       </c>
       <c r="N24">
-        <v>0.9901382187897296</v>
+        <v>0.9943509422719637</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9819490566466302</v>
+        <v>0.9800253144432211</v>
       </c>
       <c r="D25">
-        <v>1.001890709806474</v>
+        <v>1.001255775238476</v>
       </c>
       <c r="E25">
-        <v>0.9909609160446237</v>
+        <v>0.9890544729812941</v>
       </c>
       <c r="F25">
-        <v>0.9983657969935388</v>
+        <v>0.9864857020368704</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037070682492515</v>
+        <v>1.033553702126088</v>
       </c>
       <c r="J25">
-        <v>1.007099561093856</v>
+        <v>1.005244126241736</v>
       </c>
       <c r="K25">
-        <v>1.01445974567396</v>
+        <v>1.013834628142279</v>
       </c>
       <c r="L25">
-        <v>1.003701191763093</v>
+        <v>1.001825114296329</v>
       </c>
       <c r="M25">
-        <v>1.010989534941207</v>
+        <v>0.9992974965304985</v>
       </c>
       <c r="N25">
-        <v>1.008529757986544</v>
+        <v>1.006671688204113</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9919504438382696</v>
+        <v>0.9968272380146879</v>
       </c>
       <c r="D2">
-        <v>1.010388632198335</v>
+        <v>1.014036228942595</v>
       </c>
       <c r="E2">
-        <v>1.000181406254101</v>
+        <v>1.011949292790228</v>
       </c>
       <c r="F2">
-        <v>0.9986754005102552</v>
+        <v>1.013700931171038</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037541702966511</v>
+        <v>1.040467275145508</v>
       </c>
       <c r="J2">
-        <v>1.014374610587649</v>
+        <v>1.019103261746221</v>
       </c>
       <c r="K2">
-        <v>1.021705109547083</v>
+        <v>1.025303419809558</v>
       </c>
       <c r="L2">
-        <v>1.011638214377783</v>
+        <v>1.023244627733697</v>
       </c>
       <c r="M2">
-        <v>1.010153220006028</v>
+        <v>1.024972633986611</v>
       </c>
       <c r="N2">
-        <v>1.015815138885077</v>
+        <v>1.020550505270677</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000177669510471</v>
+        <v>1.002192711821509</v>
       </c>
       <c r="D3">
-        <v>1.016696535365979</v>
+        <v>1.017761544505168</v>
       </c>
       <c r="E3">
-        <v>1.007872387788293</v>
+        <v>1.017121328739505</v>
       </c>
       <c r="F3">
-        <v>1.007097185432853</v>
+        <v>1.019461037161746</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04026507852101</v>
+        <v>1.041571748152976</v>
       </c>
       <c r="J3">
-        <v>1.020663492247416</v>
+        <v>1.022623779261318</v>
       </c>
       <c r="K3">
-        <v>1.027120146787421</v>
+        <v>1.028172097172689</v>
       </c>
       <c r="L3">
-        <v>1.018405521223454</v>
+        <v>1.027539727421706</v>
       </c>
       <c r="M3">
-        <v>1.017640054759464</v>
+        <v>1.029850821511429</v>
       </c>
       <c r="N3">
-        <v>1.022112951478147</v>
+        <v>1.024076022324456</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005321993092781</v>
+        <v>1.005583923061571</v>
       </c>
       <c r="D4">
-        <v>1.020643028086236</v>
+        <v>1.020117980322869</v>
       </c>
       <c r="E4">
-        <v>1.012687462804076</v>
+        <v>1.020396014141625</v>
       </c>
       <c r="F4">
-        <v>1.012368549725275</v>
+        <v>1.023108915462625</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041954519357384</v>
+        <v>1.04225812079288</v>
       </c>
       <c r="J4">
-        <v>1.024590534572469</v>
+        <v>1.024845862089153</v>
       </c>
       <c r="K4">
-        <v>1.030498533870436</v>
+        <v>1.029979514190033</v>
       </c>
       <c r="L4">
-        <v>1.0226351355099</v>
+        <v>1.030254354943474</v>
       </c>
       <c r="M4">
-        <v>1.022319954464957</v>
+        <v>1.0329362124551</v>
       </c>
       <c r="N4">
-        <v>1.026045570653739</v>
+        <v>1.026301260764783</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007444457928821</v>
+        <v>1.006991106029042</v>
       </c>
       <c r="D5">
-        <v>1.022271701761666</v>
+        <v>1.021096150976116</v>
       </c>
       <c r="E5">
-        <v>1.014675455651163</v>
+        <v>1.021756187988426</v>
       </c>
       <c r="F5">
-        <v>1.014544699337794</v>
+        <v>1.024624328153657</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042648261080144</v>
+        <v>1.042540072508808</v>
       </c>
       <c r="J5">
-        <v>1.026209433588809</v>
+        <v>1.025767145362572</v>
       </c>
       <c r="K5">
-        <v>1.031890504054062</v>
+        <v>1.030728071549134</v>
       </c>
       <c r="L5">
-        <v>1.024379687670094</v>
+        <v>1.031380738461645</v>
       </c>
       <c r="M5">
-        <v>1.024250415690256</v>
+        <v>1.03421698803841</v>
       </c>
       <c r="N5">
-        <v>1.027666768692373</v>
+        <v>1.027223852366123</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007798544967686</v>
+        <v>1.007226317235191</v>
       </c>
       <c r="D6">
-        <v>1.022543431191335</v>
+        <v>1.021259671887992</v>
       </c>
       <c r="E6">
-        <v>1.015007187341078</v>
+        <v>1.021983619655799</v>
       </c>
       <c r="F6">
-        <v>1.014907816590925</v>
+        <v>1.024877731133442</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042763800994668</v>
+        <v>1.042587031331758</v>
       </c>
       <c r="J6">
-        <v>1.026479431145526</v>
+        <v>1.025921091796361</v>
       </c>
       <c r="K6">
-        <v>1.03212260980021</v>
+        <v>1.030853107419722</v>
       </c>
       <c r="L6">
-        <v>1.024670695657707</v>
+        <v>1.03156900989354</v>
       </c>
       <c r="M6">
-        <v>1.024572447162512</v>
+        <v>1.034431098411186</v>
       </c>
       <c r="N6">
-        <v>1.027937149676589</v>
+        <v>1.027378017421506</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005350508187202</v>
+        <v>1.005602797488494</v>
       </c>
       <c r="D7">
-        <v>1.020664907674774</v>
+        <v>1.020131099096399</v>
       </c>
       <c r="E7">
-        <v>1.012714165955119</v>
+        <v>1.020414252771703</v>
       </c>
       <c r="F7">
-        <v>1.012397781067354</v>
+        <v>1.023129234759658</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041963852846187</v>
+        <v>1.042261913952688</v>
       </c>
       <c r="J7">
-        <v>1.024612289690726</v>
+        <v>1.024858222280973</v>
       </c>
       <c r="K7">
-        <v>1.030517242478532</v>
+        <v>1.029989560258004</v>
       </c>
       <c r="L7">
-        <v>1.022658575534468</v>
+        <v>1.03026946327973</v>
       </c>
       <c r="M7">
-        <v>1.022345891601445</v>
+        <v>1.032953389477322</v>
       </c>
       <c r="N7">
-        <v>1.026067356666759</v>
+        <v>1.026313638509493</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.994769699514237</v>
+        <v>0.9986577228454125</v>
       </c>
       <c r="D8">
-        <v>1.012549616717702</v>
+        <v>1.015306711896493</v>
       </c>
       <c r="E8">
-        <v>1.002815570554954</v>
+        <v>1.013712558632033</v>
       </c>
       <c r="F8">
-        <v>1.001560171807257</v>
+        <v>1.015664519315501</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038477730468277</v>
+        <v>1.040846504284543</v>
       </c>
       <c r="J8">
-        <v>1.016530717253717</v>
+        <v>1.020304933486657</v>
       </c>
       <c r="K8">
-        <v>1.023562236973373</v>
+        <v>1.02628326021565</v>
       </c>
       <c r="L8">
-        <v>1.01395753774459</v>
+        <v>1.024709933775155</v>
       </c>
       <c r="M8">
-        <v>1.012719050968128</v>
+        <v>1.026636404308588</v>
       </c>
       <c r="N8">
-        <v>1.017974307469921</v>
+        <v>1.02175388352282</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9746148151039681</v>
+        <v>0.9857628499940422</v>
       </c>
       <c r="D9">
-        <v>0.9971169858701482</v>
+        <v>1.006368376614763</v>
       </c>
       <c r="E9">
-        <v>0.9840142389354999</v>
+        <v>1.001317157534082</v>
       </c>
       <c r="F9">
-        <v>0.9809615024595821</v>
+        <v>1.001863471220656</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031730717543517</v>
+        <v>1.038127226877514</v>
       </c>
       <c r="J9">
-        <v>1.001096974362339</v>
+        <v>1.011828573726031</v>
       </c>
       <c r="K9">
-        <v>1.010257011791398</v>
+        <v>1.019358969480042</v>
       </c>
       <c r="L9">
-        <v>0.9973721102126719</v>
+        <v>1.014388900862204</v>
       </c>
       <c r="M9">
-        <v>0.9943712078411481</v>
+        <v>1.014926387082267</v>
       </c>
       <c r="N9">
-        <v>1.002518646893362</v>
+        <v>1.013265486359081</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9599405080233399</v>
+        <v>0.9766649531656474</v>
       </c>
       <c r="D10">
-        <v>0.9859099981878613</v>
+        <v>1.000081022250424</v>
       </c>
       <c r="E10">
-        <v>0.9703696670438249</v>
+        <v>0.9926065127623376</v>
       </c>
       <c r="F10">
-        <v>0.9659971873474079</v>
+        <v>0.99216704902518</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026751174127821</v>
+        <v>1.036150206482471</v>
       </c>
       <c r="J10">
-        <v>0.9898388754702931</v>
+        <v>1.005835998760841</v>
       </c>
       <c r="K10">
-        <v>1.000538398958042</v>
+        <v>1.014448813969588</v>
       </c>
       <c r="L10">
-        <v>0.9852953394949099</v>
+        <v>1.007110554483807</v>
       </c>
       <c r="M10">
-        <v>0.9810087662272187</v>
+        <v>1.006679184832805</v>
       </c>
       <c r="N10">
-        <v>0.9912445602095667</v>
+        <v>1.007264401250083</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9532320608213729</v>
+        <v>0.9725916961509238</v>
       </c>
       <c r="D11">
-        <v>0.9807966470702655</v>
+        <v>0.9972720704773188</v>
       </c>
       <c r="E11">
-        <v>0.9641444402522088</v>
+        <v>0.9887155359736924</v>
       </c>
       <c r="F11">
-        <v>0.9591645705302136</v>
+        <v>0.9878357708318964</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024460246338369</v>
+        <v>1.035252017009386</v>
       </c>
       <c r="J11">
-        <v>0.984688717390402</v>
+        <v>1.003150879164985</v>
       </c>
       <c r="K11">
-        <v>0.9960900302648077</v>
+        <v>1.012245615569012</v>
       </c>
       <c r="L11">
-        <v>0.9797757700885733</v>
+        <v>1.003853445249676</v>
       </c>
       <c r="M11">
-        <v>0.9748999799383204</v>
+        <v>1.002990791399152</v>
       </c>
       <c r="N11">
-        <v>0.9860870883144707</v>
+        <v>1.004575468476413</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9506807794584323</v>
+        <v>0.9710572036109268</v>
       </c>
       <c r="D12">
-        <v>0.9788537991885656</v>
+        <v>0.9962149049451287</v>
       </c>
       <c r="E12">
-        <v>0.961779000178646</v>
+        <v>0.9872511083877419</v>
       </c>
       <c r="F12">
-        <v>0.9565673822963758</v>
+        <v>0.986205594109397</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023586953779583</v>
+        <v>1.034911761193174</v>
       </c>
       <c r="J12">
-        <v>0.9827297061818341</v>
+        <v>1.002139072208892</v>
       </c>
       <c r="K12">
-        <v>0.9943976587839891</v>
+        <v>1.01141498246395</v>
       </c>
       <c r="L12">
-        <v>0.9776770102564553</v>
+        <v>1.00262670189995</v>
       </c>
       <c r="M12">
-        <v>0.9725768285752571</v>
+        <v>1.001601932467928</v>
       </c>
       <c r="N12">
-        <v>0.9841252950852851</v>
+        <v>1.003562224638386</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.951230840297055</v>
+        <v>0.9713873544360664</v>
       </c>
       <c r="D13">
-        <v>0.9792725939851982</v>
+        <v>0.9964423084775712</v>
       </c>
       <c r="E13">
-        <v>0.9622888966045027</v>
+        <v>0.9875661205053979</v>
       </c>
       <c r="F13">
-        <v>0.957127280483373</v>
+        <v>0.9865562626940723</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023775326340093</v>
+        <v>1.034985052259261</v>
       </c>
       <c r="J13">
-        <v>0.9831520860166467</v>
+        <v>1.002356776195767</v>
       </c>
       <c r="K13">
-        <v>0.9947625614560273</v>
+        <v>1.011593722921655</v>
       </c>
       <c r="L13">
-        <v>0.9781294864622685</v>
+        <v>1.002890625561779</v>
       </c>
       <c r="M13">
-        <v>0.9730776993830984</v>
+        <v>1.001900719803072</v>
       </c>
       <c r="N13">
-        <v>0.9845482747479108</v>
+        <v>1.003780237789894</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.953022423906416</v>
+        <v>0.972465301734633</v>
       </c>
       <c r="D14">
-        <v>0.9806369662650343</v>
+        <v>0.9971849711609845</v>
       </c>
       <c r="E14">
-        <v>0.9639500306890589</v>
+        <v>0.9885948840326889</v>
       </c>
       <c r="F14">
-        <v>0.9589511345160731</v>
+        <v>0.9877014640324182</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024388528774855</v>
+        <v>1.035224028396152</v>
       </c>
       <c r="J14">
-        <v>0.9845277531996197</v>
+        <v>1.003067542630535</v>
       </c>
       <c r="K14">
-        <v>0.9959509806006458</v>
+        <v>1.012177209620092</v>
       </c>
       <c r="L14">
-        <v>0.979603307756736</v>
+        <v>1.003752393596954</v>
       </c>
       <c r="M14">
-        <v>0.9747090862830871</v>
+        <v>1.002876379254269</v>
       </c>
       <c r="N14">
-        <v>0.985925895536075</v>
+        <v>1.004492013594525</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9541181940769906</v>
+        <v>0.9731265671721038</v>
       </c>
       <c r="D15">
-        <v>0.9814716914181493</v>
+        <v>0.9976406969000136</v>
       </c>
       <c r="E15">
-        <v>0.9649662927530281</v>
+        <v>0.9892261633982083</v>
       </c>
       <c r="F15">
-        <v>0.9600668162434801</v>
+        <v>0.9884041871533338</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024763314273548</v>
+        <v>1.035370381774867</v>
       </c>
       <c r="J15">
-        <v>0.9853690978575034</v>
+        <v>1.003503529367243</v>
       </c>
       <c r="K15">
-        <v>0.9966777680824624</v>
+        <v>1.012535067897272</v>
       </c>
       <c r="L15">
-        <v>0.9805047832572663</v>
+        <v>1.004281083794011</v>
       </c>
       <c r="M15">
-        <v>0.9757068891283603</v>
+        <v>1.003474982908395</v>
       </c>
       <c r="N15">
-        <v>0.9867684349998763</v>
+        <v>1.004928619482407</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9603777509799662</v>
+        <v>0.976932345962261</v>
       </c>
       <c r="D16">
-        <v>0.9862435063161716</v>
+        <v>1.000265554057902</v>
       </c>
       <c r="E16">
-        <v>0.9707756872961896</v>
+        <v>0.9928621294629338</v>
       </c>
       <c r="F16">
-        <v>0.9664427009452878</v>
+        <v>0.9924515886277386</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026900205146104</v>
+        <v>1.036208903855943</v>
       </c>
       <c r="J16">
-        <v>0.9901744938779609</v>
+        <v>1.006012226524152</v>
       </c>
       <c r="K16">
-        <v>1.00082823850385</v>
+        <v>1.014593351847112</v>
       </c>
       <c r="L16">
-        <v>0.9856551363606592</v>
+        <v>1.007324406844535</v>
       </c>
       <c r="M16">
-        <v>0.9814069298668082</v>
+        <v>1.006921399763472</v>
       </c>
       <c r="N16">
-        <v>0.9915806552338693</v>
+        <v>1.007440879277031</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9642052450099091</v>
+        <v>0.9792828365808313</v>
       </c>
       <c r="D17">
-        <v>0.9891640895469581</v>
+        <v>1.001888357861409</v>
       </c>
       <c r="E17">
-        <v>0.9743312867445567</v>
+        <v>0.9951101203962408</v>
       </c>
       <c r="F17">
-        <v>0.9703435428727741</v>
+        <v>0.99495393826725</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028203166572166</v>
+        <v>1.0367234049985</v>
       </c>
       <c r="J17">
-        <v>0.9931120262582817</v>
+        <v>1.007561102194432</v>
       </c>
       <c r="K17">
-        <v>1.003364817051172</v>
+        <v>1.015863358138454</v>
       </c>
       <c r="L17">
-        <v>0.9888048652223914</v>
+        <v>1.009204433598209</v>
       </c>
       <c r="M17">
-        <v>0.9848923365508339</v>
+        <v>1.009051025506039</v>
       </c>
       <c r="N17">
-        <v>0.99452235924711</v>
+        <v>1.008991954528422</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9664040357232248</v>
+        <v>0.9806410285363381</v>
       </c>
       <c r="D18">
-        <v>0.9908427961142463</v>
+        <v>1.002826624962748</v>
       </c>
       <c r="E18">
-        <v>0.9763750320176177</v>
+        <v>0.9964099224718596</v>
       </c>
       <c r="F18">
-        <v>0.972585251428394</v>
+        <v>0.9964008184913885</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028950318225644</v>
+        <v>1.037019461764231</v>
       </c>
       <c r="J18">
-        <v>0.9947992249517712</v>
+        <v>1.0084558855699</v>
       </c>
       <c r="K18">
-        <v>1.004821489367195</v>
+        <v>1.01659674490427</v>
       </c>
       <c r="L18">
-        <v>0.9906144168335794</v>
+        <v>1.010290914418328</v>
       </c>
       <c r="M18">
-        <v>0.9868945953185038</v>
+        <v>1.010281969055901</v>
       </c>
       <c r="N18">
-        <v>0.9962119539562686</v>
+        <v>1.009888008598916</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9671482195469822</v>
+        <v>0.9811020046816159</v>
       </c>
       <c r="D19">
-        <v>0.9914111030583248</v>
+        <v>1.003145167440741</v>
       </c>
       <c r="E19">
-        <v>0.9770669303852352</v>
+        <v>0.9968512213052108</v>
       </c>
       <c r="F19">
-        <v>0.9733440919814691</v>
+        <v>0.9968920544175205</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029202957385996</v>
+        <v>1.037119732361287</v>
       </c>
       <c r="J19">
-        <v>0.995370198907958</v>
+        <v>1.008759541580914</v>
       </c>
       <c r="K19">
-        <v>1.005314408048094</v>
+        <v>1.016845577905649</v>
       </c>
       <c r="L19">
-        <v>0.9912268775984261</v>
+        <v>1.010659692431423</v>
       </c>
       <c r="M19">
-        <v>0.9875722583037461</v>
+        <v>1.010699818791312</v>
       </c>
       <c r="N19">
-        <v>0.9967837387609647</v>
+        <v>1.010192095836296</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.050000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.963798120868944</v>
+        <v>0.9790319858431632</v>
       </c>
       <c r="D20">
-        <v>0.9888533351745837</v>
+        <v>1.001715109102207</v>
       </c>
       <c r="E20">
-        <v>0.9739529625886936</v>
+        <v>0.9948701213256811</v>
       </c>
       <c r="F20">
-        <v>0.9699285351844573</v>
+        <v>0.9946867830749865</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028064713697188</v>
+        <v>1.036668624165146</v>
       </c>
       <c r="J20">
-        <v>0.9927995994971087</v>
+        <v>1.007395823191636</v>
       </c>
       <c r="K20">
-        <v>1.003095058494906</v>
+        <v>1.015727867277459</v>
       </c>
       <c r="L20">
-        <v>0.9884698203804527</v>
+        <v>1.009003777239456</v>
       </c>
       <c r="M20">
-        <v>0.9845216003787083</v>
+        <v>1.008823706854006</v>
       </c>
       <c r="N20">
-        <v>0.9942094888041004</v>
+        <v>1.008826440810484</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9524965439522414</v>
+        <v>0.9721484786125472</v>
       </c>
       <c r="D21">
-        <v>0.9802364326673416</v>
+        <v>0.9969666631361305</v>
       </c>
       <c r="E21">
-        <v>0.9634623828923535</v>
+        <v>0.9882924778043662</v>
       </c>
       <c r="F21">
-        <v>0.958415745740259</v>
+        <v>0.9873648320819389</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024208591186005</v>
+        <v>1.03515384138883</v>
       </c>
       <c r="J21">
-        <v>0.9841239648901163</v>
+        <v>1.002858645441615</v>
       </c>
       <c r="K21">
-        <v>0.9956021615117386</v>
+        <v>1.01200573179836</v>
       </c>
       <c r="L21">
-        <v>0.9791706880051917</v>
+        <v>1.00349910005509</v>
       </c>
       <c r="M21">
-        <v>0.9742302257993571</v>
+        <v>1.002589601734954</v>
       </c>
       <c r="N21">
-        <v>0.9855215338008566</v>
+        <v>1.004282819747636</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9450428489471859</v>
+        <v>0.9676953420454905</v>
       </c>
       <c r="D22">
-        <v>0.9745641235266196</v>
+        <v>0.9939008587350916</v>
       </c>
       <c r="E22">
-        <v>0.9565558163579387</v>
+        <v>0.9840453868901472</v>
       </c>
       <c r="F22">
-        <v>0.9508305022903144</v>
+        <v>0.9826369252777174</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021653536141044</v>
+        <v>1.034162920158862</v>
       </c>
       <c r="J22">
-        <v>0.97840012841913</v>
+        <v>0.9999219427902218</v>
       </c>
       <c r="K22">
-        <v>0.9906568904595531</v>
+        <v>1.009594116881028</v>
       </c>
       <c r="L22">
-        <v>0.9730399980047967</v>
+        <v>0.9999396748643029</v>
       </c>
       <c r="M22">
-        <v>0.9674432698268826</v>
+        <v>0.9985603777841088</v>
       </c>
       <c r="N22">
-        <v>0.9797895688255487</v>
+        <v>1.001341946641634</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.949029540287805</v>
+        <v>0.9700684035728953</v>
       </c>
       <c r="D23">
-        <v>0.9775969006702787</v>
+        <v>0.9955339947383135</v>
       </c>
       <c r="E23">
-        <v>0.9602486512655788</v>
+        <v>0.9863078579679466</v>
       </c>
       <c r="F23">
-        <v>0.9548868095306827</v>
+        <v>0.9851555679885609</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023021188588296</v>
+        <v>1.034691984259261</v>
       </c>
       <c r="J23">
-        <v>0.9814617158439235</v>
+        <v>1.0014870172527</v>
       </c>
       <c r="K23">
-        <v>0.9933021762950311</v>
+        <v>1.010879569965346</v>
       </c>
       <c r="L23">
-        <v>0.9763187828697286</v>
+        <v>1.001836298799424</v>
       </c>
       <c r="M23">
-        <v>0.9710732719359026</v>
+        <v>1.000707164381941</v>
       </c>
       <c r="N23">
-        <v>0.9828555040556542</v>
+        <v>1.002909243689365</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9639821864959326</v>
+        <v>0.9791453739755126</v>
       </c>
       <c r="D24">
-        <v>0.9889938280798585</v>
+        <v>1.00179341830924</v>
       </c>
       <c r="E24">
-        <v>0.9741240038382961</v>
+        <v>0.994978601753693</v>
       </c>
       <c r="F24">
-        <v>0.9701161626295615</v>
+        <v>0.9948075381431005</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028127314128189</v>
+        <v>1.036693389737853</v>
       </c>
       <c r="J24">
-        <v>0.992940852369691</v>
+        <v>1.007470532324546</v>
       </c>
       <c r="K24">
-        <v>1.003217021160705</v>
+        <v>1.015789112540977</v>
       </c>
       <c r="L24">
-        <v>0.9886212977498661</v>
+        <v>1.009094476366921</v>
       </c>
       <c r="M24">
-        <v>0.9846892146194164</v>
+        <v>1.008926456986992</v>
       </c>
       <c r="N24">
-        <v>0.9943509422719637</v>
+        <v>1.008901256038931</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9800253144432211</v>
+        <v>0.9891801668789979</v>
       </c>
       <c r="D25">
-        <v>1.001255775238476</v>
+        <v>1.008734346751999</v>
       </c>
       <c r="E25">
-        <v>0.9890544729812941</v>
+        <v>1.004596320736235</v>
       </c>
       <c r="F25">
-        <v>0.9864857020368704</v>
+        <v>1.005514011319733</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033553702126088</v>
+        <v>1.038858160070365</v>
       </c>
       <c r="J25">
-        <v>1.005244126241736</v>
+        <v>1.014077229904021</v>
       </c>
       <c r="K25">
-        <v>1.013834628142279</v>
+        <v>1.021198569638365</v>
       </c>
       <c r="L25">
-        <v>1.001825114296329</v>
+        <v>1.017123701321669</v>
       </c>
       <c r="M25">
-        <v>0.9992974965304985</v>
+        <v>1.018027328191133</v>
       </c>
       <c r="N25">
-        <v>1.006671688204113</v>
+        <v>1.015517335886769</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9968272380146879</v>
+        <v>1.035608601327538</v>
       </c>
       <c r="D2">
-        <v>1.014036228942595</v>
+        <v>1.0357846216343</v>
       </c>
       <c r="E2">
-        <v>1.011949292790228</v>
+        <v>1.048839284058674</v>
       </c>
       <c r="F2">
-        <v>1.013700931171038</v>
+        <v>1.05567303597649</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040467275145508</v>
+        <v>1.031675728340551</v>
       </c>
       <c r="J2">
-        <v>1.019103261746221</v>
+        <v>1.040721444858092</v>
       </c>
       <c r="K2">
-        <v>1.025303419809558</v>
+        <v>1.038580233683906</v>
       </c>
       <c r="L2">
-        <v>1.023244627733697</v>
+        <v>1.051598010514081</v>
       </c>
       <c r="M2">
-        <v>1.024972633986611</v>
+        <v>1.05841284808516</v>
       </c>
       <c r="N2">
-        <v>1.020550505270677</v>
+        <v>1.042199388682209</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002192711821509</v>
+        <v>1.036729987729014</v>
       </c>
       <c r="D3">
-        <v>1.017761544505168</v>
+        <v>1.03657314809691</v>
       </c>
       <c r="E3">
-        <v>1.017121328739505</v>
+        <v>1.049984095778473</v>
       </c>
       <c r="F3">
-        <v>1.019461037161746</v>
+        <v>1.05696197263096</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041571748152976</v>
+        <v>1.031835198188935</v>
       </c>
       <c r="J3">
-        <v>1.022623779261318</v>
+        <v>1.041485583483481</v>
       </c>
       <c r="K3">
-        <v>1.028172097172689</v>
+        <v>1.039178282297128</v>
       </c>
       <c r="L3">
-        <v>1.027539727421706</v>
+        <v>1.052554088126173</v>
       </c>
       <c r="M3">
-        <v>1.029850821511429</v>
+        <v>1.059514060685672</v>
       </c>
       <c r="N3">
-        <v>1.024076022324456</v>
+        <v>1.042964612472093</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005583923061571</v>
+        <v>1.037455588647593</v>
       </c>
       <c r="D4">
-        <v>1.020117980322869</v>
+        <v>1.037083086987379</v>
       </c>
       <c r="E4">
-        <v>1.020396014141625</v>
+        <v>1.050725266347014</v>
       </c>
       <c r="F4">
-        <v>1.023108915462625</v>
+        <v>1.057796679758567</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04225812079288</v>
+        <v>1.03193689003659</v>
       </c>
       <c r="J4">
-        <v>1.024845862089153</v>
+        <v>1.041979484220437</v>
       </c>
       <c r="K4">
-        <v>1.029979514190033</v>
+        <v>1.039564315751494</v>
       </c>
       <c r="L4">
-        <v>1.030254354943474</v>
+        <v>1.053172553978173</v>
       </c>
       <c r="M4">
-        <v>1.0329362124551</v>
+        <v>1.060226744445264</v>
       </c>
       <c r="N4">
-        <v>1.026301260764783</v>
+        <v>1.043459214604747</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006991106029042</v>
+        <v>1.037760629617176</v>
       </c>
       <c r="D5">
-        <v>1.021096150976116</v>
+        <v>1.037297395544823</v>
       </c>
       <c r="E5">
-        <v>1.021756187988426</v>
+        <v>1.051036951117942</v>
       </c>
       <c r="F5">
-        <v>1.024624328153657</v>
+        <v>1.058147754246698</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042540072508808</v>
+        <v>1.031979283064401</v>
       </c>
       <c r="J5">
-        <v>1.025767145362572</v>
+        <v>1.042186989259539</v>
       </c>
       <c r="K5">
-        <v>1.030728071549134</v>
+        <v>1.039726378239741</v>
       </c>
       <c r="L5">
-        <v>1.031380738461645</v>
+        <v>1.053432514457256</v>
       </c>
       <c r="M5">
-        <v>1.03421698803841</v>
+        <v>1.060526387596745</v>
       </c>
       <c r="N5">
-        <v>1.027223852366123</v>
+        <v>1.043667014324806</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007226317235191</v>
+        <v>1.037811847269996</v>
       </c>
       <c r="D6">
-        <v>1.021259671887992</v>
+        <v>1.037333374797994</v>
       </c>
       <c r="E6">
-        <v>1.021983619655799</v>
+        <v>1.051089290051361</v>
       </c>
       <c r="F6">
-        <v>1.024877731133442</v>
+        <v>1.058206710823671</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042587031331758</v>
+        <v>1.031986380030167</v>
       </c>
       <c r="J6">
-        <v>1.025921091796361</v>
+        <v>1.042221822607556</v>
       </c>
       <c r="K6">
-        <v>1.030853107419722</v>
+        <v>1.039753575993748</v>
       </c>
       <c r="L6">
-        <v>1.03156900989354</v>
+        <v>1.053476160486935</v>
       </c>
       <c r="M6">
-        <v>1.034431098411186</v>
+        <v>1.060576700836677</v>
       </c>
       <c r="N6">
-        <v>1.027378017421506</v>
+        <v>1.043701897140173</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005602797488494</v>
+        <v>1.037459664625222</v>
       </c>
       <c r="D7">
-        <v>1.020131099096399</v>
+        <v>1.037085950863175</v>
       </c>
       <c r="E7">
-        <v>1.020414252771703</v>
+        <v>1.050729430713476</v>
       </c>
       <c r="F7">
-        <v>1.023129234759658</v>
+        <v>1.05780137018883</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042261913952688</v>
+        <v>1.031937457902041</v>
       </c>
       <c r="J7">
-        <v>1.024858222280973</v>
+        <v>1.041982257426539</v>
       </c>
       <c r="K7">
-        <v>1.029989560258004</v>
+        <v>1.039566482126315</v>
       </c>
       <c r="L7">
-        <v>1.03026946327973</v>
+        <v>1.053176027749326</v>
       </c>
       <c r="M7">
-        <v>1.032953389477322</v>
+        <v>1.060230748169263</v>
       </c>
       <c r="N7">
-        <v>1.026313638509493</v>
+        <v>1.043461991749121</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9986577228454125</v>
+        <v>1.035987582001378</v>
       </c>
       <c r="D8">
-        <v>1.015306711896493</v>
+        <v>1.036051167857035</v>
       </c>
       <c r="E8">
-        <v>1.013712558632033</v>
+        <v>1.049226095967267</v>
       </c>
       <c r="F8">
-        <v>1.015664519315501</v>
+        <v>1.056108498225212</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040846504284543</v>
+        <v>1.031729931564167</v>
       </c>
       <c r="J8">
-        <v>1.020304933486657</v>
+        <v>1.040979802786899</v>
       </c>
       <c r="K8">
-        <v>1.02628326021565</v>
+        <v>1.038782542482955</v>
       </c>
       <c r="L8">
-        <v>1.024709933775155</v>
+        <v>1.051921159110348</v>
       </c>
       <c r="M8">
-        <v>1.026636404308588</v>
+        <v>1.058784982542586</v>
       </c>
       <c r="N8">
-        <v>1.02175388352282</v>
+        <v>1.042458113508909</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9857628499940422</v>
+        <v>1.033393454805424</v>
       </c>
       <c r="D9">
-        <v>1.006368376614763</v>
+        <v>1.03422553234103</v>
       </c>
       <c r="E9">
-        <v>1.001317157534082</v>
+        <v>1.046580066085211</v>
       </c>
       <c r="F9">
-        <v>1.001863471220656</v>
+        <v>1.053130592813287</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038127226877514</v>
+        <v>1.031352792860832</v>
       </c>
       <c r="J9">
-        <v>1.011828573726031</v>
+        <v>1.039209135068871</v>
       </c>
       <c r="K9">
-        <v>1.019358969480042</v>
+        <v>1.037393909546728</v>
       </c>
       <c r="L9">
-        <v>1.014388900862204</v>
+        <v>1.049708512246944</v>
       </c>
       <c r="M9">
-        <v>1.014926387082267</v>
+        <v>1.056238282704161</v>
       </c>
       <c r="N9">
-        <v>1.013265486359081</v>
+        <v>1.040684931239622</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9766649531656474</v>
+        <v>1.03166388446113</v>
       </c>
       <c r="D10">
-        <v>1.000081022250424</v>
+        <v>1.033006961645809</v>
       </c>
       <c r="E10">
-        <v>0.9926065127623376</v>
+        <v>1.044818041365609</v>
       </c>
       <c r="F10">
-        <v>0.99216704902518</v>
+        <v>1.051148715529029</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036150206482471</v>
+        <v>1.031093674323592</v>
       </c>
       <c r="J10">
-        <v>1.005835998760841</v>
+        <v>1.038025829933611</v>
       </c>
       <c r="K10">
-        <v>1.014448813969588</v>
+        <v>1.036463288188596</v>
       </c>
       <c r="L10">
-        <v>1.007110554483807</v>
+        <v>1.048232427164639</v>
       </c>
       <c r="M10">
-        <v>1.006679184832805</v>
+        <v>1.054541048543372</v>
       </c>
       <c r="N10">
-        <v>1.007264401250083</v>
+        <v>1.039499945675344</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9725916961509238</v>
+        <v>1.030914910007909</v>
       </c>
       <c r="D11">
-        <v>0.9972720704773188</v>
+        <v>1.032478957055321</v>
       </c>
       <c r="E11">
-        <v>0.9887155359736924</v>
+        <v>1.044055527021875</v>
       </c>
       <c r="F11">
-        <v>0.9878357708318964</v>
+        <v>1.050291329038869</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035252017009386</v>
+        <v>1.030979649456186</v>
       </c>
       <c r="J11">
-        <v>1.003150879164985</v>
+        <v>1.03751276077853</v>
       </c>
       <c r="K11">
-        <v>1.012245615569012</v>
+        <v>1.036059162972217</v>
       </c>
       <c r="L11">
-        <v>1.003853445249676</v>
+        <v>1.047593022059845</v>
       </c>
       <c r="M11">
-        <v>1.002990791399152</v>
+        <v>1.053806248437817</v>
       </c>
       <c r="N11">
-        <v>1.004575468476413</v>
+        <v>1.038986147903212</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9710572036109268</v>
+        <v>1.030636697252763</v>
       </c>
       <c r="D12">
-        <v>0.9962149049451287</v>
+        <v>1.032282779224189</v>
       </c>
       <c r="E12">
-        <v>0.9872511083877419</v>
+        <v>1.043772362363964</v>
       </c>
       <c r="F12">
-        <v>0.986205594109397</v>
+        <v>1.049972973102784</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034911761193174</v>
+        <v>1.030937021400315</v>
       </c>
       <c r="J12">
-        <v>1.002139072208892</v>
+        <v>1.037322079687689</v>
       </c>
       <c r="K12">
-        <v>1.01141498246395</v>
+        <v>1.035908878346084</v>
       </c>
       <c r="L12">
-        <v>1.00262670189995</v>
+        <v>1.047355479950667</v>
       </c>
       <c r="M12">
-        <v>1.001601932467928</v>
+        <v>1.053533326777911</v>
       </c>
       <c r="N12">
-        <v>1.003562224638386</v>
+        <v>1.038795196023351</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9713873544360664</v>
+        <v>1.030696375321824</v>
       </c>
       <c r="D13">
-        <v>0.9964423084775712</v>
+        <v>1.032324862452439</v>
       </c>
       <c r="E13">
-        <v>0.9875661205053979</v>
+        <v>1.043833099124432</v>
       </c>
       <c r="F13">
-        <v>0.9865562626940723</v>
+        <v>1.050041256325905</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034985052259261</v>
+        <v>1.030946177668293</v>
       </c>
       <c r="J13">
-        <v>1.002356776195767</v>
+        <v>1.037362986162248</v>
       </c>
       <c r="K13">
-        <v>1.011593722921655</v>
+        <v>1.035941122810242</v>
       </c>
       <c r="L13">
-        <v>1.002890625561779</v>
+        <v>1.047406435300631</v>
       </c>
       <c r="M13">
-        <v>1.001900719803072</v>
+        <v>1.053591868704514</v>
       </c>
       <c r="N13">
-        <v>1.003780237789894</v>
+        <v>1.038836160589796</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.972465301734633</v>
+        <v>1.030891913073003</v>
       </c>
       <c r="D14">
-        <v>0.9971849711609845</v>
+        <v>1.032462742024397</v>
       </c>
       <c r="E14">
-        <v>0.9885948840326889</v>
+        <v>1.04403211917997</v>
       </c>
       <c r="F14">
-        <v>0.9877014640324182</v>
+        <v>1.050265011288858</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035224028396152</v>
+        <v>1.030976131400131</v>
       </c>
       <c r="J14">
-        <v>1.003067542630535</v>
+        <v>1.037497001152881</v>
       </c>
       <c r="K14">
-        <v>1.012177209620092</v>
+        <v>1.036046743959872</v>
       </c>
       <c r="L14">
-        <v>1.003752393596954</v>
+        <v>1.047573387547565</v>
       </c>
       <c r="M14">
-        <v>1.002876379254269</v>
+        <v>1.053783688332759</v>
       </c>
       <c r="N14">
-        <v>1.004492013594525</v>
+        <v>1.038970365897087</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9731265671721038</v>
+        <v>1.031012388928415</v>
       </c>
       <c r="D15">
-        <v>0.9976406969000136</v>
+        <v>1.032547687100472</v>
       </c>
       <c r="E15">
-        <v>0.9892261633982083</v>
+        <v>1.04415475086626</v>
       </c>
       <c r="F15">
-        <v>0.9884041871533338</v>
+        <v>1.050402889376505</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035370381774867</v>
+        <v>1.030994550556785</v>
       </c>
       <c r="J15">
-        <v>1.003503529367243</v>
+        <v>1.037579558362764</v>
       </c>
       <c r="K15">
-        <v>1.012535067897272</v>
+        <v>1.036111797502156</v>
       </c>
       <c r="L15">
-        <v>1.004281083794011</v>
+        <v>1.047676247196004</v>
       </c>
       <c r="M15">
-        <v>1.003474982908395</v>
+        <v>1.053901876795467</v>
       </c>
       <c r="N15">
-        <v>1.004928619482407</v>
+        <v>1.039053040347679</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.976932345962261</v>
+        <v>1.031713590063033</v>
       </c>
       <c r="D16">
-        <v>1.000265554057902</v>
+        <v>1.033041996081579</v>
       </c>
       <c r="E16">
-        <v>0.9928621294629338</v>
+        <v>1.044868656403631</v>
       </c>
       <c r="F16">
-        <v>0.9924515886277386</v>
+        <v>1.051205633738874</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036208903855943</v>
+        <v>1.031101203332891</v>
       </c>
       <c r="J16">
-        <v>1.006012226524152</v>
+        <v>1.038059866044833</v>
       </c>
       <c r="K16">
-        <v>1.014593351847112</v>
+        <v>1.036490084186864</v>
       </c>
       <c r="L16">
-        <v>1.007324406844535</v>
+        <v>1.048274857016699</v>
       </c>
       <c r="M16">
-        <v>1.006921399763472</v>
+        <v>1.054589817092101</v>
       </c>
       <c r="N16">
-        <v>1.007440879277031</v>
+        <v>1.039534030121747</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9792828365808313</v>
+        <v>1.032153418190639</v>
       </c>
       <c r="D17">
-        <v>1.001888357861409</v>
+        <v>1.033351967875257</v>
       </c>
       <c r="E17">
-        <v>0.9951101203962408</v>
+        <v>1.045316591265487</v>
       </c>
       <c r="F17">
-        <v>0.99495393826725</v>
+        <v>1.05170938167663</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0367234049985</v>
+        <v>1.031167615254929</v>
       </c>
       <c r="J17">
-        <v>1.007561102194432</v>
+        <v>1.038360965104026</v>
       </c>
       <c r="K17">
-        <v>1.015863358138454</v>
+        <v>1.036727062685105</v>
       </c>
       <c r="L17">
-        <v>1.009204433598209</v>
+        <v>1.048650281403266</v>
       </c>
       <c r="M17">
-        <v>1.009051025506039</v>
+        <v>1.055021373378226</v>
       </c>
       <c r="N17">
-        <v>1.008991954528422</v>
+        <v>1.039835556776141</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9806410285363381</v>
+        <v>1.03240995689095</v>
       </c>
       <c r="D18">
-        <v>1.002826624962748</v>
+        <v>1.033532734884922</v>
       </c>
       <c r="E18">
-        <v>0.9964099224718596</v>
+        <v>1.045577907968097</v>
       </c>
       <c r="F18">
-        <v>0.9964008184913885</v>
+        <v>1.052003284633986</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037019461764231</v>
+        <v>1.03120617613463</v>
       </c>
       <c r="J18">
-        <v>1.0084558855699</v>
+        <v>1.038536524539192</v>
       </c>
       <c r="K18">
-        <v>1.01659674490427</v>
+        <v>1.036865176324623</v>
       </c>
       <c r="L18">
-        <v>1.010290914418328</v>
+        <v>1.048869235987873</v>
       </c>
       <c r="M18">
-        <v>1.010281969055901</v>
+        <v>1.055273103891128</v>
       </c>
       <c r="N18">
-        <v>1.009888008598916</v>
+        <v>1.040011365525843</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9811020046816159</v>
+        <v>1.03249742905061</v>
       </c>
       <c r="D19">
-        <v>1.003145167440741</v>
+        <v>1.03359436594747</v>
       </c>
       <c r="E19">
-        <v>0.9968512213052108</v>
+        <v>1.04566701768583</v>
       </c>
       <c r="F19">
-        <v>0.9968920544175205</v>
+        <v>1.052103510767152</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037119732361287</v>
+        <v>1.031219294532911</v>
       </c>
       <c r="J19">
-        <v>1.008759541580914</v>
+        <v>1.038596374501546</v>
       </c>
       <c r="K19">
-        <v>1.016845577905649</v>
+        <v>1.036912250532238</v>
       </c>
       <c r="L19">
-        <v>1.010659692431423</v>
+        <v>1.048943889782467</v>
       </c>
       <c r="M19">
-        <v>1.010699818791312</v>
+        <v>1.055358939399559</v>
       </c>
       <c r="N19">
-        <v>1.010192095836296</v>
+        <v>1.040071300482007</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9790319858431632</v>
+        <v>1.032106229384839</v>
       </c>
       <c r="D20">
-        <v>1.001715109102207</v>
+        <v>1.033318714382442</v>
       </c>
       <c r="E20">
-        <v>0.9948701213256811</v>
+        <v>1.045268527563347</v>
       </c>
       <c r="F20">
-        <v>0.9946867830749865</v>
+        <v>1.051655326511628</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036668624165146</v>
+        <v>1.031160508095869</v>
       </c>
       <c r="J20">
-        <v>1.007395823191636</v>
+        <v>1.038328666912961</v>
       </c>
       <c r="K20">
-        <v>1.015727867277459</v>
+        <v>1.036701648711929</v>
       </c>
       <c r="L20">
-        <v>1.009003777239456</v>
+        <v>1.048610004419856</v>
       </c>
       <c r="M20">
-        <v>1.008823706854006</v>
+        <v>1.054975070340482</v>
       </c>
       <c r="N20">
-        <v>1.008826440810484</v>
+        <v>1.039803212717941</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9721484786125472</v>
+        <v>1.030834332374525</v>
       </c>
       <c r="D21">
-        <v>0.9969666631361305</v>
+        <v>1.032422141401733</v>
       </c>
       <c r="E21">
-        <v>0.9882924778043662</v>
+        <v>1.04397351088994</v>
       </c>
       <c r="F21">
-        <v>0.9873648320819389</v>
+        <v>1.05019911785083</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03515384138883</v>
+        <v>1.030967318340242</v>
       </c>
       <c r="J21">
-        <v>1.002858645441615</v>
+        <v>1.037457539964626</v>
       </c>
       <c r="K21">
-        <v>1.01200573179836</v>
+        <v>1.036015645983636</v>
       </c>
       <c r="L21">
-        <v>1.00349910005509</v>
+        <v>1.047524225344719</v>
       </c>
       <c r="M21">
-        <v>1.002589601734954</v>
+        <v>1.053727201806526</v>
       </c>
       <c r="N21">
-        <v>1.004282819747636</v>
+        <v>1.038930848669419</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9676953420454905</v>
+        <v>1.030034579975509</v>
       </c>
       <c r="D22">
-        <v>0.9939008587350916</v>
+        <v>1.031858121319368</v>
       </c>
       <c r="E22">
-        <v>0.9840453868901472</v>
+        <v>1.043159670307017</v>
       </c>
       <c r="F22">
-        <v>0.9826369252777174</v>
+        <v>1.04928420963385</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034162920158862</v>
+        <v>1.030844266173366</v>
       </c>
       <c r="J22">
-        <v>0.9999219427902218</v>
+        <v>1.03690922373963</v>
       </c>
       <c r="K22">
-        <v>1.009594116881028</v>
+        <v>1.035583318957284</v>
       </c>
       <c r="L22">
-        <v>0.9999396748643029</v>
+        <v>1.046841329243196</v>
       </c>
       <c r="M22">
-        <v>0.9985603777841088</v>
+        <v>1.052942708228262</v>
       </c>
       <c r="N22">
-        <v>1.001341946641634</v>
+        <v>1.03838175377249</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9700684035728953</v>
+        <v>1.030458550040753</v>
       </c>
       <c r="D23">
-        <v>0.9955339947383135</v>
+        <v>1.032157148339073</v>
       </c>
       <c r="E23">
-        <v>0.9863078579679466</v>
+        <v>1.043591066202749</v>
       </c>
       <c r="F23">
-        <v>0.9851555679885609</v>
+        <v>1.049769156983638</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034691984259261</v>
+        <v>1.030909648793713</v>
       </c>
       <c r="J23">
-        <v>1.0014870172527</v>
+        <v>1.037199954032538</v>
       </c>
       <c r="K23">
-        <v>1.010879569965346</v>
+        <v>1.035812599502129</v>
       </c>
       <c r="L23">
-        <v>1.001836298799424</v>
+        <v>1.047203366907995</v>
       </c>
       <c r="M23">
-        <v>1.000707164381941</v>
+        <v>1.053358574913557</v>
       </c>
       <c r="N23">
-        <v>1.002909243689365</v>
+        <v>1.038672896935762</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9791453739755126</v>
+        <v>1.032127551991854</v>
       </c>
       <c r="D24">
-        <v>1.00179341830924</v>
+        <v>1.033333740310282</v>
       </c>
       <c r="E24">
-        <v>0.994978601753693</v>
+        <v>1.045290245345533</v>
       </c>
       <c r="F24">
-        <v>0.9948075381431005</v>
+        <v>1.051679751480769</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036693389737853</v>
+        <v>1.031163720059094</v>
       </c>
       <c r="J24">
-        <v>1.007470532324546</v>
+        <v>1.038343261280619</v>
       </c>
       <c r="K24">
-        <v>1.015789112540977</v>
+        <v>1.036713132538084</v>
       </c>
       <c r="L24">
-        <v>1.009094476366921</v>
+        <v>1.048628203929119</v>
       </c>
       <c r="M24">
-        <v>1.008926456986992</v>
+        <v>1.054995992655665</v>
       </c>
       <c r="N24">
-        <v>1.008901256038931</v>
+        <v>1.039817827811274</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9891801668789979</v>
+        <v>1.034064120921656</v>
       </c>
       <c r="D25">
-        <v>1.008734346751999</v>
+        <v>1.034697764468802</v>
       </c>
       <c r="E25">
-        <v>1.004596320736235</v>
+        <v>1.047263773089387</v>
       </c>
       <c r="F25">
-        <v>1.005514011319733</v>
+        <v>1.053899849542171</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038858160070365</v>
+        <v>1.031451648597406</v>
       </c>
       <c r="J25">
-        <v>1.014077229904021</v>
+        <v>1.039667397270931</v>
       </c>
       <c r="K25">
-        <v>1.021198569638365</v>
+        <v>1.037753761799261</v>
       </c>
       <c r="L25">
-        <v>1.017123701321669</v>
+        <v>1.050280705519919</v>
       </c>
       <c r="M25">
-        <v>1.018027328191133</v>
+        <v>1.056896561876181</v>
       </c>
       <c r="N25">
-        <v>1.015517335886769</v>
+        <v>1.041143844226573</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035608601327538</v>
+        <v>0.9968272380146876</v>
       </c>
       <c r="D2">
-        <v>1.0357846216343</v>
+        <v>1.014036228942595</v>
       </c>
       <c r="E2">
-        <v>1.048839284058674</v>
+        <v>1.011949292790228</v>
       </c>
       <c r="F2">
-        <v>1.05567303597649</v>
+        <v>1.013700931171037</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031675728340551</v>
+        <v>1.040467275145508</v>
       </c>
       <c r="J2">
-        <v>1.040721444858092</v>
+        <v>1.019103261746221</v>
       </c>
       <c r="K2">
-        <v>1.038580233683906</v>
+        <v>1.025303419809558</v>
       </c>
       <c r="L2">
-        <v>1.051598010514081</v>
+        <v>1.023244627733696</v>
       </c>
       <c r="M2">
-        <v>1.05841284808516</v>
+        <v>1.024972633986611</v>
       </c>
       <c r="N2">
-        <v>1.042199388682209</v>
+        <v>1.020550505270676</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036729987729014</v>
+        <v>1.002192711821507</v>
       </c>
       <c r="D3">
-        <v>1.03657314809691</v>
+        <v>1.017761544505167</v>
       </c>
       <c r="E3">
-        <v>1.049984095778473</v>
+        <v>1.017121328739504</v>
       </c>
       <c r="F3">
-        <v>1.05696197263096</v>
+        <v>1.019461037161745</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031835198188935</v>
+        <v>1.041571748152976</v>
       </c>
       <c r="J3">
-        <v>1.041485583483481</v>
+        <v>1.022623779261317</v>
       </c>
       <c r="K3">
-        <v>1.039178282297128</v>
+        <v>1.028172097172688</v>
       </c>
       <c r="L3">
-        <v>1.052554088126173</v>
+        <v>1.027539727421705</v>
       </c>
       <c r="M3">
-        <v>1.059514060685672</v>
+        <v>1.029850821511428</v>
       </c>
       <c r="N3">
-        <v>1.042964612472093</v>
+        <v>1.024076022324455</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037455588647593</v>
+        <v>1.00558392306157</v>
       </c>
       <c r="D4">
-        <v>1.037083086987379</v>
+        <v>1.020117980322868</v>
       </c>
       <c r="E4">
-        <v>1.050725266347014</v>
+        <v>1.020396014141624</v>
       </c>
       <c r="F4">
-        <v>1.057796679758567</v>
+        <v>1.023108915462623</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03193689003659</v>
+        <v>1.042258120792879</v>
       </c>
       <c r="J4">
-        <v>1.041979484220437</v>
+        <v>1.024845862089152</v>
       </c>
       <c r="K4">
-        <v>1.039564315751494</v>
+        <v>1.029979514190032</v>
       </c>
       <c r="L4">
-        <v>1.053172553978173</v>
+        <v>1.030254354943473</v>
       </c>
       <c r="M4">
-        <v>1.060226744445264</v>
+        <v>1.032936212455099</v>
       </c>
       <c r="N4">
-        <v>1.043459214604747</v>
+        <v>1.026301260764782</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037760629617176</v>
+        <v>1.006991106029042</v>
       </c>
       <c r="D5">
-        <v>1.037297395544823</v>
+        <v>1.021096150976116</v>
       </c>
       <c r="E5">
-        <v>1.051036951117942</v>
+        <v>1.021756187988426</v>
       </c>
       <c r="F5">
-        <v>1.058147754246698</v>
+        <v>1.024624328153657</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031979283064401</v>
+        <v>1.042540072508808</v>
       </c>
       <c r="J5">
-        <v>1.042186989259539</v>
+        <v>1.025767145362572</v>
       </c>
       <c r="K5">
-        <v>1.039726378239741</v>
+        <v>1.030728071549134</v>
       </c>
       <c r="L5">
-        <v>1.053432514457256</v>
+        <v>1.031380738461645</v>
       </c>
       <c r="M5">
-        <v>1.060526387596745</v>
+        <v>1.03421698803841</v>
       </c>
       <c r="N5">
-        <v>1.043667014324806</v>
+        <v>1.027223852366123</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037811847269996</v>
+        <v>1.007226317235191</v>
       </c>
       <c r="D6">
-        <v>1.037333374797994</v>
+        <v>1.021259671887991</v>
       </c>
       <c r="E6">
-        <v>1.051089290051361</v>
+        <v>1.021983619655799</v>
       </c>
       <c r="F6">
-        <v>1.058206710823671</v>
+        <v>1.024877731133442</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031986380030167</v>
+        <v>1.042587031331758</v>
       </c>
       <c r="J6">
-        <v>1.042221822607556</v>
+        <v>1.025921091796361</v>
       </c>
       <c r="K6">
-        <v>1.039753575993748</v>
+        <v>1.030853107419722</v>
       </c>
       <c r="L6">
-        <v>1.053476160486935</v>
+        <v>1.03156900989354</v>
       </c>
       <c r="M6">
-        <v>1.060576700836677</v>
+        <v>1.034431098411185</v>
       </c>
       <c r="N6">
-        <v>1.043701897140173</v>
+        <v>1.027378017421506</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037459664625222</v>
+        <v>1.005602797488494</v>
       </c>
       <c r="D7">
-        <v>1.037085950863175</v>
+        <v>1.020131099096399</v>
       </c>
       <c r="E7">
-        <v>1.050729430713476</v>
+        <v>1.020414252771703</v>
       </c>
       <c r="F7">
-        <v>1.05780137018883</v>
+        <v>1.023129234759658</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031937457902041</v>
+        <v>1.042261913952688</v>
       </c>
       <c r="J7">
-        <v>1.041982257426539</v>
+        <v>1.024858222280973</v>
       </c>
       <c r="K7">
-        <v>1.039566482126315</v>
+        <v>1.029989560258004</v>
       </c>
       <c r="L7">
-        <v>1.053176027749326</v>
+        <v>1.03026946327973</v>
       </c>
       <c r="M7">
-        <v>1.060230748169263</v>
+        <v>1.032953389477323</v>
       </c>
       <c r="N7">
-        <v>1.043461991749121</v>
+        <v>1.026313638509493</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035987582001378</v>
+        <v>0.9986577228454128</v>
       </c>
       <c r="D8">
-        <v>1.036051167857035</v>
+        <v>1.015306711896493</v>
       </c>
       <c r="E8">
-        <v>1.049226095967267</v>
+        <v>1.013712558632033</v>
       </c>
       <c r="F8">
-        <v>1.056108498225212</v>
+        <v>1.015664519315502</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031729931564167</v>
+        <v>1.040846504284543</v>
       </c>
       <c r="J8">
-        <v>1.040979802786899</v>
+        <v>1.020304933486657</v>
       </c>
       <c r="K8">
-        <v>1.038782542482955</v>
+        <v>1.02628326021565</v>
       </c>
       <c r="L8">
-        <v>1.051921159110348</v>
+        <v>1.024709933775155</v>
       </c>
       <c r="M8">
-        <v>1.058784982542586</v>
+        <v>1.026636404308588</v>
       </c>
       <c r="N8">
-        <v>1.042458113508909</v>
+        <v>1.02175388352282</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033393454805424</v>
+        <v>0.9857628499940415</v>
       </c>
       <c r="D9">
-        <v>1.03422553234103</v>
+        <v>1.006368376614763</v>
       </c>
       <c r="E9">
-        <v>1.046580066085211</v>
+        <v>1.001317157534082</v>
       </c>
       <c r="F9">
-        <v>1.053130592813287</v>
+        <v>1.001863471220655</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031352792860832</v>
+        <v>1.038127226877514</v>
       </c>
       <c r="J9">
-        <v>1.039209135068871</v>
+        <v>1.01182857372603</v>
       </c>
       <c r="K9">
-        <v>1.037393909546728</v>
+        <v>1.019358969480042</v>
       </c>
       <c r="L9">
-        <v>1.049708512246944</v>
+        <v>1.014388900862204</v>
       </c>
       <c r="M9">
-        <v>1.056238282704161</v>
+        <v>1.014926387082267</v>
       </c>
       <c r="N9">
-        <v>1.040684931239622</v>
+        <v>1.013265486359081</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03166388446113</v>
+        <v>0.9766649531656483</v>
       </c>
       <c r="D10">
-        <v>1.033006961645809</v>
+        <v>1.000081022250425</v>
       </c>
       <c r="E10">
-        <v>1.044818041365609</v>
+        <v>0.9926065127623388</v>
       </c>
       <c r="F10">
-        <v>1.051148715529029</v>
+        <v>0.9921670490251812</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031093674323592</v>
+        <v>1.036150206482471</v>
       </c>
       <c r="J10">
-        <v>1.038025829933611</v>
+        <v>1.005835998760842</v>
       </c>
       <c r="K10">
-        <v>1.036463288188596</v>
+        <v>1.014448813969588</v>
       </c>
       <c r="L10">
-        <v>1.048232427164639</v>
+        <v>1.007110554483808</v>
       </c>
       <c r="M10">
-        <v>1.054541048543372</v>
+        <v>1.006679184832806</v>
       </c>
       <c r="N10">
-        <v>1.039499945675344</v>
+        <v>1.007264401250084</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030914910007909</v>
+        <v>0.9725916961509244</v>
       </c>
       <c r="D11">
-        <v>1.032478957055321</v>
+        <v>0.9972720704773193</v>
       </c>
       <c r="E11">
-        <v>1.044055527021875</v>
+        <v>0.9887155359736934</v>
       </c>
       <c r="F11">
-        <v>1.050291329038869</v>
+        <v>0.9878357708318967</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030979649456186</v>
+        <v>1.035252017009386</v>
       </c>
       <c r="J11">
-        <v>1.03751276077853</v>
+        <v>1.003150879164985</v>
       </c>
       <c r="K11">
-        <v>1.036059162972217</v>
+        <v>1.012245615569013</v>
       </c>
       <c r="L11">
-        <v>1.047593022059845</v>
+        <v>1.003853445249677</v>
       </c>
       <c r="M11">
-        <v>1.053806248437817</v>
+        <v>1.002990791399153</v>
       </c>
       <c r="N11">
-        <v>1.038986147903212</v>
+        <v>1.004575468476414</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030636697252763</v>
+        <v>0.9710572036109265</v>
       </c>
       <c r="D12">
-        <v>1.032282779224189</v>
+        <v>0.9962149049451287</v>
       </c>
       <c r="E12">
-        <v>1.043772362363964</v>
+        <v>0.9872511083877412</v>
       </c>
       <c r="F12">
-        <v>1.049972973102784</v>
+        <v>0.986205594109396</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030937021400315</v>
+        <v>1.034911761193174</v>
       </c>
       <c r="J12">
-        <v>1.037322079687689</v>
+        <v>1.002139072208891</v>
       </c>
       <c r="K12">
-        <v>1.035908878346084</v>
+        <v>1.01141498246395</v>
       </c>
       <c r="L12">
-        <v>1.047355479950667</v>
+        <v>1.00262670189995</v>
       </c>
       <c r="M12">
-        <v>1.053533326777911</v>
+        <v>1.001601932467927</v>
       </c>
       <c r="N12">
-        <v>1.038795196023351</v>
+        <v>1.003562224638386</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030696375321824</v>
+        <v>0.9713873544360668</v>
       </c>
       <c r="D13">
-        <v>1.032324862452439</v>
+        <v>0.9964423084775713</v>
       </c>
       <c r="E13">
-        <v>1.043833099124432</v>
+        <v>0.9875661205053984</v>
       </c>
       <c r="F13">
-        <v>1.050041256325905</v>
+        <v>0.9865562626940729</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030946177668293</v>
+        <v>1.034985052259261</v>
       </c>
       <c r="J13">
-        <v>1.037362986162248</v>
+        <v>1.002356776195767</v>
       </c>
       <c r="K13">
-        <v>1.035941122810242</v>
+        <v>1.011593722921655</v>
       </c>
       <c r="L13">
-        <v>1.047406435300631</v>
+        <v>1.002890625561779</v>
       </c>
       <c r="M13">
-        <v>1.053591868704514</v>
+        <v>1.001900719803072</v>
       </c>
       <c r="N13">
-        <v>1.038836160589796</v>
+        <v>1.003780237789895</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030891913073003</v>
+        <v>0.9724653017346319</v>
       </c>
       <c r="D14">
-        <v>1.032462742024397</v>
+        <v>0.9971849711609836</v>
       </c>
       <c r="E14">
-        <v>1.04403211917997</v>
+        <v>0.9885948840326874</v>
       </c>
       <c r="F14">
-        <v>1.050265011288858</v>
+        <v>0.9877014640324164</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030976131400131</v>
+        <v>1.035224028396151</v>
       </c>
       <c r="J14">
-        <v>1.037497001152881</v>
+        <v>1.003067542630534</v>
       </c>
       <c r="K14">
-        <v>1.036046743959872</v>
+        <v>1.012177209620092</v>
       </c>
       <c r="L14">
-        <v>1.047573387547565</v>
+        <v>1.003752393596953</v>
       </c>
       <c r="M14">
-        <v>1.053783688332759</v>
+        <v>1.002876379254267</v>
       </c>
       <c r="N14">
-        <v>1.038970365897087</v>
+        <v>1.004492013594524</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031012388928415</v>
+        <v>0.9731265671721039</v>
       </c>
       <c r="D15">
-        <v>1.032547687100472</v>
+        <v>0.9976406969000136</v>
       </c>
       <c r="E15">
-        <v>1.04415475086626</v>
+        <v>0.9892261633982085</v>
       </c>
       <c r="F15">
-        <v>1.050402889376505</v>
+        <v>0.9884041871533338</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030994550556785</v>
+        <v>1.035370381774867</v>
       </c>
       <c r="J15">
-        <v>1.037579558362764</v>
+        <v>1.003503529367243</v>
       </c>
       <c r="K15">
-        <v>1.036111797502156</v>
+        <v>1.012535067897272</v>
       </c>
       <c r="L15">
-        <v>1.047676247196004</v>
+        <v>1.004281083794011</v>
       </c>
       <c r="M15">
-        <v>1.053901876795467</v>
+        <v>1.003474982908395</v>
       </c>
       <c r="N15">
-        <v>1.039053040347679</v>
+        <v>1.004928619482408</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031713590063033</v>
+        <v>0.9769323459622606</v>
       </c>
       <c r="D16">
-        <v>1.033041996081579</v>
+        <v>1.000265554057902</v>
       </c>
       <c r="E16">
-        <v>1.044868656403631</v>
+        <v>0.992862129462934</v>
       </c>
       <c r="F16">
-        <v>1.051205633738874</v>
+        <v>0.9924515886277384</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031101203332891</v>
+        <v>1.036208903855943</v>
       </c>
       <c r="J16">
-        <v>1.038059866044833</v>
+        <v>1.006012226524151</v>
       </c>
       <c r="K16">
-        <v>1.036490084186864</v>
+        <v>1.014593351847112</v>
       </c>
       <c r="L16">
-        <v>1.048274857016699</v>
+        <v>1.007324406844535</v>
       </c>
       <c r="M16">
-        <v>1.054589817092101</v>
+        <v>1.006921399763472</v>
       </c>
       <c r="N16">
-        <v>1.039534030121747</v>
+        <v>1.007440879277031</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032153418190639</v>
+        <v>0.979282836580831</v>
       </c>
       <c r="D17">
-        <v>1.033351967875257</v>
+        <v>1.001888357861409</v>
       </c>
       <c r="E17">
-        <v>1.045316591265487</v>
+        <v>0.9951101203962407</v>
       </c>
       <c r="F17">
-        <v>1.05170938167663</v>
+        <v>0.9949539382672495</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031167615254929</v>
+        <v>1.0367234049985</v>
       </c>
       <c r="J17">
-        <v>1.038360965104026</v>
+        <v>1.007561102194432</v>
       </c>
       <c r="K17">
-        <v>1.036727062685105</v>
+        <v>1.015863358138454</v>
       </c>
       <c r="L17">
-        <v>1.048650281403266</v>
+        <v>1.009204433598209</v>
       </c>
       <c r="M17">
-        <v>1.055021373378226</v>
+        <v>1.009051025506039</v>
       </c>
       <c r="N17">
-        <v>1.039835556776141</v>
+        <v>1.008991954528422</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03240995689095</v>
+        <v>0.9806410285363396</v>
       </c>
       <c r="D18">
-        <v>1.033532734884922</v>
+        <v>1.002826624962748</v>
       </c>
       <c r="E18">
-        <v>1.045577907968097</v>
+        <v>0.9964099224718609</v>
       </c>
       <c r="F18">
-        <v>1.052003284633986</v>
+        <v>0.9964008184913896</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03120617613463</v>
+        <v>1.037019461764231</v>
       </c>
       <c r="J18">
-        <v>1.038536524539192</v>
+        <v>1.008455885569902</v>
       </c>
       <c r="K18">
-        <v>1.036865176324623</v>
+        <v>1.016596744904271</v>
       </c>
       <c r="L18">
-        <v>1.048869235987873</v>
+        <v>1.010290914418329</v>
       </c>
       <c r="M18">
-        <v>1.055273103891128</v>
+        <v>1.010281969055902</v>
       </c>
       <c r="N18">
-        <v>1.040011365525843</v>
+        <v>1.009888008598918</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03249742905061</v>
+        <v>0.9811020046816151</v>
       </c>
       <c r="D19">
-        <v>1.03359436594747</v>
+        <v>1.003145167440741</v>
       </c>
       <c r="E19">
-        <v>1.04566701768583</v>
+        <v>0.99685122130521</v>
       </c>
       <c r="F19">
-        <v>1.052103510767152</v>
+        <v>0.9968920544175197</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031219294532911</v>
+        <v>1.037119732361287</v>
       </c>
       <c r="J19">
-        <v>1.038596374501546</v>
+        <v>1.008759541580913</v>
       </c>
       <c r="K19">
-        <v>1.036912250532238</v>
+        <v>1.016845577905648</v>
       </c>
       <c r="L19">
-        <v>1.048943889782467</v>
+        <v>1.010659692431422</v>
       </c>
       <c r="M19">
-        <v>1.055358939399559</v>
+        <v>1.010699818791311</v>
       </c>
       <c r="N19">
-        <v>1.040071300482007</v>
+        <v>1.010192095836295</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032106229384839</v>
+        <v>0.9790319858431641</v>
       </c>
       <c r="D20">
-        <v>1.033318714382442</v>
+        <v>1.001715109102207</v>
       </c>
       <c r="E20">
-        <v>1.045268527563347</v>
+        <v>0.9948701213256822</v>
       </c>
       <c r="F20">
-        <v>1.051655326511628</v>
+        <v>0.9946867830749875</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031160508095869</v>
+        <v>1.036668624165147</v>
       </c>
       <c r="J20">
-        <v>1.038328666912961</v>
+        <v>1.007395823191637</v>
       </c>
       <c r="K20">
-        <v>1.036701648711929</v>
+        <v>1.01572786727746</v>
       </c>
       <c r="L20">
-        <v>1.048610004419856</v>
+        <v>1.009003777239457</v>
       </c>
       <c r="M20">
-        <v>1.054975070340482</v>
+        <v>1.008823706854007</v>
       </c>
       <c r="N20">
-        <v>1.039803212717941</v>
+        <v>1.008826440810485</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030834332374525</v>
+        <v>0.9721484786125482</v>
       </c>
       <c r="D21">
-        <v>1.032422141401733</v>
+        <v>0.996966663136131</v>
       </c>
       <c r="E21">
-        <v>1.04397351088994</v>
+        <v>0.9882924778043672</v>
       </c>
       <c r="F21">
-        <v>1.05019911785083</v>
+        <v>0.9873648320819399</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030967318340242</v>
+        <v>1.035153841388831</v>
       </c>
       <c r="J21">
-        <v>1.037457539964626</v>
+        <v>1.002858645441616</v>
       </c>
       <c r="K21">
-        <v>1.036015645983636</v>
+        <v>1.012005731798361</v>
       </c>
       <c r="L21">
-        <v>1.047524225344719</v>
+        <v>1.003499100055091</v>
       </c>
       <c r="M21">
-        <v>1.053727201806526</v>
+        <v>1.002589601734955</v>
       </c>
       <c r="N21">
-        <v>1.038930848669419</v>
+        <v>1.004282819747637</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030034579975509</v>
+        <v>0.96769534204549</v>
       </c>
       <c r="D22">
-        <v>1.031858121319368</v>
+        <v>0.9939008587350912</v>
       </c>
       <c r="E22">
-        <v>1.043159670307017</v>
+        <v>0.9840453868901466</v>
       </c>
       <c r="F22">
-        <v>1.04928420963385</v>
+        <v>0.9826369252777166</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030844266173366</v>
+        <v>1.034162920158862</v>
       </c>
       <c r="J22">
-        <v>1.03690922373963</v>
+        <v>0.9999219427902213</v>
       </c>
       <c r="K22">
-        <v>1.035583318957284</v>
+        <v>1.009594116881027</v>
       </c>
       <c r="L22">
-        <v>1.046841329243196</v>
+        <v>0.9999396748643024</v>
       </c>
       <c r="M22">
-        <v>1.052942708228262</v>
+        <v>0.998560377784108</v>
       </c>
       <c r="N22">
-        <v>1.03838175377249</v>
+        <v>1.001341946641633</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030458550040753</v>
+        <v>0.9700684035728961</v>
       </c>
       <c r="D23">
-        <v>1.032157148339073</v>
+        <v>0.9955339947383141</v>
       </c>
       <c r="E23">
-        <v>1.043591066202749</v>
+        <v>0.9863078579679477</v>
       </c>
       <c r="F23">
-        <v>1.049769156983638</v>
+        <v>0.9851555679885624</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030909648793713</v>
+        <v>1.034691984259261</v>
       </c>
       <c r="J23">
-        <v>1.037199954032538</v>
+        <v>1.001487017252701</v>
       </c>
       <c r="K23">
-        <v>1.035812599502129</v>
+        <v>1.010879569965347</v>
       </c>
       <c r="L23">
-        <v>1.047203366907995</v>
+        <v>1.001836298799425</v>
       </c>
       <c r="M23">
-        <v>1.053358574913557</v>
+        <v>1.000707164381942</v>
       </c>
       <c r="N23">
-        <v>1.038672896935762</v>
+        <v>1.002909243689366</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032127551991854</v>
+        <v>0.9791453739755125</v>
       </c>
       <c r="D24">
-        <v>1.033333740310282</v>
+        <v>1.00179341830924</v>
       </c>
       <c r="E24">
-        <v>1.045290245345533</v>
+        <v>0.9949786017536927</v>
       </c>
       <c r="F24">
-        <v>1.051679751480769</v>
+        <v>0.9948075381431002</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031163720059094</v>
+        <v>1.036693389737852</v>
       </c>
       <c r="J24">
-        <v>1.038343261280619</v>
+        <v>1.007470532324545</v>
       </c>
       <c r="K24">
-        <v>1.036713132538084</v>
+        <v>1.015789112540977</v>
       </c>
       <c r="L24">
-        <v>1.048628203929119</v>
+        <v>1.009094476366921</v>
       </c>
       <c r="M24">
-        <v>1.054995992655665</v>
+        <v>1.008926456986992</v>
       </c>
       <c r="N24">
-        <v>1.039817827811274</v>
+        <v>1.008901256038931</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034064120921656</v>
+        <v>0.9891801668789983</v>
       </c>
       <c r="D25">
-        <v>1.034697764468802</v>
+        <v>1.008734346751999</v>
       </c>
       <c r="E25">
-        <v>1.047263773089387</v>
+        <v>1.004596320736235</v>
       </c>
       <c r="F25">
-        <v>1.053899849542171</v>
+        <v>1.005514011319733</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031451648597406</v>
+        <v>1.038858160070365</v>
       </c>
       <c r="J25">
-        <v>1.039667397270931</v>
+        <v>1.014077229904022</v>
       </c>
       <c r="K25">
-        <v>1.037753761799261</v>
+        <v>1.021198569638365</v>
       </c>
       <c r="L25">
-        <v>1.050280705519919</v>
+        <v>1.01712370132167</v>
       </c>
       <c r="M25">
-        <v>1.056896561876181</v>
+        <v>1.018027328191134</v>
       </c>
       <c r="N25">
-        <v>1.041143844226573</v>
+        <v>1.01551733588677</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9968272380146876</v>
+        <v>1.006626467953254</v>
       </c>
       <c r="D2">
-        <v>1.014036228942595</v>
+        <v>1.024531799216119</v>
       </c>
       <c r="E2">
-        <v>1.011949292790228</v>
+        <v>1.014757932967797</v>
       </c>
       <c r="F2">
-        <v>1.013700931171037</v>
+        <v>1.027807541304877</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040467275145508</v>
+        <v>1.04509341028094</v>
       </c>
       <c r="J2">
-        <v>1.019103261746221</v>
+        <v>1.028610772914589</v>
       </c>
       <c r="K2">
-        <v>1.025303419809558</v>
+        <v>1.035659627499159</v>
       </c>
       <c r="L2">
-        <v>1.023244627733696</v>
+        <v>1.026015424906253</v>
       </c>
       <c r="M2">
-        <v>1.024972633986611</v>
+        <v>1.038892603350926</v>
       </c>
       <c r="N2">
-        <v>1.020550505270676</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013394179575608</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.039353276287564</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.0362846965058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002192711821507</v>
+        <v>1.009996615069886</v>
       </c>
       <c r="D3">
-        <v>1.017761544505167</v>
+        <v>1.026708195179054</v>
       </c>
       <c r="E3">
-        <v>1.017121328739504</v>
+        <v>1.017636494173576</v>
       </c>
       <c r="F3">
-        <v>1.019461037161745</v>
+        <v>1.030373758613737</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041571748152976</v>
+        <v>1.045836059010474</v>
       </c>
       <c r="J3">
-        <v>1.022623779261317</v>
+        <v>1.030218422922347</v>
       </c>
       <c r="K3">
-        <v>1.028172097172688</v>
+        <v>1.037010374566631</v>
       </c>
       <c r="L3">
-        <v>1.027539727421705</v>
+        <v>1.028048578401402</v>
       </c>
       <c r="M3">
-        <v>1.029850821511428</v>
+        <v>1.040632209681747</v>
       </c>
       <c r="N3">
-        <v>1.024076022324455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013941024911363</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.040730058937912</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.037237123698555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00558392306157</v>
+        <v>1.012141930583673</v>
       </c>
       <c r="D4">
-        <v>1.020117980322868</v>
+        <v>1.028097760785034</v>
       </c>
       <c r="E4">
-        <v>1.020396014141624</v>
+        <v>1.019474233055835</v>
       </c>
       <c r="F4">
-        <v>1.023108915462623</v>
+        <v>1.032013740722655</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042258120792879</v>
+        <v>1.046301603318846</v>
       </c>
       <c r="J4">
-        <v>1.024845862089152</v>
+        <v>1.031240062808028</v>
       </c>
       <c r="K4">
-        <v>1.029979514190032</v>
+        <v>1.037868497225334</v>
       </c>
       <c r="L4">
-        <v>1.030254354943473</v>
+        <v>1.029343168260125</v>
       </c>
       <c r="M4">
-        <v>1.032936212455099</v>
+        <v>1.041740551654341</v>
       </c>
       <c r="N4">
-        <v>1.026301260764782</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014288474606628</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.041607236484466</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.03784479130614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006991106029042</v>
+        <v>1.013038311703152</v>
       </c>
       <c r="D5">
-        <v>1.021096150976116</v>
+        <v>1.028681469655525</v>
       </c>
       <c r="E5">
-        <v>1.021756187988426</v>
+        <v>1.020243738275941</v>
       </c>
       <c r="F5">
-        <v>1.024624328153657</v>
+        <v>1.032699717395844</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042540072508808</v>
+        <v>1.046495740353685</v>
       </c>
       <c r="J5">
-        <v>1.025767145362572</v>
+        <v>1.031667868190049</v>
       </c>
       <c r="K5">
-        <v>1.030728071549134</v>
+        <v>1.038229391643164</v>
       </c>
       <c r="L5">
-        <v>1.031380738461645</v>
+        <v>1.029885194422699</v>
       </c>
       <c r="M5">
-        <v>1.03421698803841</v>
+        <v>1.042203755571246</v>
       </c>
       <c r="N5">
-        <v>1.027223852366123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014434196053581</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041973830672967</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.038107163923179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007226317235191</v>
+        <v>1.013191674714628</v>
       </c>
       <c r="D6">
-        <v>1.021259671887991</v>
+        <v>1.028783988501226</v>
       </c>
       <c r="E6">
-        <v>1.021983619655799</v>
+        <v>1.020375924602338</v>
       </c>
       <c r="F6">
-        <v>1.024877731133442</v>
+        <v>1.032816234322667</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042587031331758</v>
+        <v>1.046530523786514</v>
       </c>
       <c r="J6">
-        <v>1.025921091796361</v>
+        <v>1.031742699889887</v>
       </c>
       <c r="K6">
-        <v>1.030853107419722</v>
+        <v>1.038294484365141</v>
       </c>
       <c r="L6">
-        <v>1.03156900989354</v>
+        <v>1.029979200333227</v>
       </c>
       <c r="M6">
-        <v>1.034431098411185</v>
+        <v>1.042282893262223</v>
       </c>
       <c r="N6">
-        <v>1.027378017421506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014459983939201</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04203646271892</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038161956720904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005602797488494</v>
+        <v>1.012162906889843</v>
       </c>
       <c r="D7">
-        <v>1.020131099096399</v>
+        <v>1.028118358826347</v>
       </c>
       <c r="E7">
-        <v>1.020414252771703</v>
+        <v>1.019493461724886</v>
       </c>
       <c r="F7">
-        <v>1.023129234759658</v>
+        <v>1.032027273322911</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042261913952688</v>
+        <v>1.046310639688971</v>
       </c>
       <c r="J7">
-        <v>1.024858222280973</v>
+        <v>1.031254540944887</v>
       </c>
       <c r="K7">
-        <v>1.029989560258004</v>
+        <v>1.037885971494957</v>
       </c>
       <c r="L7">
-        <v>1.03026946327973</v>
+        <v>1.02935925123829</v>
       </c>
       <c r="M7">
-        <v>1.032953389477323</v>
+        <v>1.041751056144546</v>
       </c>
       <c r="N7">
-        <v>1.026313638509493</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014294221454566</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.041615550071365</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037877310314677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9986577228454128</v>
+        <v>1.007784100292338</v>
       </c>
       <c r="D8">
-        <v>1.015306711896493</v>
+        <v>1.025287077273722</v>
       </c>
       <c r="E8">
-        <v>1.013712558632033</v>
+        <v>1.01574713960642</v>
       </c>
       <c r="F8">
-        <v>1.015664519315502</v>
+        <v>1.028684563167083</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040846504284543</v>
+        <v>1.045355521859679</v>
       </c>
       <c r="J8">
-        <v>1.020304933486657</v>
+        <v>1.029168886979166</v>
       </c>
       <c r="K8">
-        <v>1.02628326021565</v>
+        <v>1.036135075915043</v>
       </c>
       <c r="L8">
-        <v>1.024709933775155</v>
+        <v>1.026717948388873</v>
       </c>
       <c r="M8">
-        <v>1.026636404308588</v>
+        <v>1.039489511561337</v>
       </c>
       <c r="N8">
-        <v>1.02175388352282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013585103770029</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.03982568971233</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.036643851934619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9857628499940415</v>
+        <v>0.9997720344715968</v>
       </c>
       <c r="D9">
-        <v>1.006368376614763</v>
+        <v>1.020129811292851</v>
       </c>
       <c r="E9">
-        <v>1.001317157534082</v>
+        <v>1.008933744227786</v>
       </c>
       <c r="F9">
-        <v>1.001863471220655</v>
+        <v>1.0226246657616</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038127226877514</v>
+        <v>1.043545136189817</v>
       </c>
       <c r="J9">
-        <v>1.01182857372603</v>
+        <v>1.025332845358234</v>
       </c>
       <c r="K9">
-        <v>1.019358969480042</v>
+        <v>1.03290452562379</v>
       </c>
       <c r="L9">
-        <v>1.014388900862204</v>
+        <v>1.021883521654289</v>
       </c>
       <c r="M9">
-        <v>1.014926387082267</v>
+        <v>1.035361036592462</v>
       </c>
       <c r="N9">
-        <v>1.013265486359081</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012279056883033</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.036558268066731</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034356443664429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9766649531656483</v>
+        <v>0.9942831290148466</v>
       </c>
       <c r="D10">
-        <v>1.000081022250425</v>
+        <v>1.016632696850261</v>
       </c>
       <c r="E10">
-        <v>0.9926065127623388</v>
+        <v>1.004305052195557</v>
       </c>
       <c r="F10">
-        <v>0.9921670490251812</v>
+        <v>1.018683710758596</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036150206482471</v>
+        <v>1.042296427718718</v>
       </c>
       <c r="J10">
-        <v>1.005835998760842</v>
+        <v>1.022725417260749</v>
       </c>
       <c r="K10">
-        <v>1.014448813969588</v>
+        <v>1.030707999187991</v>
       </c>
       <c r="L10">
-        <v>1.007110554483808</v>
+        <v>1.018597010216311</v>
       </c>
       <c r="M10">
-        <v>1.006679184832806</v>
+        <v>1.032723624811587</v>
       </c>
       <c r="N10">
-        <v>1.007264401250084</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011395308169453</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.034522605377517</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032820222615476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9725916961509244</v>
+        <v>0.9922965050245175</v>
       </c>
       <c r="D11">
-        <v>0.9972720704773193</v>
+        <v>1.015449696558129</v>
       </c>
       <c r="E11">
-        <v>0.9887155359736934</v>
+        <v>1.002701435478913</v>
       </c>
       <c r="F11">
-        <v>0.9878357708318967</v>
+        <v>1.018638332659479</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035252017009386</v>
+        <v>1.042044885339124</v>
       </c>
       <c r="J11">
-        <v>1.003150879164985</v>
+        <v>1.02199330747635</v>
       </c>
       <c r="K11">
-        <v>1.012245615569013</v>
+        <v>1.030086019456418</v>
       </c>
       <c r="L11">
-        <v>1.003853445249677</v>
+        <v>1.017572585870059</v>
       </c>
       <c r="M11">
-        <v>1.002990791399153</v>
+        <v>1.033217113789426</v>
       </c>
       <c r="N11">
-        <v>1.004575468476414</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.01118141831503</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035350935534154</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.03241341164775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9710572036109265</v>
+        <v>0.9916947260854079</v>
       </c>
       <c r="D12">
-        <v>0.9962149049451287</v>
+        <v>1.015117067546372</v>
       </c>
       <c r="E12">
-        <v>0.9872511083877412</v>
+        <v>1.002242421100773</v>
       </c>
       <c r="F12">
-        <v>0.986205594109396</v>
+        <v>1.019193582025725</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034911761193174</v>
+        <v>1.042048779845376</v>
       </c>
       <c r="J12">
-        <v>1.002139072208891</v>
+        <v>1.021854787155778</v>
       </c>
       <c r="K12">
-        <v>1.01141498246395</v>
+        <v>1.029960268202648</v>
       </c>
       <c r="L12">
-        <v>1.00262670189995</v>
+        <v>1.017326785592881</v>
       </c>
       <c r="M12">
-        <v>1.001601932467927</v>
+        <v>1.033962075586212</v>
       </c>
       <c r="N12">
-        <v>1.003562224638386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011161962712475</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.036267433381631</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.032324500871053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9713873544360668</v>
+        <v>0.9921282761092405</v>
       </c>
       <c r="D13">
-        <v>0.9964423084775713</v>
+        <v>1.015429926208654</v>
       </c>
       <c r="E13">
-        <v>0.9875661205053984</v>
+        <v>1.002641550008443</v>
       </c>
       <c r="F13">
-        <v>0.9865562626940729</v>
+        <v>1.020272795560395</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034985052259261</v>
+        <v>1.042260887430312</v>
       </c>
       <c r="J13">
-        <v>1.002356776195767</v>
+        <v>1.022175703658535</v>
       </c>
       <c r="K13">
-        <v>1.011593722921655</v>
+        <v>1.030224303481293</v>
       </c>
       <c r="L13">
-        <v>1.002890625561779</v>
+        <v>1.01767445201049</v>
       </c>
       <c r="M13">
-        <v>1.001900719803072</v>
+        <v>1.034978875291056</v>
       </c>
       <c r="N13">
-        <v>1.003780237789895</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.01129597009972</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.037348593281214</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.03250868244098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9724653017346319</v>
+        <v>0.9928984527137406</v>
       </c>
       <c r="D14">
-        <v>0.9971849711609836</v>
+        <v>1.015940694195727</v>
       </c>
       <c r="E14">
-        <v>0.9885948840326874</v>
+        <v>1.003307373384171</v>
       </c>
       <c r="F14">
-        <v>0.9877014640324164</v>
+        <v>1.021253170467679</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035224028396151</v>
+        <v>1.042501506033901</v>
       </c>
       <c r="J14">
-        <v>1.003067542630534</v>
+        <v>1.022605758974624</v>
       </c>
       <c r="K14">
-        <v>1.012177209620092</v>
+        <v>1.030584709178967</v>
       </c>
       <c r="L14">
-        <v>1.003752393596953</v>
+        <v>1.018184073232293</v>
       </c>
       <c r="M14">
-        <v>1.002876379254267</v>
+        <v>1.035801571190071</v>
       </c>
       <c r="N14">
-        <v>1.004492013594524</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011458507844361</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038172473689803</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032764932114911</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9731265671721039</v>
+        <v>0.9933182058852967</v>
       </c>
       <c r="D15">
-        <v>0.9976406969000136</v>
+        <v>1.016213482426637</v>
       </c>
       <c r="E15">
-        <v>0.9892261633982085</v>
+        <v>1.00366382638558</v>
       </c>
       <c r="F15">
-        <v>0.9884041871533338</v>
+        <v>1.021638305263786</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035370381774867</v>
+        <v>1.042611788783826</v>
       </c>
       <c r="J15">
-        <v>1.003503529367243</v>
+        <v>1.022818832472289</v>
       </c>
       <c r="K15">
-        <v>1.012535067897272</v>
+        <v>1.030765712985904</v>
       </c>
       <c r="L15">
-        <v>1.004281083794011</v>
+        <v>1.018445432111823</v>
       </c>
       <c r="M15">
-        <v>1.003474982908395</v>
+        <v>1.036093647408678</v>
       </c>
       <c r="N15">
-        <v>1.004928619482408</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011534594840901</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.038440907509079</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.032898799119298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9769323459622606</v>
+        <v>0.9955500537334643</v>
       </c>
       <c r="D16">
-        <v>1.000265554057902</v>
+        <v>1.017628224131615</v>
       </c>
       <c r="E16">
-        <v>0.992862129462934</v>
+        <v>1.005534491663191</v>
       </c>
       <c r="F16">
-        <v>0.9924515886277384</v>
+        <v>1.023145411910058</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036208903855943</v>
+        <v>1.043110670040949</v>
       </c>
       <c r="J16">
-        <v>1.006012226524151</v>
+        <v>1.023863990300795</v>
       </c>
       <c r="K16">
-        <v>1.014593351847112</v>
+        <v>1.031650561381001</v>
       </c>
       <c r="L16">
-        <v>1.007324406844535</v>
+        <v>1.019768146768207</v>
       </c>
       <c r="M16">
-        <v>1.006921399763472</v>
+        <v>1.037073487479758</v>
       </c>
       <c r="N16">
-        <v>1.007440879277031</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01188425840703</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.03917660974923</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.033527600951794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.979282836580831</v>
+        <v>0.9968641405049795</v>
       </c>
       <c r="D17">
-        <v>1.001888357861409</v>
+        <v>1.018450949264315</v>
       </c>
       <c r="E17">
-        <v>0.9951101203962407</v>
+        <v>1.006627013328097</v>
       </c>
       <c r="F17">
-        <v>0.9949539382672495</v>
+        <v>1.02378654589949</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0367234049985</v>
+        <v>1.043367500289647</v>
       </c>
       <c r="J17">
-        <v>1.007561102194432</v>
+        <v>1.024443360831361</v>
       </c>
       <c r="K17">
-        <v>1.015863358138454</v>
+        <v>1.032143019999831</v>
       </c>
       <c r="L17">
-        <v>1.009204433598209</v>
+        <v>1.020519836231973</v>
       </c>
       <c r="M17">
-        <v>1.009051025506039</v>
+        <v>1.037389980247962</v>
       </c>
       <c r="N17">
-        <v>1.008991954528422</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012068202034627</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.039297571388063</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.033878387135302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9806410285363396</v>
+        <v>0.9974924054149861</v>
       </c>
       <c r="D18">
-        <v>1.002826624962748</v>
+        <v>1.018818042953862</v>
       </c>
       <c r="E18">
-        <v>0.9964099224718609</v>
+        <v>1.007128843195688</v>
       </c>
       <c r="F18">
-        <v>0.9964008184913896</v>
+        <v>1.023633173870027</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037019461764231</v>
+        <v>1.043421366757224</v>
       </c>
       <c r="J18">
-        <v>1.008455885569902</v>
+        <v>1.024650482527195</v>
       </c>
       <c r="K18">
-        <v>1.016596744904271</v>
+        <v>1.03231967024436</v>
       </c>
       <c r="L18">
-        <v>1.010290914418329</v>
+        <v>1.020825647733819</v>
       </c>
       <c r="M18">
-        <v>1.010281969055902</v>
+        <v>1.037056066980049</v>
       </c>
       <c r="N18">
-        <v>1.009888008598918</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012117011421112</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.038795512257493</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.033991612233022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9811020046816151</v>
+        <v>0.9974948967381171</v>
       </c>
       <c r="D19">
-        <v>1.003145167440741</v>
+        <v>1.018777417229337</v>
       </c>
       <c r="E19">
-        <v>0.99685122130521</v>
+        <v>1.007090546185175</v>
       </c>
       <c r="F19">
-        <v>0.9968920544175197</v>
+        <v>1.022708275105543</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037119732361287</v>
+        <v>1.0432907626659</v>
       </c>
       <c r="J19">
-        <v>1.008759541580913</v>
+        <v>1.024517696195635</v>
       </c>
       <c r="K19">
-        <v>1.016845577905648</v>
+        <v>1.032216863888146</v>
       </c>
       <c r="L19">
-        <v>1.010659692431422</v>
+        <v>1.020724106878799</v>
       </c>
       <c r="M19">
-        <v>1.010699818791311</v>
+        <v>1.036083712158409</v>
       </c>
       <c r="N19">
-        <v>1.010192095836295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012045893437715</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.037700375530726</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.033925339582317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9790319858431641</v>
+        <v>0.9957281265365896</v>
       </c>
       <c r="D20">
-        <v>1.001715109102207</v>
+        <v>1.017568949157477</v>
       </c>
       <c r="E20">
-        <v>0.9948701213256822</v>
+        <v>1.00552498665605</v>
       </c>
       <c r="F20">
-        <v>0.9946867830749875</v>
+        <v>1.01972108335431</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036668624165147</v>
+        <v>1.042639848869757</v>
       </c>
       <c r="J20">
-        <v>1.007395823191637</v>
+        <v>1.023424720771632</v>
       </c>
       <c r="K20">
-        <v>1.01572786727746</v>
+        <v>1.03130974787731</v>
       </c>
       <c r="L20">
-        <v>1.009003777239457</v>
+        <v>1.019471376590834</v>
       </c>
       <c r="M20">
-        <v>1.008823706854007</v>
+        <v>1.033425804086257</v>
       </c>
       <c r="N20">
-        <v>1.008826440810485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011634942873886</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.035067709275655</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033287901516177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9721484786125482</v>
+        <v>0.9915278737544084</v>
       </c>
       <c r="D21">
-        <v>0.996966663136131</v>
+        <v>1.014884374891363</v>
       </c>
       <c r="E21">
-        <v>0.9882924778043672</v>
+        <v>1.001981189273198</v>
       </c>
       <c r="F21">
-        <v>0.9873648320819399</v>
+        <v>1.016450518923882</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035153841388831</v>
+        <v>1.041630112937914</v>
       </c>
       <c r="J21">
-        <v>1.002858645441616</v>
+        <v>1.021384131916485</v>
       </c>
       <c r="K21">
-        <v>1.012005731798361</v>
+        <v>1.029589140559686</v>
       </c>
       <c r="L21">
-        <v>1.003499100055091</v>
+        <v>1.016925124377632</v>
       </c>
       <c r="M21">
-        <v>1.002589601734955</v>
+        <v>1.031126792608619</v>
       </c>
       <c r="N21">
-        <v>1.004282819747637</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010936877129673</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.033207121457494</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.032074594952831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.96769534204549</v>
+        <v>0.9888569075610917</v>
       </c>
       <c r="D22">
-        <v>0.9939008587350912</v>
+        <v>1.013180928335531</v>
       </c>
       <c r="E22">
-        <v>0.9840453868901466</v>
+        <v>0.9997373242284766</v>
       </c>
       <c r="F22">
-        <v>0.9826369252777166</v>
+        <v>1.014469118200537</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034162920158862</v>
+        <v>1.040989504733598</v>
       </c>
       <c r="J22">
-        <v>0.9999219427902213</v>
+        <v>1.020094094777606</v>
       </c>
       <c r="K22">
-        <v>1.009594116881027</v>
+        <v>1.028495714003572</v>
       </c>
       <c r="L22">
-        <v>0.9999396748643024</v>
+        <v>1.015313986573784</v>
       </c>
       <c r="M22">
-        <v>0.998560377784108</v>
+        <v>1.029759287102022</v>
       </c>
       <c r="N22">
-        <v>1.001341946641633</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.01049643505997</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.032124820604289</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031287932022227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9700684035728961</v>
+        <v>0.9902690523916324</v>
       </c>
       <c r="D23">
-        <v>0.9955339947383141</v>
+        <v>1.014074869696298</v>
       </c>
       <c r="E23">
-        <v>0.9863078579679477</v>
+        <v>1.000921742170706</v>
       </c>
       <c r="F23">
-        <v>0.9851555679885624</v>
+        <v>1.01551801952213</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034691984259261</v>
+        <v>1.041324965256144</v>
       </c>
       <c r="J23">
-        <v>1.001487017252701</v>
+        <v>1.02077223473039</v>
       </c>
       <c r="K23">
-        <v>1.010879569965347</v>
+        <v>1.029066086802465</v>
       </c>
       <c r="L23">
-        <v>1.001836298799425</v>
+        <v>1.016162572569697</v>
       </c>
       <c r="M23">
-        <v>1.000707164381942</v>
+        <v>1.030482362727468</v>
       </c>
       <c r="N23">
-        <v>1.002909243689366</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010727061088129</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.03269709299917</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.031681541840373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9791453739755125</v>
+        <v>0.995741125814447</v>
       </c>
       <c r="D24">
-        <v>1.00179341830924</v>
+        <v>1.017560630042417</v>
       </c>
       <c r="E24">
-        <v>0.9949786017536927</v>
+        <v>1.005527808820022</v>
       </c>
       <c r="F24">
-        <v>0.9948075381431002</v>
+        <v>1.01959716934205</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036693389737852</v>
+        <v>1.042616655882389</v>
       </c>
       <c r="J24">
-        <v>1.007470532324545</v>
+        <v>1.023404109018557</v>
       </c>
       <c r="K24">
-        <v>1.015789112540977</v>
+        <v>1.031286223139685</v>
       </c>
       <c r="L24">
-        <v>1.009094476366921</v>
+        <v>1.019458540407219</v>
       </c>
       <c r="M24">
-        <v>1.008926456986992</v>
+        <v>1.033288660346686</v>
       </c>
       <c r="N24">
-        <v>1.008901256038931</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011623583973686</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.034918110285971</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033243767864805</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9891801668789983</v>
+        <v>1.001892630646865</v>
       </c>
       <c r="D25">
-        <v>1.008734346751999</v>
+        <v>1.021501294526676</v>
       </c>
       <c r="E25">
-        <v>1.004596320736235</v>
+        <v>1.010733855924521</v>
       </c>
       <c r="F25">
-        <v>1.005514011319733</v>
+        <v>1.024218315054222</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038858160070365</v>
+        <v>1.044037536976302</v>
       </c>
       <c r="J25">
-        <v>1.014077229904022</v>
+        <v>1.026356467668402</v>
       </c>
       <c r="K25">
-        <v>1.021198569638365</v>
+        <v>1.033774754080651</v>
       </c>
       <c r="L25">
-        <v>1.01712370132167</v>
+        <v>1.023167796833987</v>
       </c>
       <c r="M25">
-        <v>1.018027328191134</v>
+        <v>1.036451955796288</v>
       </c>
       <c r="N25">
-        <v>1.01551733588677</v>
+        <v>1.012629034707984</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.037421661704138</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035000427571149</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006626467953254</v>
+        <v>1.006485318619221</v>
       </c>
       <c r="D2">
-        <v>1.024531799216119</v>
+        <v>1.023989386543493</v>
       </c>
       <c r="E2">
-        <v>1.014757932967797</v>
+        <v>1.014617707749316</v>
       </c>
       <c r="F2">
-        <v>1.027807541304877</v>
+        <v>1.027721938451358</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04509341028094</v>
+        <v>1.044900125665629</v>
       </c>
       <c r="J2">
-        <v>1.028610772914589</v>
+        <v>1.028473770194488</v>
       </c>
       <c r="K2">
-        <v>1.035659627499159</v>
+        <v>1.035124329353265</v>
       </c>
       <c r="L2">
-        <v>1.026015424906253</v>
+        <v>1.025877082807193</v>
       </c>
       <c r="M2">
-        <v>1.038892603350926</v>
+        <v>1.038808113736169</v>
       </c>
       <c r="N2">
-        <v>1.013394179575608</v>
+        <v>1.014716294597536</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.039353276287564</v>
+        <v>1.039286408312632</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.0362846965058</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035914992925479</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021415865979827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009996615069886</v>
+        <v>1.009744338537609</v>
       </c>
       <c r="D3">
-        <v>1.026708195179054</v>
+        <v>1.026017187960809</v>
       </c>
       <c r="E3">
-        <v>1.017636494173576</v>
+        <v>1.017385593260858</v>
       </c>
       <c r="F3">
-        <v>1.030373758613737</v>
+        <v>1.030235617095919</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045836059010474</v>
+        <v>1.04557009454301</v>
       </c>
       <c r="J3">
-        <v>1.030218422922347</v>
+        <v>1.029972842434236</v>
       </c>
       <c r="K3">
-        <v>1.037010374566631</v>
+        <v>1.036327654140506</v>
       </c>
       <c r="L3">
-        <v>1.028048578401402</v>
+        <v>1.027800751822605</v>
       </c>
       <c r="M3">
-        <v>1.040632209681747</v>
+        <v>1.040495709129451</v>
       </c>
       <c r="N3">
-        <v>1.013941024911363</v>
+        <v>1.015121217749391</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.040730058937912</v>
+        <v>1.040622027929242</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037237123698555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036762903599965</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021640579327435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012141930583673</v>
+        <v>1.011819631320897</v>
       </c>
       <c r="D4">
-        <v>1.028097760785034</v>
+        <v>1.027312597339204</v>
       </c>
       <c r="E4">
-        <v>1.019474233055835</v>
+        <v>1.019153475008992</v>
       </c>
       <c r="F4">
-        <v>1.032013740722655</v>
+        <v>1.031842501408782</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046301603318846</v>
+        <v>1.045989575287887</v>
       </c>
       <c r="J4">
-        <v>1.031240062808028</v>
+        <v>1.030925747131106</v>
       </c>
       <c r="K4">
-        <v>1.037868497225334</v>
+        <v>1.037092190608374</v>
       </c>
       <c r="L4">
-        <v>1.029343168260125</v>
+        <v>1.029026102365634</v>
       </c>
       <c r="M4">
-        <v>1.041740551654341</v>
+        <v>1.041571224550495</v>
       </c>
       <c r="N4">
-        <v>1.014288474606628</v>
+        <v>1.015378609191264</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.041607236484466</v>
+        <v>1.041473225627858</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03784479130614</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037304479989302</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021781032915586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013038311703152</v>
+        <v>1.012686906757443</v>
       </c>
       <c r="D5">
-        <v>1.028681469655525</v>
+        <v>1.027857099934433</v>
       </c>
       <c r="E5">
-        <v>1.020243738275941</v>
+        <v>1.019893917610311</v>
       </c>
       <c r="F5">
-        <v>1.032699717395844</v>
+        <v>1.032514724342666</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046495740353685</v>
+        <v>1.046164515357948</v>
       </c>
       <c r="J5">
-        <v>1.031667868190049</v>
+        <v>1.031324911111997</v>
       </c>
       <c r="K5">
-        <v>1.038229391643164</v>
+        <v>1.037414077079528</v>
       </c>
       <c r="L5">
-        <v>1.029885194422699</v>
+        <v>1.029539292729469</v>
       </c>
       <c r="M5">
-        <v>1.042203755571246</v>
+        <v>1.042020773647508</v>
       </c>
       <c r="N5">
-        <v>1.014434196053581</v>
+        <v>1.015486619968611</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041973830672967</v>
+        <v>1.041829013029756</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038107163923179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.03753998160527</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021840066590445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013191674714628</v>
+        <v>1.012835284211556</v>
       </c>
       <c r="D6">
-        <v>1.028783988501226</v>
+        <v>1.027952957421998</v>
       </c>
       <c r="E6">
-        <v>1.020375924602338</v>
+        <v>1.020021124637536</v>
       </c>
       <c r="F6">
-        <v>1.032816234322667</v>
+        <v>1.032628887495526</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046530523786514</v>
+        <v>1.046196019495635</v>
       </c>
       <c r="J6">
-        <v>1.031742699889887</v>
+        <v>1.031394833624417</v>
       </c>
       <c r="K6">
-        <v>1.038294484365141</v>
+        <v>1.037472540396984</v>
       </c>
       <c r="L6">
-        <v>1.029979200333227</v>
+        <v>1.029628356837575</v>
       </c>
       <c r="M6">
-        <v>1.042282893262223</v>
+        <v>1.042097573891727</v>
       </c>
       <c r="N6">
-        <v>1.014459983939201</v>
+        <v>1.015505775522605</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04203646271892</v>
+        <v>1.041889795159398</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038161956720904</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037590955488679</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021851318835835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012162906889843</v>
+        <v>1.011846755334753</v>
       </c>
       <c r="D7">
-        <v>1.028118358826347</v>
+        <v>1.027337314776189</v>
       </c>
       <c r="E7">
-        <v>1.019493461724886</v>
+        <v>1.019178820725911</v>
       </c>
       <c r="F7">
-        <v>1.032027273322911</v>
+        <v>1.031858805196676</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046310639688971</v>
+        <v>1.046001466888971</v>
       </c>
       <c r="J7">
-        <v>1.031254540944887</v>
+        <v>1.030946217333715</v>
       </c>
       <c r="K7">
-        <v>1.037885971494957</v>
+        <v>1.03711373438797</v>
       </c>
       <c r="L7">
-        <v>1.02935925123829</v>
+        <v>1.029048230573511</v>
       </c>
       <c r="M7">
-        <v>1.041751056144546</v>
+        <v>1.041584468588931</v>
       </c>
       <c r="N7">
-        <v>1.014294221454566</v>
+        <v>1.015410604341863</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.041615550071365</v>
+        <v>1.04148370738209</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037877310314677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037341874889298</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021787085319184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007784100292338</v>
+        <v>1.007625719418754</v>
       </c>
       <c r="D8">
-        <v>1.025287077273722</v>
+        <v>1.024708875289914</v>
       </c>
       <c r="E8">
-        <v>1.01574713960642</v>
+        <v>1.015589735741857</v>
       </c>
       <c r="F8">
-        <v>1.028684563167083</v>
+        <v>1.028590422868687</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045355521859679</v>
+        <v>1.045147420441678</v>
       </c>
       <c r="J8">
-        <v>1.029168886979166</v>
+        <v>1.02901500482974</v>
       </c>
       <c r="K8">
-        <v>1.036135075915043</v>
+        <v>1.035564235954449</v>
       </c>
       <c r="L8">
-        <v>1.026717948388873</v>
+        <v>1.026562595053695</v>
       </c>
       <c r="M8">
-        <v>1.039489511561337</v>
+        <v>1.039396559353658</v>
       </c>
       <c r="N8">
-        <v>1.013585103770029</v>
+        <v>1.014941814717014</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.03982568971233</v>
+        <v>1.039752124199549</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.036643851934619</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036251283649495</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021502128480729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9997720344715968</v>
+        <v>0.9998855414322168</v>
       </c>
       <c r="D9">
-        <v>1.020129811292851</v>
+        <v>1.019909735102586</v>
       </c>
       <c r="E9">
-        <v>1.008933744227786</v>
+        <v>1.009046238706926</v>
       </c>
       <c r="F9">
-        <v>1.0226246657616</v>
+        <v>1.022659102142007</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043545136189817</v>
+        <v>1.043512603257899</v>
       </c>
       <c r="J9">
-        <v>1.025332845358234</v>
+        <v>1.025442342173994</v>
       </c>
       <c r="K9">
-        <v>1.03290452562379</v>
+        <v>1.032687843287129</v>
       </c>
       <c r="L9">
-        <v>1.021883521654289</v>
+        <v>1.021994232410708</v>
       </c>
       <c r="M9">
-        <v>1.035361036592462</v>
+        <v>1.035394945388988</v>
       </c>
       <c r="N9">
-        <v>1.012279056883033</v>
+        <v>1.013985577367225</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.036558268066731</v>
+        <v>1.036585104752974</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034356443664429</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034214009409821</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020950611681695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9942831290148466</v>
+        <v>0.9946162483764499</v>
       </c>
       <c r="D10">
-        <v>1.016632696850261</v>
+        <v>1.016680672243447</v>
       </c>
       <c r="E10">
-        <v>1.004305052195557</v>
+        <v>1.004634515634847</v>
       </c>
       <c r="F10">
-        <v>1.018683710758596</v>
+        <v>1.018821513576647</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042296427718718</v>
+        <v>1.042398921165418</v>
       </c>
       <c r="J10">
-        <v>1.022725417260749</v>
+        <v>1.023045109815761</v>
       </c>
       <c r="K10">
-        <v>1.030707999187991</v>
+        <v>1.030755144701812</v>
       </c>
       <c r="L10">
-        <v>1.018597010216311</v>
+        <v>1.018920593628305</v>
       </c>
       <c r="M10">
-        <v>1.032723624811587</v>
+        <v>1.032859056577914</v>
       </c>
       <c r="N10">
-        <v>1.011395308169453</v>
+        <v>1.013457611835769</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.034522605377517</v>
+        <v>1.034629784684935</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032820222615476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032866009724366</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020575364828774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9922965050245175</v>
+        <v>0.9927424897967946</v>
       </c>
       <c r="D11">
-        <v>1.015449696558129</v>
+        <v>1.015612630004196</v>
       </c>
       <c r="E11">
-        <v>1.002701435478913</v>
+        <v>1.003142113290459</v>
       </c>
       <c r="F11">
-        <v>1.018638332659479</v>
+        <v>1.018827795560986</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042044885339124</v>
+        <v>1.042208833767641</v>
       </c>
       <c r="J11">
-        <v>1.02199330747635</v>
+        <v>1.022420337770315</v>
       </c>
       <c r="K11">
-        <v>1.030086019456418</v>
+        <v>1.030246001231528</v>
       </c>
       <c r="L11">
-        <v>1.017572585870059</v>
+        <v>1.018005016233324</v>
       </c>
       <c r="M11">
-        <v>1.033217113789426</v>
+        <v>1.033403172394251</v>
       </c>
       <c r="N11">
-        <v>1.01118141831503</v>
+        <v>1.013542494025008</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035350935534154</v>
+        <v>1.03549810569209</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03241341164775</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032542191877851</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020512087609809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9916947260854079</v>
+        <v>0.9921749054162183</v>
       </c>
       <c r="D12">
-        <v>1.015117067546372</v>
+        <v>1.015312040409109</v>
       </c>
       <c r="E12">
-        <v>1.002242421100773</v>
+        <v>1.00271672122312</v>
       </c>
       <c r="F12">
-        <v>1.019193582025725</v>
+        <v>1.019398089633055</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042048779845376</v>
+        <v>1.042229480168892</v>
       </c>
       <c r="J12">
-        <v>1.021854787155778</v>
+        <v>1.022314169528897</v>
       </c>
       <c r="K12">
-        <v>1.029960268202648</v>
+        <v>1.030151650150939</v>
       </c>
       <c r="L12">
-        <v>1.017326785592881</v>
+        <v>1.017792057571874</v>
       </c>
       <c r="M12">
-        <v>1.033962075586212</v>
+        <v>1.03416285582609</v>
       </c>
       <c r="N12">
-        <v>1.011161962712475</v>
+        <v>1.013635058533589</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036267433381631</v>
+        <v>1.036426194137133</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032324500871053</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032475483609381</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020518182950447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9921282761092405</v>
+        <v>0.9925740795728881</v>
       </c>
       <c r="D13">
-        <v>1.015429926208654</v>
+        <v>1.015587755184226</v>
       </c>
       <c r="E13">
-        <v>1.002641550008443</v>
+        <v>1.003081935075744</v>
       </c>
       <c r="F13">
-        <v>1.020272795560395</v>
+        <v>1.020460716395525</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042260887430312</v>
+        <v>1.042420317160206</v>
       </c>
       <c r="J13">
-        <v>1.022175703658535</v>
+        <v>1.022602292828933</v>
       </c>
       <c r="K13">
-        <v>1.030224303481293</v>
+        <v>1.030379237553315</v>
       </c>
       <c r="L13">
-        <v>1.01767445201049</v>
+        <v>1.018106490973154</v>
       </c>
       <c r="M13">
-        <v>1.034978875291056</v>
+        <v>1.035163391829942</v>
       </c>
       <c r="N13">
-        <v>1.01129597009972</v>
+        <v>1.01370769982385</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037348593281214</v>
+        <v>1.037494457250484</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03250868244098</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03263364949674</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020581918706448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9928984527137406</v>
+        <v>0.9932898710371018</v>
       </c>
       <c r="D14">
-        <v>1.015940694195727</v>
+        <v>1.016041936432184</v>
       </c>
       <c r="E14">
-        <v>1.003307373384171</v>
+        <v>1.003694135600093</v>
       </c>
       <c r="F14">
-        <v>1.021253170467679</v>
+        <v>1.021415628816109</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042501506033901</v>
+        <v>1.042629384542446</v>
       </c>
       <c r="J14">
-        <v>1.022605758974624</v>
+        <v>1.02298054555147</v>
       </c>
       <c r="K14">
-        <v>1.030584709178967</v>
+        <v>1.030684117096751</v>
       </c>
       <c r="L14">
-        <v>1.018184073232293</v>
+        <v>1.018563598469683</v>
       </c>
       <c r="M14">
-        <v>1.035801571190071</v>
+        <v>1.03596112595503</v>
       </c>
       <c r="N14">
-        <v>1.011458507844361</v>
+        <v>1.01375017990314</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038172473689803</v>
+        <v>1.038298587838524</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032764932114911</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032850774001564</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020652692363203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9933182058852967</v>
+        <v>0.9936818612548245</v>
       </c>
       <c r="D15">
-        <v>1.016213482426637</v>
+        <v>1.016286006981172</v>
       </c>
       <c r="E15">
-        <v>1.00366382638558</v>
+        <v>1.004023212442453</v>
       </c>
       <c r="F15">
-        <v>1.021638305263786</v>
+        <v>1.021787900351908</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042611788783826</v>
+        <v>1.04272391882183</v>
       </c>
       <c r="J15">
-        <v>1.022818832472289</v>
+        <v>1.023167169279292</v>
       </c>
       <c r="K15">
-        <v>1.030765712985904</v>
+        <v>1.030836933372882</v>
       </c>
       <c r="L15">
-        <v>1.018445432111823</v>
+        <v>1.018798145510348</v>
       </c>
       <c r="M15">
-        <v>1.036093647408678</v>
+        <v>1.036240589609424</v>
       </c>
       <c r="N15">
-        <v>1.011534594840901</v>
+        <v>1.013761469833935</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038440907509079</v>
+        <v>1.038557049465449</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032898799119298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032965279775451</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020685008796053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9955500537334643</v>
+        <v>0.9957817182960272</v>
       </c>
       <c r="D16">
-        <v>1.017628224131615</v>
+        <v>1.01756184624359</v>
       </c>
       <c r="E16">
-        <v>1.005534491663191</v>
+        <v>1.00576363975992</v>
       </c>
       <c r="F16">
-        <v>1.023145411910058</v>
+        <v>1.023234233936059</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043110670040949</v>
+        <v>1.043148579962013</v>
       </c>
       <c r="J16">
-        <v>1.023863990300795</v>
+        <v>1.02408637946108</v>
       </c>
       <c r="K16">
-        <v>1.031650561381001</v>
+        <v>1.031585325611156</v>
       </c>
       <c r="L16">
-        <v>1.019768146768207</v>
+        <v>1.019993229602315</v>
       </c>
       <c r="M16">
-        <v>1.037073487479758</v>
+        <v>1.037160802704869</v>
       </c>
       <c r="N16">
-        <v>1.01188425840703</v>
+        <v>1.013799175181605</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.03917660974923</v>
+        <v>1.039245624977637</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033527600951794</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033497900317251</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020826827755704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9968641405049795</v>
+        <v>0.9970305866809266</v>
       </c>
       <c r="D17">
-        <v>1.018450949264315</v>
+        <v>1.018312871722232</v>
       </c>
       <c r="E17">
-        <v>1.006627013328097</v>
+        <v>1.006791740008157</v>
       </c>
       <c r="F17">
-        <v>1.02378654589949</v>
+        <v>1.023845372403763</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043367500289647</v>
+        <v>1.043368308410855</v>
       </c>
       <c r="J17">
-        <v>1.024443360831361</v>
+        <v>1.024603355261445</v>
       </c>
       <c r="K17">
-        <v>1.032143019999831</v>
+        <v>1.032007252129095</v>
       </c>
       <c r="L17">
-        <v>1.020519836231973</v>
+        <v>1.020681724226424</v>
       </c>
       <c r="M17">
-        <v>1.037389980247962</v>
+        <v>1.037447836135372</v>
       </c>
       <c r="N17">
-        <v>1.012068202034627</v>
+        <v>1.013835377616529</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039297571388063</v>
+        <v>1.039343306082708</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033878387135302</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033799064376138</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020899966436949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9974924054149861</v>
+        <v>0.9976362084945599</v>
       </c>
       <c r="D18">
-        <v>1.018818042953862</v>
+        <v>1.018653790583862</v>
       </c>
       <c r="E18">
-        <v>1.007128843195688</v>
+        <v>1.007271203737618</v>
       </c>
       <c r="F18">
-        <v>1.023633173870027</v>
+        <v>1.023681686512355</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043421366757224</v>
+        <v>1.043409637336225</v>
       </c>
       <c r="J18">
-        <v>1.024650482527195</v>
+        <v>1.024788815422641</v>
       </c>
       <c r="K18">
-        <v>1.03231967024436</v>
+        <v>1.032158120519386</v>
       </c>
       <c r="L18">
-        <v>1.020825647733819</v>
+        <v>1.020965596082368</v>
       </c>
       <c r="M18">
-        <v>1.037056066980049</v>
+        <v>1.037103791213212</v>
       </c>
       <c r="N18">
-        <v>1.012117011421112</v>
+        <v>1.013828924482486</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.038795512257493</v>
+        <v>1.038833245826327</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033991612233022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033892925928735</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020912446420925</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9974948967381171</v>
+        <v>0.9976491817645327</v>
       </c>
       <c r="D19">
-        <v>1.018777417229337</v>
+        <v>1.018624835104016</v>
       </c>
       <c r="E19">
-        <v>1.007090546185175</v>
+        <v>1.007243297770364</v>
       </c>
       <c r="F19">
-        <v>1.022708275105543</v>
+        <v>1.022761908826519</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.0432907626659</v>
+        <v>1.043286264059775</v>
       </c>
       <c r="J19">
-        <v>1.024517696195635</v>
+        <v>1.024666146784526</v>
       </c>
       <c r="K19">
-        <v>1.032216863888146</v>
+        <v>1.032066779195548</v>
       </c>
       <c r="L19">
-        <v>1.020724106878799</v>
+        <v>1.02087428385177</v>
       </c>
       <c r="M19">
-        <v>1.036083712158409</v>
+        <v>1.036136476883298</v>
       </c>
       <c r="N19">
-        <v>1.012045893437715</v>
+        <v>1.013765523755329</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037700375530726</v>
+        <v>1.037742108097282</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033925339582317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.0338353837338</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020872449688536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9957281265365896</v>
+        <v>0.9959835645423755</v>
       </c>
       <c r="D20">
-        <v>1.017568949157477</v>
+        <v>1.017532257762444</v>
       </c>
       <c r="E20">
-        <v>1.00552498665605</v>
+        <v>1.005777760188605</v>
       </c>
       <c r="F20">
-        <v>1.01972108335431</v>
+        <v>1.019822559175829</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042639848869757</v>
+        <v>1.042697203829416</v>
       </c>
       <c r="J20">
-        <v>1.023424720771632</v>
+        <v>1.023670195857905</v>
       </c>
       <c r="K20">
-        <v>1.03130974787731</v>
+        <v>1.031273673276285</v>
       </c>
       <c r="L20">
-        <v>1.019471376590834</v>
+        <v>1.019719769811156</v>
       </c>
       <c r="M20">
-        <v>1.033425804086257</v>
+        <v>1.033525583629564</v>
       </c>
       <c r="N20">
-        <v>1.011634942873886</v>
+        <v>1.01352950818985</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035067709275655</v>
+        <v>1.035146674741629</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033287901516177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033278945981468</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020679101225515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9915278737544084</v>
+        <v>0.9920498632478491</v>
       </c>
       <c r="D21">
-        <v>1.014884374891363</v>
+        <v>1.015125332835546</v>
       </c>
       <c r="E21">
-        <v>1.001981189273198</v>
+        <v>1.002496900250022</v>
       </c>
       <c r="F21">
-        <v>1.016450518923882</v>
+        <v>1.016676728100305</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041630112937914</v>
+        <v>1.041839135201911</v>
       </c>
       <c r="J21">
-        <v>1.021384131916485</v>
+        <v>1.02188377845657</v>
       </c>
       <c r="K21">
-        <v>1.029589140559686</v>
+        <v>1.029825707443188</v>
       </c>
       <c r="L21">
-        <v>1.016925124377632</v>
+        <v>1.017431121996941</v>
       </c>
       <c r="M21">
-        <v>1.031126792608619</v>
+        <v>1.031348895925364</v>
       </c>
       <c r="N21">
-        <v>1.010936877129673</v>
+        <v>1.013461402392049</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.033207121457494</v>
+        <v>1.033382903121521</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032074594952831</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032258737216281</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020394813988978</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9888569075610917</v>
+        <v>0.9895477060949197</v>
       </c>
       <c r="D22">
-        <v>1.013180928335531</v>
+        <v>1.013597735562214</v>
       </c>
       <c r="E22">
-        <v>0.9997373242284766</v>
+        <v>1.000419083576618</v>
       </c>
       <c r="F22">
-        <v>1.014469118200537</v>
+        <v>1.01477464367976</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040989504733598</v>
+        <v>1.041294680317621</v>
       </c>
       <c r="J22">
-        <v>1.020094094777606</v>
+        <v>1.020753616101355</v>
       </c>
       <c r="K22">
-        <v>1.028495714003572</v>
+        <v>1.028904547258573</v>
       </c>
       <c r="L22">
-        <v>1.015313986573784</v>
+        <v>1.015982242908649</v>
       </c>
       <c r="M22">
-        <v>1.029759287102022</v>
+        <v>1.030058986113001</v>
       </c>
       <c r="N22">
-        <v>1.01049643505997</v>
+        <v>1.013412858666908</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.032124820604289</v>
+        <v>1.032362015035669</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031287932022227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031592576491471</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020212413740282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9902690523916324</v>
+        <v>0.9908592749537299</v>
       </c>
       <c r="D23">
-        <v>1.014074869696298</v>
+        <v>1.01439029164083</v>
       </c>
       <c r="E23">
-        <v>1.000921742170706</v>
+        <v>1.001504575006109</v>
       </c>
       <c r="F23">
-        <v>1.01551801952213</v>
+        <v>1.015776319235486</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041324965256144</v>
+        <v>1.041573701837622</v>
       </c>
       <c r="J23">
-        <v>1.02077223473039</v>
+        <v>1.021336511668274</v>
       </c>
       <c r="K23">
-        <v>1.029066086802465</v>
+        <v>1.0293756265341</v>
       </c>
       <c r="L23">
-        <v>1.016162572569697</v>
+        <v>1.016734162854706</v>
       </c>
       <c r="M23">
-        <v>1.030482362727468</v>
+        <v>1.030735862970017</v>
       </c>
       <c r="N23">
-        <v>1.010727061088129</v>
+        <v>1.013393995499875</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.03269709299917</v>
+        <v>1.032897723618889</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031681541840373</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031915039021759</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020303663592938</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.995741125814447</v>
+        <v>0.9959971109241559</v>
       </c>
       <c r="D24">
-        <v>1.017560630042417</v>
+        <v>1.017524529334591</v>
       </c>
       <c r="E24">
-        <v>1.005527808820022</v>
+        <v>1.005781129742462</v>
       </c>
       <c r="F24">
-        <v>1.01959716934205</v>
+        <v>1.019698958318052</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042616655882389</v>
+        <v>1.042674508168768</v>
       </c>
       <c r="J24">
-        <v>1.023404109018557</v>
+        <v>1.02365012428493</v>
       </c>
       <c r="K24">
-        <v>1.031286223139685</v>
+        <v>1.031250728530048</v>
       </c>
       <c r="L24">
-        <v>1.019458540407219</v>
+        <v>1.019707477217669</v>
       </c>
       <c r="M24">
-        <v>1.033288660346686</v>
+        <v>1.033388749459557</v>
       </c>
       <c r="N24">
-        <v>1.011623583973686</v>
+        <v>1.013516912144735</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.034918110285971</v>
+        <v>1.034997324723319</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033243767864805</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033232551624138</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020669421636243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001892630646865</v>
+        <v>1.001924847710999</v>
       </c>
       <c r="D25">
-        <v>1.021501294526676</v>
+        <v>1.021179996026346</v>
       </c>
       <c r="E25">
-        <v>1.010733855924521</v>
+        <v>1.010765809756053</v>
       </c>
       <c r="F25">
-        <v>1.024218315054222</v>
+        <v>1.024214450143482</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044037536976302</v>
+        <v>1.04395420284999</v>
       </c>
       <c r="J25">
-        <v>1.026356467668402</v>
+        <v>1.026387606241476</v>
       </c>
       <c r="K25">
-        <v>1.033774754080651</v>
+        <v>1.033458182104188</v>
       </c>
       <c r="L25">
-        <v>1.023167796833987</v>
+        <v>1.023199267973006</v>
       </c>
       <c r="M25">
-        <v>1.036451955796288</v>
+        <v>1.036448147336681</v>
       </c>
       <c r="N25">
-        <v>1.012629034707984</v>
+        <v>1.014209321491552</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.037421661704138</v>
+        <v>1.037418647550757</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035000427571149</v>
+        <v>1.034790167206243</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021101989683759</v>
       </c>
     </row>
   </sheetData>
